--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E7E09B-8C47-4CCD-8381-4126F9946F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5E123D-0FE4-44C2-BAE6-9CA0165B64B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{0B35871E-4663-488C-B05C-A1B5B9C863D7}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="7" xr2:uid="{0B35871E-4663-488C-B05C-A1B5B9C863D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="352">
   <si>
     <t>Price</t>
   </si>
@@ -1115,6 +1115,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Treated est.</t>
+  </si>
+  <si>
+    <t>non-GLP1 revenues worth maybe 200B in total?</t>
+  </si>
+  <si>
+    <t>~treating 100m people (~70% of TAM) in total maybe people take GLP-1 multiple times or other people enter the TAM. Very dynamic population</t>
   </si>
 </sst>
 </file>
@@ -1122,9 +1131,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1151,12 +1160,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1267,7 +1270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1281,13 +1284,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1311,8 +1308,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1320,7 +1316,7 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1871,7 +1867,7 @@
   <dimension ref="B2:L96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1887,38 +1883,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="27">
         <v>44694</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16"/>
+      <c r="G3" s="12"/>
       <c r="J3" t="s">
         <v>0</v>
       </c>
@@ -1927,16 +1921,13 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="32">
+      <c r="D4" s="27">
         <v>45238</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="12"/>
       <c r="J4" t="s">
         <v>1</v>
       </c>
@@ -1949,16 +1940,13 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="32">
+      <c r="D5" s="27">
         <v>43370</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
+      <c r="G5" s="12"/>
       <c r="J5" t="s">
         <v>2</v>
       </c>
@@ -1968,18 +1956,16 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" t="s">
         <v>300</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="27">
         <v>44953</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="12"/>
       <c r="J6" t="s">
         <v>3</v>
       </c>
@@ -1992,18 +1978,16 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" t="s">
         <v>302</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="27">
         <v>43959</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="12"/>
       <c r="J7" t="s">
         <v>4</v>
       </c>
@@ -2016,16 +2000,13 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="32">
+      <c r="D8" s="27">
         <v>43251</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="16"/>
+      <c r="G8" s="12"/>
       <c r="J8" t="s">
         <v>5</v>
       </c>
@@ -2035,1156 +2016,966 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="27">
         <v>45225</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="12"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="32">
+      <c r="D10" s="27">
         <v>43749</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="12"/>
       <c r="J10" t="s">
         <v>117</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="32">
+      <c r="D11" s="27">
         <v>43997</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="12"/>
       <c r="J11" t="s">
         <v>124</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="27">
         <v>45475</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="12"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="32">
+      <c r="D13" s="27">
         <v>45548</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="12"/>
       <c r="J13" s="5" t="s">
         <v>115</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="32">
+      <c r="D14" s="27">
         <v>39955</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="12"/>
       <c r="J14" t="s">
         <v>110</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="32">
+      <c r="D15" s="27">
         <v>38021</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="12"/>
       <c r="J15" t="s">
         <v>111</v>
       </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="32">
+      <c r="D16" s="27">
         <v>41005</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="12"/>
       <c r="J16" t="s">
         <v>298</v>
       </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="32">
+      <c r="D17" s="27">
         <v>43670</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="16"/>
+      <c r="G17" s="12"/>
       <c r="J17" t="s">
         <v>346</v>
       </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="32">
+      <c r="D18" s="27">
         <v>42354</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="16"/>
+      <c r="G18" s="12"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="32">
+      <c r="D19" s="27">
         <v>41750</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="16"/>
-      <c r="J19" s="29" t="s">
+      <c r="G19" s="12"/>
+      <c r="J19" s="25" t="s">
         <v>208</v>
       </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="32">
+      <c r="D20" s="27">
         <v>38029</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="16"/>
+      <c r="G20" s="12"/>
       <c r="J20" t="s">
         <v>221</v>
       </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="32">
+      <c r="D21" s="27">
         <v>37586</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="16"/>
+      <c r="G21" s="12"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="32">
+      <c r="D22" s="27">
         <v>42034</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="16"/>
+      <c r="G22" s="12"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="32">
+      <c r="D23" s="27">
         <v>35230</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="16"/>
+      <c r="G23" s="12"/>
       <c r="J23" t="s">
         <v>235</v>
       </c>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="32">
+      <c r="D24" s="27">
         <v>31701</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="16"/>
+      <c r="G24" s="12"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="32">
+      <c r="D25" s="27">
         <v>32623</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="16"/>
+      <c r="G25" s="12"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="32">
+      <c r="D26" s="27">
         <v>41852</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="16"/>
-      <c r="J26" s="29" t="s">
+      <c r="G26" s="12"/>
+      <c r="J26" s="25" t="s">
         <v>338</v>
       </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="32">
+      <c r="D27" s="27">
         <v>40938</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="16"/>
+      <c r="G27" s="12"/>
       <c r="J27" t="s">
         <v>339</v>
       </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="32">
+      <c r="D28" s="27">
         <v>42242</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="16"/>
+      <c r="G28" s="12"/>
       <c r="J28" t="s">
         <v>342</v>
       </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" t="s">
         <v>303</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="27">
         <v>42451</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="16"/>
+      <c r="G29" s="12"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="32">
+      <c r="D30" s="27">
         <v>43979</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="16"/>
+      <c r="G30" s="12"/>
       <c r="J30" t="s">
         <v>343</v>
       </c>
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="32">
+      <c r="D31" s="27">
         <v>40665</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="16"/>
+      <c r="G31" s="12"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="32">
+      <c r="D32" s="27">
         <v>45553</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="16"/>
+      <c r="G32" s="12"/>
       <c r="J32" t="s">
         <v>344</v>
       </c>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" t="s">
         <v>305</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="27">
         <v>43006</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="16"/>
+      <c r="G33" s="12"/>
       <c r="J33" t="s">
         <v>345</v>
       </c>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="33">
+      <c r="C34" s="14"/>
+      <c r="D34" s="28">
         <v>35338</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="20"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="16"/>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="24"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="16"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" t="s">
         <v>245</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="16"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" t="s">
         <v>241</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="16"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="16"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" t="s">
         <v>242</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="16"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" t="s">
         <v>244</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="16"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" t="s">
         <v>340</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" t="s">
         <v>341</v>
       </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="16"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" t="s">
         <v>218</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="16"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" t="s">
         <v>301</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="16"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="16"/>
+      <c r="G45" s="12"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" t="s">
         <v>304</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="16"/>
+      <c r="G46" s="12"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" t="s">
         <v>306</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" t="s">
         <v>230</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="16"/>
+      <c r="G47" s="12"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" t="s">
         <v>310</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="16"/>
+      <c r="G48" s="12"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" t="s">
         <v>306</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="16"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" t="s">
         <v>312</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="16"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" t="s">
         <v>326</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="16"/>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" t="s">
         <v>316</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="16"/>
+      <c r="G52" s="12"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" t="s">
         <v>306</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="16"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" t="s">
         <v>317</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="16"/>
+      <c r="G54" s="12"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" t="s">
         <v>311</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="16"/>
+      <c r="G55" s="12"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" t="s">
         <v>308</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="16"/>
+      <c r="G56" s="12"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" t="s">
         <v>327</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="16"/>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" t="s">
         <v>218</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="16"/>
+      <c r="G58" s="12"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" t="s">
         <v>313</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="16"/>
+      <c r="G59" s="12"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" t="s">
         <v>242</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="16"/>
+      <c r="G60" s="12"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" t="s">
         <v>314</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="16"/>
+      <c r="G61" s="12"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" t="s">
         <v>318</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="16"/>
+      <c r="G62" s="12"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="16"/>
+      <c r="G63" s="12"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" t="s">
         <v>311</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="16"/>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="16"/>
+      <c r="G65" s="12"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" t="s">
         <v>320</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="16"/>
+      <c r="G66" s="12"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" t="s">
         <v>315</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="16"/>
+      <c r="G67" s="12"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="16"/>
+      <c r="G68" s="12"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" t="s">
         <v>321</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="16"/>
+      <c r="G69" s="12"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" t="s">
         <v>322</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="16"/>
+      <c r="G70" s="12"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="16"/>
+      <c r="G71" s="12"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" t="s">
         <v>306</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="16"/>
+      <c r="G72" s="12"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="16"/>
+      <c r="G73" s="12"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" t="s">
         <v>306</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="16"/>
+      <c r="G74" s="12"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="16"/>
+      <c r="G75" s="12"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="16"/>
+      <c r="G76" s="12"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" t="s">
         <v>323</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="16"/>
+      <c r="G77" s="12"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" t="s">
         <v>307</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="16"/>
+      <c r="G78" s="12"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" t="s">
         <v>306</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="16"/>
+      <c r="G79" s="12"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" t="s">
         <v>218</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="16"/>
+      <c r="G80" s="12"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" t="s">
         <v>324</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="16"/>
+      <c r="G81" s="12"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="16"/>
+      <c r="G82" s="12"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" t="s">
         <v>241</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="16"/>
+      <c r="G83" s="12"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="31" t="s">
+      <c r="C84" t="s">
         <v>323</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="16"/>
+      <c r="G84" s="12"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="31" t="s">
+      <c r="C85" t="s">
         <v>325</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="16"/>
+      <c r="G85" s="12"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" t="s">
         <v>309</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="16"/>
+      <c r="G86" s="12"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="15" t="s">
+      <c r="D87" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="16"/>
+      <c r="G87" s="12"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="15" t="s">
+      <c r="D88" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="16"/>
+      <c r="G88" s="12"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" t="s">
         <v>324</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="16"/>
+      <c r="G89" s="12"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="D90" s="19" t="s">
+      <c r="D90" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="20"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="16"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D91" s="3"/>
@@ -3292,7 +3083,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3380,7 +3171,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3390,12 +3181,12 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="34">
+      <c r="C13" s="29">
         <v>46600</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3405,7 +3196,7 @@
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="34">
+      <c r="C17" s="29">
         <v>48274</v>
       </c>
     </row>
@@ -3489,7 +3280,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3499,12 +3290,12 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="34">
+      <c r="C13" s="29">
         <v>45689</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3514,12 +3305,12 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="34">
+      <c r="C16" s="29">
         <v>45748</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3529,12 +3320,12 @@
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="34">
+      <c r="C19" s="29">
         <v>46419</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3544,12 +3335,12 @@
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="34">
+      <c r="C22" s="29">
         <v>46174</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="25" t="s">
         <v>266</v>
       </c>
     </row>
@@ -3559,12 +3350,12 @@
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="34">
+      <c r="C25" s="29">
         <v>46327</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="25" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3574,12 +3365,12 @@
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="34">
+      <c r="C28" s="29">
         <v>46419</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="25" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3589,12 +3380,12 @@
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="34">
+      <c r="C31" s="29">
         <v>46266</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="25" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3604,7 +3395,7 @@
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="34">
+      <c r="C34" s="29">
         <v>46419</v>
       </c>
     </row>
@@ -3687,7 +3478,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3697,7 +3488,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="34">
+      <c r="C13" s="29">
         <v>47178</v>
       </c>
     </row>
@@ -3713,9 +3504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD6FE77-10D0-4452-A008-CC8E0FEAB7B3}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:B10"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3784,7 +3573,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3794,12 +3583,12 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="34">
+      <c r="C13" s="29">
         <v>46357</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3809,12 +3598,12 @@
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="34">
+      <c r="C17" s="29">
         <v>46874</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3824,12 +3613,12 @@
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="34">
+      <c r="C21" s="29">
         <v>46722</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="25" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3839,7 +3628,7 @@
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="34">
+      <c r="C25" s="29">
         <v>46844</v>
       </c>
     </row>
@@ -3924,7 +3713,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3934,12 +3723,12 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="34">
+      <c r="C13" s="29">
         <v>47392</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3949,12 +3738,12 @@
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="34">
+      <c r="C17" s="29">
         <v>48245</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3964,7 +3753,7 @@
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="34">
+      <c r="C21" s="29">
         <v>46478</v>
       </c>
     </row>
@@ -3980,11 +3769,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EBA39-FD53-497C-AEEB-0F0FD94197E7}">
   <dimension ref="A1:DP92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="U15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Z12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB39" sqref="AB39"/>
+      <selection pane="bottomRight" activeCell="AE36" sqref="AE36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4000,10 +3789,10 @@
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="24">
         <v>45876</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="24">
         <v>45960</v>
       </c>
     </row>
@@ -4304,44 +4093,44 @@
         <v>59070.648000000016</v>
       </c>
       <c r="R15" s="7">
-        <f>Q15*1.1</f>
-        <v>64977.712800000023</v>
+        <f>Q15*1.07</f>
+        <v>63205.593360000021</v>
       </c>
       <c r="S15" s="7">
-        <f t="shared" ref="S15:V15" si="2">R15*1.1</f>
-        <v>71475.484080000024</v>
+        <f t="shared" ref="S15:AA15" si="2">R15*1.07</f>
+        <v>67629.984895200032</v>
       </c>
       <c r="T15" s="7">
         <f t="shared" si="2"/>
-        <v>78623.032488000026</v>
+        <v>72364.083837864033</v>
       </c>
       <c r="U15" s="7">
         <f t="shared" si="2"/>
-        <v>86485.335736800029</v>
+        <v>77429.569706514521</v>
       </c>
       <c r="V15" s="7">
         <f t="shared" si="2"/>
-        <v>95133.869310480033</v>
+        <v>82849.639585970537</v>
       </c>
       <c r="W15" s="7">
-        <f t="shared" ref="W15:AA15" si="3">V15*1.1</f>
-        <v>104647.25624152804</v>
+        <f t="shared" si="2"/>
+        <v>88649.114356988473</v>
       </c>
       <c r="X15" s="7">
-        <f t="shared" si="3"/>
-        <v>115111.98186568085</v>
+        <f t="shared" si="2"/>
+        <v>94854.552361977665</v>
       </c>
       <c r="Y15" s="7">
-        <f t="shared" si="3"/>
-        <v>126623.18005224895</v>
+        <f t="shared" si="2"/>
+        <v>101494.37102731611</v>
       </c>
       <c r="Z15" s="7">
-        <f t="shared" si="3"/>
-        <v>139285.49805747386</v>
+        <f t="shared" si="2"/>
+        <v>108598.97699922825</v>
       </c>
       <c r="AA15" s="7">
-        <f t="shared" si="3"/>
-        <v>153214.04786322126</v>
+        <f t="shared" si="2"/>
+        <v>116200.90538917424</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -4359,11 +4148,11 @@
         <v>2380.1360000000004</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" ref="I16:J16" si="4">I15*0.17</f>
+        <f t="shared" ref="I16:J16" si="3">I15*0.17</f>
         <v>2618.1496000000006</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2879.9645600000008</v>
       </c>
       <c r="Q16" s="2">
@@ -4371,44 +4160,44 @@
         <v>10102.250160000001</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" ref="R16" si="5">R15*0.17</f>
-        <v>11046.211176000004</v>
+        <f t="shared" ref="R16" si="4">R15*0.17</f>
+        <v>10744.950871200004</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" ref="S16" si="6">S15*0.17</f>
-        <v>12150.832293600004</v>
+        <f t="shared" ref="S16" si="5">S15*0.17</f>
+        <v>11497.097432184006</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" ref="T16" si="7">T15*0.17</f>
-        <v>13365.915522960006</v>
+        <f t="shared" ref="T16" si="6">T15*0.17</f>
+        <v>12301.894252436887</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" ref="U16:V16" si="8">U15*0.17</f>
-        <v>14702.507075256006</v>
+        <f t="shared" ref="U16:V16" si="7">U15*0.17</f>
+        <v>13163.02685010747</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="8"/>
-        <v>16172.757782781608</v>
+        <f t="shared" si="7"/>
+        <v>14084.438729614993</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" ref="W16" si="9">W15*0.17</f>
-        <v>17790.033561059769</v>
+        <f t="shared" ref="W16" si="8">W15*0.17</f>
+        <v>15070.349440688042</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" ref="X16" si="10">X15*0.17</f>
-        <v>19569.036917165748</v>
+        <f t="shared" ref="X16" si="9">X15*0.17</f>
+        <v>16125.273901536204</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" ref="Y16" si="11">Y15*0.17</f>
-        <v>21525.940608882323</v>
+        <f t="shared" ref="Y16" si="10">Y15*0.17</f>
+        <v>17254.043074643741</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" ref="Z16" si="12">Z15*0.17</f>
-        <v>23678.534669770557</v>
+        <f t="shared" ref="Z16" si="11">Z15*0.17</f>
+        <v>18461.826089868806</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" ref="AA16" si="13">AA15*0.17</f>
-        <v>26046.388136747617</v>
+        <f t="shared" ref="AA16" si="12">AA15*0.17</f>
+        <v>19754.153916159623</v>
       </c>
     </row>
     <row r="17" spans="1:120" x14ac:dyDescent="0.2">
@@ -4416,27 +4205,27 @@
         <v>24</v>
       </c>
       <c r="C17" s="2">
-        <f>C15-C16</f>
+        <f t="shared" ref="C17:H17" si="13">C15-C16</f>
         <v>7094</v>
       </c>
       <c r="D17" s="2">
-        <f>D15-D16</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <f>E15-E16</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <f>F15-F16</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <f>G15-G16</f>
+        <f t="shared" si="13"/>
         <v>10504</v>
       </c>
       <c r="H17" s="2">
-        <f>H15-H16</f>
+        <f t="shared" si="13"/>
         <v>11620.664000000001</v>
       </c>
       <c r="I17" s="2">
@@ -4473,43 +4262,43 @@
       </c>
       <c r="R17" s="2">
         <f t="shared" ref="R17" si="20">R15-R16</f>
-        <v>53931.501624000019</v>
+        <v>52460.642488800018</v>
       </c>
       <c r="S17" s="2">
         <f t="shared" ref="S17" si="21">S15-S16</f>
-        <v>59324.65178640002</v>
+        <v>56132.887463016028</v>
       </c>
       <c r="T17" s="2">
         <f t="shared" ref="T17" si="22">T15-T16</f>
-        <v>65257.116965040019</v>
+        <v>60062.189585427142</v>
       </c>
       <c r="U17" s="2">
         <f t="shared" ref="U17:V17" si="23">U15-U16</f>
-        <v>71782.828661544016</v>
+        <v>64266.542856407053</v>
       </c>
       <c r="V17" s="2">
         <f t="shared" si="23"/>
-        <v>78961.11152769842</v>
+        <v>68765.200856355543</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" ref="W17" si="24">W15-W16</f>
-        <v>86857.222680468272</v>
+        <v>73578.764916300424</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" ref="X17" si="25">X15-X16</f>
-        <v>95542.944948515098</v>
+        <v>78729.278460441463</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" ref="Y17" si="26">Y15-Y16</f>
-        <v>105097.23944336662</v>
+        <v>84240.327952672378</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" ref="Z17" si="27">Z15-Z16</f>
-        <v>115606.9633877033</v>
+        <v>90137.15090935945</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" ref="AA17" si="28">AA15-AA16</f>
-        <v>127167.65972647365</v>
+        <v>96446.751473014621</v>
       </c>
     </row>
     <row r="18" spans="1:120" x14ac:dyDescent="0.2">
@@ -4611,99 +4400,99 @@
         <v>27</v>
       </c>
       <c r="C20" s="2">
-        <f>SUM(C18:C19)</f>
+        <f t="shared" ref="C20:H20" si="33">SUM(C18:C19)</f>
         <v>4475</v>
       </c>
       <c r="D20" s="2">
-        <f>SUM(D18:D19)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <f>SUM(E18:E19)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <f>SUM(F18:F19)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <f>SUM(G18:G19)</f>
-        <v>5203</v>
-      </c>
-      <c r="H20" s="2">
-        <f>SUM(H18:H19)</f>
-        <v>5203</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" ref="I20:L20" si="33">SUM(I18:I19)</f>
-        <v>5203</v>
-      </c>
-      <c r="J20" s="2">
         <f t="shared" si="33"/>
         <v>5203</v>
       </c>
+      <c r="H20" s="2">
+        <f t="shared" si="33"/>
+        <v>5203</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" ref="I20:L20" si="34">SUM(I18:I19)</f>
+        <v>5203</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="34"/>
+        <v>5203</v>
+      </c>
       <c r="L20" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" ref="M20" si="34">SUM(M18:M19)</f>
+        <f t="shared" ref="M20" si="35">SUM(M18:M19)</f>
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" ref="N20" si="35">SUM(N18:N19)</f>
+        <f t="shared" ref="N20" si="36">SUM(N18:N19)</f>
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" ref="O20" si="36">SUM(O18:O19)</f>
+        <f t="shared" ref="O20" si="37">SUM(O18:O19)</f>
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" ref="P20" si="37">SUM(P18:P19)</f>
+        <f t="shared" ref="P20" si="38">SUM(P18:P19)</f>
         <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" ref="Q20" si="38">SUM(Q18:Q19)</f>
+        <f t="shared" ref="Q20" si="39">SUM(Q18:Q19)</f>
         <v>20812</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" ref="R20" si="39">SUM(R18:R19)</f>
+        <f t="shared" ref="R20" si="40">SUM(R18:R19)</f>
         <v>10271.040000000001</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" ref="S20" si="40">SUM(S18:S19)</f>
+        <f t="shared" ref="S20" si="41">SUM(S18:S19)</f>
         <v>10681.881600000001</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" ref="T20" si="41">SUM(T18:T19)</f>
+        <f t="shared" ref="T20" si="42">SUM(T18:T19)</f>
         <v>11109.156864</v>
       </c>
       <c r="U20" s="2">
-        <f t="shared" ref="U20:V20" si="42">SUM(U18:U19)</f>
+        <f t="shared" ref="U20:V20" si="43">SUM(U18:U19)</f>
         <v>11553.52313856</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>12015.664064102401</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" ref="W20" si="43">SUM(W18:W19)</f>
+        <f t="shared" ref="W20" si="44">SUM(W18:W19)</f>
         <v>12496.290626666498</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" ref="X20" si="44">SUM(X18:X19)</f>
+        <f t="shared" ref="X20" si="45">SUM(X18:X19)</f>
         <v>12996.142251733158</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" ref="Y20" si="45">SUM(Y18:Y19)</f>
+        <f t="shared" ref="Y20" si="46">SUM(Y18:Y19)</f>
         <v>13515.987941802485</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" ref="Z20" si="46">SUM(Z18:Z19)</f>
+        <f t="shared" ref="Z20" si="47">SUM(Z18:Z19)</f>
         <v>14056.627459474585</v>
       </c>
       <c r="AA20" s="2">
-        <f t="shared" ref="AA20" si="47">SUM(AA18:AA19)</f>
+        <f t="shared" ref="AA20" si="48">SUM(AA18:AA19)</f>
         <v>14618.892557853569</v>
       </c>
     </row>
@@ -4712,100 +4501,100 @@
         <v>28</v>
       </c>
       <c r="C21" s="2">
-        <f>C17-C20</f>
+        <f t="shared" ref="C21:H21" si="49">C17-C20</f>
         <v>2619</v>
       </c>
       <c r="D21" s="2">
-        <f>D17-D20</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <f>E17-E20</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <f>F17-F20</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <f>G17-G20</f>
+        <f t="shared" si="49"/>
         <v>5301</v>
       </c>
       <c r="H21" s="2">
-        <f>H17-H20</f>
+        <f t="shared" si="49"/>
         <v>6417.6640000000007</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" ref="I21:L21" si="48">I17-I20</f>
+        <f t="shared" ref="I21:L21" si="50">I17-I20</f>
         <v>7579.7304000000022</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>8858.003440000004</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" ref="M21" si="49">M17-M20</f>
+        <f t="shared" ref="M21" si="51">M17-M20</f>
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" ref="N21" si="50">N17-N20</f>
+        <f t="shared" ref="N21" si="52">N17-N20</f>
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" ref="O21" si="51">O17-O20</f>
+        <f t="shared" ref="O21" si="53">O17-O20</f>
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" ref="P21" si="52">P17-P20</f>
+        <f t="shared" ref="P21" si="54">P17-P20</f>
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" ref="Q21" si="53">Q17-Q20</f>
+        <f t="shared" ref="Q21" si="55">Q17-Q20</f>
         <v>28156.397840000012</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" ref="R21" si="54">R17-R20</f>
-        <v>43660.461624000018</v>
+        <f t="shared" ref="R21" si="56">R17-R20</f>
+        <v>42189.602488800017</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" ref="S21" si="55">S17-S20</f>
-        <v>48642.770186400019</v>
+        <f t="shared" ref="S21" si="57">S17-S20</f>
+        <v>45451.005863016027</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" ref="T21" si="56">T17-T20</f>
-        <v>54147.960101040022</v>
+        <f t="shared" ref="T21" si="58">T17-T20</f>
+        <v>48953.032721427138</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" ref="U21:V21" si="57">U17-U20</f>
-        <v>60229.305522984017</v>
+        <f t="shared" ref="U21:V21" si="59">U17-U20</f>
+        <v>52713.019717847055</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="57"/>
-        <v>66945.447463596021</v>
+        <f t="shared" si="59"/>
+        <v>56749.536792253144</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" ref="W21" si="58">W17-W20</f>
-        <v>74360.932053801778</v>
+        <f t="shared" ref="W21" si="60">W17-W20</f>
+        <v>61082.47428963393</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" ref="X21" si="59">X17-X20</f>
-        <v>82546.802696781946</v>
+        <f t="shared" ref="X21" si="61">X17-X20</f>
+        <v>65733.136208708311</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" ref="Y21" si="60">Y17-Y20</f>
-        <v>91581.25150156414</v>
+        <f t="shared" ref="Y21" si="62">Y17-Y20</f>
+        <v>70724.340010869899</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" ref="Z21" si="61">Z17-Z20</f>
-        <v>101550.33592822871</v>
+        <f t="shared" ref="Z21" si="63">Z17-Z20</f>
+        <v>76080.523449884873</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" ref="AA21" si="62">AA17-AA20</f>
-        <v>112548.76716862008</v>
+        <f t="shared" ref="AA21" si="64">AA17-AA20</f>
+        <v>81827.85891516105</v>
       </c>
     </row>
     <row r="22" spans="1:120" x14ac:dyDescent="0.2">
@@ -4835,44 +4624,44 @@
         <v>-117.93894652063994</v>
       </c>
       <c r="R22" s="2">
-        <f>Q33*$AD$27</f>
+        <f t="shared" ref="R22:AA22" si="65">Q33*$AD$27</f>
         <v>302.89863407436576</v>
       </c>
       <c r="S22" s="2">
-        <f>R33*$AD$27</f>
-        <v>1015.1050702551707</v>
+        <f t="shared" si="65"/>
+        <v>991.27715226493069</v>
       </c>
       <c r="T22" s="2">
-        <f>S33*$AD$27</f>
-        <v>1819.5626494129847</v>
+        <f t="shared" si="65"/>
+        <v>1743.6421371124818</v>
       </c>
       <c r="U22" s="2">
-        <f>T33*$AD$27</f>
-        <v>2726.2365179703233</v>
+        <f t="shared" si="65"/>
+        <v>2564.9282698208235</v>
       </c>
       <c r="V22" s="2">
-        <f>U33*$AD$27</f>
-        <v>3746.1162990337839</v>
+        <f t="shared" si="65"/>
+        <v>3460.4310272210437</v>
       </c>
       <c r="W22" s="2">
-        <f>V33*$AD$27</f>
-        <v>4891.3196319883864</v>
+        <f t="shared" si="65"/>
+        <v>4435.8325058965256</v>
       </c>
       <c r="X22" s="2">
-        <f>W33*$AD$27</f>
-        <v>6175.2061092981876</v>
+        <f t="shared" si="65"/>
+        <v>5497.2290759841189</v>
       </c>
       <c r="Y22" s="2">
-        <f>X33*$AD$27</f>
-        <v>7612.5026519566854</v>
+        <f t="shared" si="65"/>
+        <v>6651.160993596136</v>
       </c>
       <c r="Z22" s="2">
-        <f>Y33*$AD$27</f>
-        <v>9219.441469243724</v>
+        <f t="shared" si="65"/>
+        <v>7904.6441098684863</v>
       </c>
       <c r="AA22" s="2">
-        <f>Z33*$AD$27</f>
-        <v>11013.911863082778</v>
+        <f t="shared" si="65"/>
+        <v>9265.2038243364914</v>
       </c>
     </row>
     <row r="23" spans="1:120" x14ac:dyDescent="0.2">
@@ -4880,100 +4669,100 @@
         <v>48</v>
       </c>
       <c r="C23" s="2">
-        <f>C21+C22</f>
+        <f t="shared" ref="C23:H23" si="66">C21+C22</f>
         <v>2646</v>
       </c>
       <c r="D23" s="2">
-        <f>D21+D22</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <f>E21+E22</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <f>F21+F22</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <f>G21+G22</f>
+        <f t="shared" si="66"/>
         <v>5062</v>
       </c>
       <c r="H23" s="2">
-        <f>H21+H22</f>
+        <f t="shared" si="66"/>
         <v>6348.344000000001</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" ref="I23:L23" si="63">I21+I22</f>
+        <f t="shared" ref="I23:L23" si="67">I21+I22</f>
         <v>7613.2535728000021</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>9014.8613206793634</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" ref="M23" si="64">M21+M22</f>
+        <f t="shared" ref="M23" si="68">M21+M22</f>
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" ref="N23" si="65">N21+N22</f>
+        <f t="shared" ref="N23" si="69">N21+N22</f>
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" ref="O23" si="66">O21+O22</f>
+        <f t="shared" ref="O23" si="70">O21+O22</f>
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" ref="P23" si="67">P21+P22</f>
+        <f t="shared" ref="P23" si="71">P21+P22</f>
         <v>0</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" ref="Q23" si="68">Q21+Q22</f>
+        <f t="shared" ref="Q23" si="72">Q21+Q22</f>
         <v>28038.458893479372</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" ref="R23" si="69">R21+R22</f>
-        <v>43963.360258074383</v>
+        <f t="shared" ref="R23" si="73">R21+R22</f>
+        <v>42492.501122874382</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" ref="S23" si="70">S21+S22</f>
-        <v>49657.875256655192</v>
+        <f t="shared" ref="S23" si="74">S21+S22</f>
+        <v>46442.283015280955</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" ref="T23" si="71">T21+T22</f>
-        <v>55967.522750453005</v>
+        <f t="shared" ref="T23" si="75">T21+T22</f>
+        <v>50696.67485853962</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" ref="U23:V23" si="72">U21+U22</f>
-        <v>62955.542040954344</v>
+        <f t="shared" ref="U23:V23" si="76">U21+U22</f>
+        <v>55277.947987667882</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="72"/>
-        <v>70691.563762629812</v>
+        <f t="shared" si="76"/>
+        <v>60209.967819474186</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" ref="W23" si="73">W21+W22</f>
-        <v>79252.251685790165</v>
+        <f t="shared" ref="W23" si="77">W21+W22</f>
+        <v>65518.306795530458</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" ref="X23" si="74">X21+X22</f>
-        <v>88722.008806080135</v>
+        <f t="shared" ref="X23" si="78">X21+X22</f>
+        <v>71230.365284692423</v>
       </c>
       <c r="Y23" s="2">
-        <f t="shared" ref="Y23" si="75">Y21+Y22</f>
-        <v>99193.754153520829</v>
+        <f t="shared" ref="Y23" si="79">Y21+Y22</f>
+        <v>77375.50100446603</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" ref="Z23" si="76">Z21+Z22</f>
-        <v>110769.77739747244</v>
+        <f t="shared" ref="Z23" si="80">Z21+Z22</f>
+        <v>83985.167559753361</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" ref="AA23" si="77">AA21+AA22</f>
-        <v>123562.67903170285</v>
+        <f t="shared" ref="AA23" si="81">AA21+AA22</f>
+        <v>91093.062739497545</v>
       </c>
     </row>
     <row r="24" spans="1:120" x14ac:dyDescent="0.2">
@@ -4991,11 +4780,11 @@
         <v>1206.1853600000002</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" ref="I24:J24" si="78">I23*0.19</f>
+        <f t="shared" ref="I24:J24" si="82">I23*0.19</f>
         <v>1446.5181788320003</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>1712.8236509290791</v>
       </c>
       <c r="Q24" s="2">
@@ -5004,43 +4793,43 @@
       </c>
       <c r="R24" s="2">
         <f>R23*0.19</f>
-        <v>8353.038449034133</v>
+        <v>8073.5752133461328</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" ref="S24:V24" si="79">S23*0.19</f>
-        <v>9434.9962987644867</v>
+        <f t="shared" ref="S24:V24" si="83">S23*0.19</f>
+        <v>8824.0337729033818</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="79"/>
-        <v>10633.829322586071</v>
+        <f t="shared" si="83"/>
+        <v>9632.3682231225284</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="79"/>
-        <v>11961.552987781326</v>
+        <f t="shared" si="83"/>
+        <v>10502.810117656898</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="79"/>
-        <v>13431.397114899664</v>
+        <f t="shared" si="83"/>
+        <v>11439.893885700096</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" ref="W24" si="80">W23*0.19</f>
-        <v>15057.927820300132</v>
+        <f t="shared" ref="W24" si="84">W23*0.19</f>
+        <v>12448.478291150786</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" ref="X24" si="81">X23*0.19</f>
-        <v>16857.181673155224</v>
+        <f t="shared" ref="X24" si="85">X23*0.19</f>
+        <v>13533.769404091561</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" ref="Y24" si="82">Y23*0.19</f>
-        <v>18846.813289168957</v>
+        <f t="shared" ref="Y24" si="86">Y23*0.19</f>
+        <v>14701.345190848546</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" ref="Z24" si="83">Z23*0.19</f>
-        <v>21046.257705519765</v>
+        <f t="shared" ref="Z24" si="87">Z23*0.19</f>
+        <v>15957.181836353138</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" ref="AA24" si="84">AA23*0.19</f>
-        <v>23476.909016023543</v>
+        <f t="shared" ref="AA24" si="88">AA23*0.19</f>
+        <v>17307.681920504532</v>
       </c>
     </row>
     <row r="25" spans="1:120" x14ac:dyDescent="0.2">
@@ -5048,472 +4837,472 @@
         <v>50</v>
       </c>
       <c r="C25" s="2">
-        <f>C23-C24</f>
+        <f t="shared" ref="C25:H25" si="89">C23-C24</f>
         <v>2353</v>
       </c>
       <c r="D25" s="2">
-        <f>D23-D24</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <f>E23-E24</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <f>F23-F24</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <f>G23-G24</f>
+        <f t="shared" si="89"/>
         <v>4365</v>
       </c>
       <c r="H25" s="2">
-        <f>H23-H24</f>
+        <f t="shared" si="89"/>
         <v>5142.1586400000006</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" ref="I25:L25" si="85">I23-I24</f>
+        <f t="shared" ref="I25:L25" si="90">I23-I24</f>
         <v>6166.7353939680015</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>7302.0376697502843</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" ref="M25" si="86">M23-M24</f>
+        <f t="shared" ref="M25" si="91">M23-M24</f>
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" ref="N25" si="87">N23-N24</f>
+        <f t="shared" ref="N25" si="92">N23-N24</f>
         <v>0</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" ref="O25" si="88">O23-O24</f>
+        <f t="shared" ref="O25" si="93">O23-O24</f>
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" ref="P25" si="89">P23-P24</f>
+        <f t="shared" ref="P25" si="94">P23-P24</f>
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" ref="Q25" si="90">Q23-Q24</f>
+        <f t="shared" ref="Q25" si="95">Q23-Q24</f>
         <v>22975.931703718292</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" ref="R25" si="91">R23-R24</f>
-        <v>35610.321809040252</v>
+        <f t="shared" ref="R25" si="96">R23-R24</f>
+        <v>34418.925909528247</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" ref="S25" si="92">S23-S24</f>
-        <v>40222.878957890702</v>
+        <f t="shared" ref="S25" si="97">S23-S24</f>
+        <v>37618.249242377569</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" ref="T25" si="93">T23-T24</f>
-        <v>45333.693427866936</v>
+        <f t="shared" ref="T25" si="98">T23-T24</f>
+        <v>41064.306635417088</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" ref="U25:V25" si="94">U23-U24</f>
-        <v>50993.98905317302</v>
+        <f t="shared" ref="U25:V25" si="99">U23-U24</f>
+        <v>44775.137870010985</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="94"/>
-        <v>57260.166647730148</v>
+        <f t="shared" si="99"/>
+        <v>48770.073933774089</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" ref="W25" si="95">W23-W24</f>
-        <v>64194.323865490034</v>
+        <f t="shared" ref="W25" si="100">W23-W24</f>
+        <v>53069.828504379671</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" ref="X25" si="96">X23-X24</f>
-        <v>71864.827132924911</v>
+        <f t="shared" ref="X25" si="101">X23-X24</f>
+        <v>57696.595880600864</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" ref="Y25" si="97">Y23-Y24</f>
-        <v>80346.940864351869</v>
+        <f t="shared" ref="Y25" si="102">Y23-Y24</f>
+        <v>62674.155813617486</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" ref="Z25" si="98">Z23-Z24</f>
-        <v>89723.519691952679</v>
+        <f t="shared" ref="Z25" si="103">Z23-Z24</f>
+        <v>68027.985723400227</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" ref="AA25" si="99">AA23-AA24</f>
-        <v>100085.7700156793</v>
+        <f t="shared" ref="AA25" si="104">AA23-AA24</f>
+        <v>73785.380818993013</v>
       </c>
       <c r="AB25" s="2">
-        <f>AA25*(1+$AD$28)</f>
-        <v>99084.91231552251</v>
+        <f t="shared" ref="AB25:BG25" si="105">AA25*(1+$AD$28)</f>
+        <v>73047.527010803082</v>
       </c>
       <c r="AC25" s="2">
-        <f>AB25*(1+$AD$28)</f>
-        <v>98094.063192367277</v>
+        <f t="shared" si="105"/>
+        <v>72317.051740695053</v>
       </c>
       <c r="AD25" s="2">
-        <f>AC25*(1+$AD$28)</f>
-        <v>97113.122560443604</v>
+        <f t="shared" si="105"/>
+        <v>71593.881223288103</v>
       </c>
       <c r="AE25" s="2">
-        <f>AD25*(1+$AD$28)</f>
-        <v>96141.991334839171</v>
+        <f t="shared" si="105"/>
+        <v>70877.942411055221</v>
       </c>
       <c r="AF25" s="2">
-        <f>AE25*(1+$AD$28)</f>
-        <v>95180.571421490778</v>
+        <f t="shared" si="105"/>
+        <v>70169.162986944662</v>
       </c>
       <c r="AG25" s="2">
-        <f>AF25*(1+$AD$28)</f>
-        <v>94228.765707275874</v>
+        <f t="shared" si="105"/>
+        <v>69467.471357075221</v>
       </c>
       <c r="AH25" s="2">
-        <f>AG25*(1+$AD$28)</f>
-        <v>93286.478050203121</v>
+        <f t="shared" si="105"/>
+        <v>68772.796643504465</v>
       </c>
       <c r="AI25" s="2">
-        <f>AH25*(1+$AD$28)</f>
-        <v>92353.613269701091</v>
+        <f t="shared" si="105"/>
+        <v>68085.068677069416</v>
       </c>
       <c r="AJ25" s="2">
-        <f>AI25*(1+$AD$28)</f>
-        <v>91430.077137004075</v>
+        <f t="shared" si="105"/>
+        <v>67404.217990298726</v>
       </c>
       <c r="AK25" s="2">
-        <f>AJ25*(1+$AD$28)</f>
-        <v>90515.776365634039</v>
+        <f t="shared" si="105"/>
+        <v>66730.17581039574</v>
       </c>
       <c r="AL25" s="2">
-        <f>AK25*(1+$AD$28)</f>
-        <v>89610.618601977694</v>
+        <f t="shared" si="105"/>
+        <v>66062.87405229178</v>
       </c>
       <c r="AM25" s="2">
-        <f>AL25*(1+$AD$28)</f>
-        <v>88714.512415957914</v>
+        <f t="shared" si="105"/>
+        <v>65402.245311768864</v>
       </c>
       <c r="AN25" s="2">
-        <f>AM25*(1+$AD$28)</f>
-        <v>87827.367291798335</v>
+        <f t="shared" si="105"/>
+        <v>64748.222858651177</v>
       </c>
       <c r="AO25" s="2">
-        <f>AN25*(1+$AD$28)</f>
-        <v>86949.093618880346</v>
+        <f t="shared" si="105"/>
+        <v>64100.740630064662</v>
       </c>
       <c r="AP25" s="2">
-        <f>AO25*(1+$AD$28)</f>
-        <v>86079.602682691548</v>
+        <f t="shared" si="105"/>
+        <v>63459.733223764015</v>
       </c>
       <c r="AQ25" s="2">
-        <f>AP25*(1+$AD$28)</f>
-        <v>85218.806655864624</v>
+        <f t="shared" si="105"/>
+        <v>62825.135891526377</v>
       </c>
       <c r="AR25" s="2">
-        <f>AQ25*(1+$AD$28)</f>
-        <v>84366.618589305974</v>
+        <f t="shared" si="105"/>
+        <v>62196.884532611111</v>
       </c>
       <c r="AS25" s="2">
-        <f>AR25*(1+$AD$28)</f>
-        <v>83522.952403412914</v>
+        <f t="shared" si="105"/>
+        <v>61574.915687285</v>
       </c>
       <c r="AT25" s="2">
-        <f>AS25*(1+$AD$28)</f>
-        <v>82687.72287937878</v>
+        <f t="shared" si="105"/>
+        <v>60959.166530412149</v>
       </c>
       <c r="AU25" s="2">
-        <f>AT25*(1+$AD$28)</f>
-        <v>81860.84565058499</v>
+        <f t="shared" si="105"/>
+        <v>60349.574865108028</v>
       </c>
       <c r="AV25" s="2">
-        <f>AU25*(1+$AD$28)</f>
-        <v>81042.237194079134</v>
+        <f t="shared" si="105"/>
+        <v>59746.079116456945</v>
       </c>
       <c r="AW25" s="2">
-        <f>AV25*(1+$AD$28)</f>
-        <v>80231.814822138345</v>
+        <f t="shared" si="105"/>
+        <v>59148.618325292373</v>
       </c>
       <c r="AX25" s="2">
-        <f>AW25*(1+$AD$28)</f>
-        <v>79429.496673916961</v>
+        <f t="shared" si="105"/>
+        <v>58557.132142039445</v>
       </c>
       <c r="AY25" s="2">
-        <f>AX25*(1+$AD$28)</f>
-        <v>78635.201707177795</v>
+        <f t="shared" si="105"/>
+        <v>57971.560820619052</v>
       </c>
       <c r="AZ25" s="2">
-        <f>AY25*(1+$AD$28)</f>
-        <v>77848.849690106013</v>
+        <f t="shared" si="105"/>
+        <v>57391.84521241286</v>
       </c>
       <c r="BA25" s="2">
-        <f>AZ25*(1+$AD$28)</f>
-        <v>77070.361193204953</v>
+        <f t="shared" si="105"/>
+        <v>56817.926760288734</v>
       </c>
       <c r="BB25" s="2">
-        <f>BA25*(1+$AD$28)</f>
-        <v>76299.657581272899</v>
+        <f t="shared" si="105"/>
+        <v>56249.747492685849</v>
       </c>
       <c r="BC25" s="2">
-        <f>BB25*(1+$AD$28)</f>
-        <v>75536.661005460162</v>
+        <f t="shared" si="105"/>
+        <v>55687.25001775899</v>
       </c>
       <c r="BD25" s="2">
-        <f>BC25*(1+$AD$28)</f>
-        <v>74781.294395405566</v>
+        <f t="shared" si="105"/>
+        <v>55130.377517581401</v>
       </c>
       <c r="BE25" s="2">
-        <f>BD25*(1+$AD$28)</f>
-        <v>74033.481451451516</v>
+        <f t="shared" si="105"/>
+        <v>54579.073742405584</v>
       </c>
       <c r="BF25" s="2">
-        <f>BE25*(1+$AD$28)</f>
-        <v>73293.146636937003</v>
+        <f t="shared" si="105"/>
+        <v>54033.283004981531</v>
       </c>
       <c r="BG25" s="2">
-        <f>BF25*(1+$AD$28)</f>
-        <v>72560.215170567637</v>
+        <f t="shared" si="105"/>
+        <v>53492.950174931713</v>
       </c>
       <c r="BH25" s="2">
-        <f>BG25*(1+$AD$28)</f>
-        <v>71834.613018861957</v>
+        <f t="shared" ref="BH25:CM25" si="106">BG25*(1+$AD$28)</f>
+        <v>52958.020673182393</v>
       </c>
       <c r="BI25" s="2">
-        <f>BH25*(1+$AD$28)</f>
-        <v>71116.26688867333</v>
+        <f t="shared" si="106"/>
+        <v>52428.440466450571</v>
       </c>
       <c r="BJ25" s="2">
-        <f>BI25*(1+$AD$28)</f>
-        <v>70405.10421978659</v>
+        <f t="shared" si="106"/>
+        <v>51904.156061786067</v>
       </c>
       <c r="BK25" s="2">
-        <f>BJ25*(1+$AD$28)</f>
-        <v>69701.053177588721</v>
+        <f t="shared" si="106"/>
+        <v>51385.114501168209</v>
       </c>
       <c r="BL25" s="2">
-        <f>BK25*(1+$AD$28)</f>
-        <v>69004.042645812835</v>
+        <f t="shared" si="106"/>
+        <v>50871.263356156524</v>
       </c>
       <c r="BM25" s="2">
-        <f>BL25*(1+$AD$28)</f>
-        <v>68314.002219354705</v>
+        <f t="shared" si="106"/>
+        <v>50362.550722594955</v>
       </c>
       <c r="BN25" s="2">
-        <f>BM25*(1+$AD$28)</f>
-        <v>67630.862197161157</v>
+        <f t="shared" si="106"/>
+        <v>49858.925215369003</v>
       </c>
       <c r="BO25" s="2">
-        <f>BN25*(1+$AD$28)</f>
-        <v>66954.553575189551</v>
+        <f t="shared" si="106"/>
+        <v>49360.335963215315</v>
       </c>
       <c r="BP25" s="2">
-        <f>BO25*(1+$AD$28)</f>
-        <v>66285.008039437656</v>
+        <f t="shared" si="106"/>
+        <v>48866.732603583165</v>
       </c>
       <c r="BQ25" s="2">
-        <f>BP25*(1+$AD$28)</f>
-        <v>65622.157959043281</v>
+        <f t="shared" si="106"/>
+        <v>48378.065277547335</v>
       </c>
       <c r="BR25" s="2">
-        <f>BQ25*(1+$AD$28)</f>
-        <v>64965.936379452847</v>
+        <f t="shared" si="106"/>
+        <v>47894.284624771863</v>
       </c>
       <c r="BS25" s="2">
-        <f>BR25*(1+$AD$28)</f>
-        <v>64316.277015658321</v>
+        <f t="shared" si="106"/>
+        <v>47415.34177852414</v>
       </c>
       <c r="BT25" s="2">
-        <f>BS25*(1+$AD$28)</f>
-        <v>63673.11424550174</v>
+        <f t="shared" si="106"/>
+        <v>46941.188360738895</v>
       </c>
       <c r="BU25" s="2">
-        <f>BT25*(1+$AD$28)</f>
-        <v>63036.383103046719</v>
+        <f t="shared" si="106"/>
+        <v>46471.776477131505</v>
       </c>
       <c r="BV25" s="2">
-        <f>BU25*(1+$AD$28)</f>
-        <v>62406.019272016252</v>
+        <f t="shared" si="106"/>
+        <v>46007.058712360187</v>
       </c>
       <c r="BW25" s="2">
-        <f>BV25*(1+$AD$28)</f>
-        <v>61781.959079296088</v>
+        <f t="shared" si="106"/>
+        <v>45546.988125236589</v>
       </c>
       <c r="BX25" s="2">
-        <f>BW25*(1+$AD$28)</f>
-        <v>61164.139488503126</v>
+        <f t="shared" si="106"/>
+        <v>45091.518243984225</v>
       </c>
       <c r="BY25" s="2">
-        <f>BX25*(1+$AD$28)</f>
-        <v>60552.498093618095</v>
+        <f t="shared" si="106"/>
+        <v>44640.603061544381</v>
       </c>
       <c r="BZ25" s="2">
-        <f>BY25*(1+$AD$28)</f>
-        <v>59946.97311268191</v>
+        <f t="shared" si="106"/>
+        <v>44194.197030928939</v>
       </c>
       <c r="CA25" s="2">
-        <f>BZ25*(1+$AD$28)</f>
-        <v>59347.503381555092</v>
+        <f t="shared" si="106"/>
+        <v>43752.255060619653</v>
       </c>
       <c r="CB25" s="2">
-        <f>CA25*(1+$AD$28)</f>
-        <v>58754.028347739542</v>
+        <f t="shared" si="106"/>
+        <v>43314.732510013455</v>
       </c>
       <c r="CC25" s="2">
-        <f>CB25*(1+$AD$28)</f>
-        <v>58166.488064262143</v>
+        <f t="shared" si="106"/>
+        <v>42881.585184913318</v>
       </c>
       <c r="CD25" s="2">
-        <f>CC25*(1+$AD$28)</f>
-        <v>57584.823183619519</v>
+        <f t="shared" si="106"/>
+        <v>42452.769333064185</v>
       </c>
       <c r="CE25" s="2">
-        <f>CD25*(1+$AD$28)</f>
-        <v>57008.974951783326</v>
+        <f t="shared" si="106"/>
+        <v>42028.24163973354</v>
       </c>
       <c r="CF25" s="2">
-        <f>CE25*(1+$AD$28)</f>
-        <v>56438.88520226549</v>
+        <f t="shared" si="106"/>
+        <v>41607.959223336205</v>
       </c>
       <c r="CG25" s="2">
-        <f>CF25*(1+$AD$28)</f>
-        <v>55874.496350242836</v>
+        <f t="shared" si="106"/>
+        <v>41191.879631102842</v>
       </c>
       <c r="CH25" s="2">
-        <f>CG25*(1+$AD$28)</f>
-        <v>55315.751386740405</v>
+        <f t="shared" si="106"/>
+        <v>40779.960834791811</v>
       </c>
       <c r="CI25" s="2">
-        <f>CH25*(1+$AD$28)</f>
-        <v>54762.593872873003</v>
+        <f t="shared" si="106"/>
+        <v>40372.161226443895</v>
       </c>
       <c r="CJ25" s="2">
-        <f>CI25*(1+$AD$28)</f>
-        <v>54214.967934144275</v>
+        <f t="shared" si="106"/>
+        <v>39968.439614179457</v>
       </c>
       <c r="CK25" s="2">
-        <f>CJ25*(1+$AD$28)</f>
-        <v>53672.818254802834</v>
+        <f t="shared" si="106"/>
+        <v>39568.755218037659</v>
       </c>
       <c r="CL25" s="2">
-        <f>CK25*(1+$AD$28)</f>
-        <v>53136.090072254803</v>
+        <f t="shared" si="106"/>
+        <v>39173.067665857285</v>
       </c>
       <c r="CM25" s="2">
-        <f>CL25*(1+$AD$28)</f>
-        <v>52604.729171532257</v>
+        <f t="shared" si="106"/>
+        <v>38781.336989198709</v>
       </c>
       <c r="CN25" s="2">
-        <f>CM25*(1+$AD$28)</f>
-        <v>52078.681879816933</v>
+        <f t="shared" ref="CN25:DP25" si="107">CM25*(1+$AD$28)</f>
+        <v>38393.523619306725</v>
       </c>
       <c r="CO25" s="2">
-        <f>CN25*(1+$AD$28)</f>
-        <v>51557.89506101876</v>
+        <f t="shared" si="107"/>
+        <v>38009.58838311366</v>
       </c>
       <c r="CP25" s="2">
-        <f>CO25*(1+$AD$28)</f>
-        <v>51042.316110408574</v>
+        <f t="shared" si="107"/>
+        <v>37629.492499282525</v>
       </c>
       <c r="CQ25" s="2">
-        <f>CP25*(1+$AD$28)</f>
-        <v>50531.892949304485</v>
+        <f t="shared" si="107"/>
+        <v>37253.197574289698</v>
       </c>
       <c r="CR25" s="2">
-        <f>CQ25*(1+$AD$28)</f>
-        <v>50026.574019811436</v>
+        <f t="shared" si="107"/>
+        <v>36880.665598546802</v>
       </c>
       <c r="CS25" s="2">
-        <f>CR25*(1+$AD$28)</f>
-        <v>49526.308279613324</v>
+        <f t="shared" si="107"/>
+        <v>36511.858942561332</v>
       </c>
       <c r="CT25" s="2">
-        <f>CS25*(1+$AD$28)</f>
-        <v>49031.045196817191</v>
+        <f t="shared" si="107"/>
+        <v>36146.740353135719</v>
       </c>
       <c r="CU25" s="2">
-        <f>CT25*(1+$AD$28)</f>
-        <v>48540.734744849018</v>
+        <f t="shared" si="107"/>
+        <v>35785.272949604361</v>
       </c>
       <c r="CV25" s="2">
-        <f>CU25*(1+$AD$28)</f>
-        <v>48055.327397400528</v>
+        <f t="shared" si="107"/>
+        <v>35427.420220108317</v>
       </c>
       <c r="CW25" s="2">
-        <f>CV25*(1+$AD$28)</f>
-        <v>47574.77412342652</v>
+        <f t="shared" si="107"/>
+        <v>35073.146017907231</v>
       </c>
       <c r="CX25" s="2">
-        <f>CW25*(1+$AD$28)</f>
-        <v>47099.026382192256</v>
+        <f t="shared" si="107"/>
+        <v>34722.41455772816</v>
       </c>
       <c r="CY25" s="2">
-        <f>CX25*(1+$AD$28)</f>
-        <v>46628.036118370335</v>
+        <f t="shared" si="107"/>
+        <v>34375.190412150878</v>
       </c>
       <c r="CZ25" s="2">
-        <f>CY25*(1+$AD$28)</f>
-        <v>46161.755757186635</v>
+        <f t="shared" si="107"/>
+        <v>34031.438508029372</v>
       </c>
       <c r="DA25" s="2">
-        <f>CZ25*(1+$AD$28)</f>
-        <v>45700.138199614768</v>
+        <f t="shared" si="107"/>
+        <v>33691.124122949077</v>
       </c>
       <c r="DB25" s="2">
-        <f>DA25*(1+$AD$28)</f>
-        <v>45243.136817618622</v>
+        <f t="shared" si="107"/>
+        <v>33354.212881719584</v>
       </c>
       <c r="DC25" s="2">
-        <f>DB25*(1+$AD$28)</f>
-        <v>44790.705449442437</v>
+        <f t="shared" si="107"/>
+        <v>33020.670752902392</v>
       </c>
       <c r="DD25" s="2">
-        <f>DC25*(1+$AD$28)</f>
-        <v>44342.798394948011</v>
+        <f t="shared" si="107"/>
+        <v>32690.464045373366</v>
       </c>
       <c r="DE25" s="2">
-        <f>DD25*(1+$AD$28)</f>
-        <v>43899.370410998534</v>
+        <f t="shared" si="107"/>
+        <v>32363.559404919633</v>
       </c>
       <c r="DF25" s="2">
-        <f>DE25*(1+$AD$28)</f>
-        <v>43460.37670688855</v>
+        <f t="shared" si="107"/>
+        <v>32039.923810870438</v>
       </c>
       <c r="DG25" s="2">
-        <f>DF25*(1+$AD$28)</f>
-        <v>43025.772939819661</v>
+        <f t="shared" si="107"/>
+        <v>31719.524572761733</v>
       </c>
       <c r="DH25" s="2">
-        <f>DG25*(1+$AD$28)</f>
-        <v>42595.515210421465</v>
+        <f t="shared" si="107"/>
+        <v>31402.329327034116</v>
       </c>
       <c r="DI25" s="2">
-        <f>DH25*(1+$AD$28)</f>
-        <v>42169.560058317249</v>
+        <f t="shared" si="107"/>
+        <v>31088.306033763776</v>
       </c>
       <c r="DJ25" s="2">
-        <f>DI25*(1+$AD$28)</f>
-        <v>41747.864457734075</v>
+        <f t="shared" si="107"/>
+        <v>30777.422973426139</v>
       </c>
       <c r="DK25" s="2">
-        <f>DJ25*(1+$AD$28)</f>
-        <v>41330.385813156732</v>
+        <f t="shared" si="107"/>
+        <v>30469.648743691876</v>
       </c>
       <c r="DL25" s="2">
-        <f>DK25*(1+$AD$28)</f>
-        <v>40917.081955025162</v>
+        <f t="shared" si="107"/>
+        <v>30164.952256254957</v>
       </c>
       <c r="DM25" s="2">
-        <f>DL25*(1+$AD$28)</f>
-        <v>40507.911135474911</v>
+        <f t="shared" si="107"/>
+        <v>29863.302733692406</v>
       </c>
       <c r="DN25" s="2">
-        <f>DM25*(1+$AD$28)</f>
-        <v>40102.832024120158</v>
+        <f t="shared" si="107"/>
+        <v>29564.669706355482</v>
       </c>
       <c r="DO25" s="2">
-        <f>DN25*(1+$AD$28)</f>
-        <v>39701.803703878955</v>
+        <f t="shared" si="107"/>
+        <v>29269.023009291926</v>
       </c>
       <c r="DP25" s="2">
-        <f>DO25*(1+$AD$28)</f>
-        <v>39304.785666840166</v>
+        <f t="shared" si="107"/>
+        <v>28976.332779199009</v>
       </c>
     </row>
     <row r="26" spans="1:120" x14ac:dyDescent="0.2">
@@ -5531,11 +5320,11 @@
         <v>899</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" ref="I26:J26" si="100">H26</f>
+        <f t="shared" ref="I26:J26" si="108">H26</f>
         <v>899</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>899</v>
       </c>
       <c r="Q26" s="2">
@@ -5547,39 +5336,39 @@
         <v>899</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" ref="S26:V26" si="101">R26</f>
+        <f t="shared" ref="S26:V26" si="109">R26</f>
         <v>899</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>899</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>899</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>899</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" ref="W26:AA26" si="102">V26</f>
+        <f t="shared" ref="W26:AA26" si="110">V26</f>
         <v>899</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>899</v>
       </c>
       <c r="Y26" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>899</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>899</v>
       </c>
       <c r="AA26" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>899</v>
       </c>
     </row>
@@ -5588,100 +5377,100 @@
         <v>51</v>
       </c>
       <c r="C27" s="1">
-        <f>C25/C26</f>
+        <f t="shared" ref="C27:H27" si="111">C25/C26</f>
         <v>2.611542730299667</v>
       </c>
       <c r="D27" s="1" t="e">
-        <f>D25/D26</f>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="1" t="e">
-        <f>E25/E26</f>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="1" t="e">
-        <f>F25/F26</f>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="1">
-        <f>G25/G26</f>
+        <f t="shared" si="111"/>
         <v>4.8553948832035596</v>
       </c>
       <c r="H27" s="1">
-        <f>H25/H26</f>
+        <f t="shared" si="111"/>
         <v>5.7198650055617355</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27:L27" si="103">I25/I26</f>
+        <f t="shared" ref="I27:L27" si="112">I25/I26</f>
         <v>6.8595499376729716</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="112"/>
         <v>8.1224000775865228</v>
       </c>
       <c r="L27" s="1" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="1" t="e">
-        <f t="shared" ref="M27" si="104">M25/M26</f>
+        <f t="shared" ref="M27" si="113">M25/M26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="1" t="e">
-        <f t="shared" ref="N27" si="105">N25/N26</f>
+        <f t="shared" ref="N27" si="114">N25/N26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="1" t="e">
-        <f t="shared" ref="O27" si="106">O25/O26</f>
+        <f t="shared" ref="O27" si="115">O25/O26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="1" t="e">
-        <f t="shared" ref="P27" si="107">P25/P26</f>
+        <f t="shared" ref="P27" si="116">P25/P26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" ref="Q27" si="108">Q25/Q26</f>
+        <f t="shared" ref="Q27" si="117">Q25/Q26</f>
         <v>25.557209904024795</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" ref="R27" si="109">R25/R26</f>
-        <v>39.611036495039215</v>
+        <f t="shared" ref="R27" si="118">R25/R26</f>
+        <v>38.285790778118184</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" ref="S27" si="110">S25/S26</f>
-        <v>44.741800843037488</v>
+        <f t="shared" ref="S27" si="119">S25/S26</f>
+        <v>41.844548656704752</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" ref="T27" si="111">T25/T26</f>
-        <v>50.426800253467114</v>
+        <f t="shared" ref="T27" si="120">T25/T26</f>
+        <v>45.67776043984103</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" ref="U27:V27" si="112">U25/U26</f>
-        <v>56.723013407311477</v>
+        <f t="shared" ref="U27:V27" si="121">U25/U26</f>
+        <v>49.80549262515126</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="112"/>
-        <v>63.693177583682036</v>
+        <f t="shared" si="121"/>
+        <v>54.249247979726462</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" ref="W27" si="113">W25/W26</f>
-        <v>71.406366924905484</v>
+        <f t="shared" ref="W27" si="122">W25/W26</f>
+        <v>59.032067301868381</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" ref="X27" si="114">X25/X26</f>
-        <v>79.938628623943174</v>
+        <f t="shared" ref="X27" si="123">X25/X26</f>
+        <v>64.178638354394735</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" ref="Y27" si="115">Y25/Y26</f>
-        <v>89.373682830202299</v>
+        <f t="shared" ref="Y27" si="124">Y25/Y26</f>
+        <v>69.715412473434355</v>
       </c>
       <c r="Z27" s="1">
-        <f t="shared" ref="Z27" si="116">Z25/Z26</f>
-        <v>99.803692649558045</v>
+        <f t="shared" ref="Z27" si="125">Z25/Z26</f>
+        <v>75.670729391991358</v>
       </c>
       <c r="AA27" s="1">
-        <f t="shared" ref="AA27" si="117">AA25/AA26</f>
-        <v>111.33011125214605</v>
+        <f t="shared" ref="AA27" si="126">AA25/AA26</f>
+        <v>82.074950855387115</v>
       </c>
       <c r="AC27" s="2" t="s">
         <v>119</v>
@@ -5691,10 +5480,10 @@
       </c>
     </row>
     <row r="28" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="AC28" s="11" t="s">
+      <c r="AC28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AD28" s="12">
+      <c r="AD28" s="10">
         <v>-0.01</v>
       </c>
     </row>
@@ -5708,76 +5497,76 @@
         <v>0.45164233576642343</v>
       </c>
       <c r="H29" s="9" t="e">
-        <f t="shared" ref="H29:J29" si="118">H15/D15-1</f>
+        <f t="shared" ref="H29:J29" si="127">H15/D15-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="9" t="e">
-        <f t="shared" si="118"/>
+        <f t="shared" si="127"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J29" s="9" t="e">
-        <f t="shared" si="118"/>
+        <f t="shared" si="127"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="9" t="e">
-        <f t="shared" ref="M29:V29" si="119">M15/L15-1</f>
+        <f t="shared" ref="M29:V29" si="128">M15/L15-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="9" t="e">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="9" t="e">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="9" t="e">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="9" t="e">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="9">
-        <f t="shared" si="119"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="128"/>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="S29" s="9">
-        <f t="shared" si="119"/>
-        <v>9.9999999999999867E-2</v>
+        <f t="shared" si="128"/>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="T29" s="9">
-        <f t="shared" si="119"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="128"/>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="U29" s="9">
-        <f t="shared" si="119"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="128"/>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="V29" s="9">
-        <f t="shared" si="119"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="128"/>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="W29" s="9">
-        <f t="shared" ref="W29:AA29" si="120">W15/V15-1</f>
-        <v>0.10000000000000009</v>
+        <f t="shared" ref="W29:AA29" si="129">W15/V15-1</f>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="X29" s="9">
-        <f t="shared" si="120"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="129"/>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="Y29" s="9">
-        <f t="shared" si="120"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="129"/>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="Z29" s="9">
-        <f t="shared" si="120"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="129"/>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="AA29" s="9">
-        <f t="shared" si="120"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="129"/>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="AC29" s="2" t="s">
         <v>121</v>
@@ -5795,103 +5584,103 @@
         <v>0.80907846715328469</v>
       </c>
       <c r="D30" s="10" t="e">
-        <f t="shared" ref="D30:J30" si="121">D17/D15</f>
+        <f t="shared" ref="D30:J30" si="130">D17/D15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="10" t="e">
-        <f t="shared" si="121"/>
+        <f t="shared" si="130"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="10" t="e">
-        <f t="shared" si="121"/>
+        <f t="shared" si="130"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="121"/>
+        <f t="shared" si="130"/>
         <v>0.82526712759270904</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="121"/>
+        <f t="shared" si="130"/>
         <v>0.83</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="121"/>
+        <f t="shared" si="130"/>
         <v>0.83</v>
       </c>
       <c r="J30" s="10">
-        <f t="shared" si="121"/>
+        <f t="shared" si="130"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="L30" s="10" t="e">
-        <f>L17/L15</f>
+        <f t="shared" ref="L30:Q30" si="131">L17/L15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="10" t="e">
-        <f>M17/M15</f>
+        <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="10" t="e">
-        <f>N17/N15</f>
+        <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="10" t="e">
-        <f>O17/O15</f>
+        <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="10" t="e">
-        <f>P17/P15</f>
+        <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="10">
-        <f>Q17/Q15</f>
+        <f t="shared" si="131"/>
         <v>0.82898020417856255</v>
       </c>
       <c r="R30" s="10">
-        <f t="shared" ref="R30:V30" si="122">R17/R15</f>
+        <f t="shared" ref="R30:V30" si="132">R17/R15</f>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="S30" s="10">
+        <f t="shared" si="132"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="T30" s="10">
+        <f t="shared" si="132"/>
         <v>0.83</v>
       </c>
-      <c r="S30" s="10">
-        <f t="shared" si="122"/>
+      <c r="U30" s="10">
+        <f t="shared" si="132"/>
         <v>0.83</v>
       </c>
-      <c r="T30" s="10">
-        <f t="shared" si="122"/>
+      <c r="V30" s="10">
+        <f t="shared" si="132"/>
         <v>0.83</v>
       </c>
-      <c r="U30" s="10">
-        <f t="shared" si="122"/>
+      <c r="W30" s="10">
+        <f t="shared" ref="W30:AA30" si="133">W17/W15</f>
         <v>0.82999999999999985</v>
       </c>
-      <c r="V30" s="10">
-        <f t="shared" si="122"/>
+      <c r="X30" s="10">
+        <f t="shared" si="133"/>
         <v>0.83</v>
       </c>
-      <c r="W30" s="10">
-        <f t="shared" ref="W30:AA30" si="123">W17/W15</f>
+      <c r="Y30" s="10">
+        <f t="shared" si="133"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="Z30" s="10">
+        <f t="shared" si="133"/>
         <v>0.83</v>
       </c>
-      <c r="X30" s="10">
-        <f t="shared" si="123"/>
-        <v>0.83</v>
-      </c>
-      <c r="Y30" s="10">
-        <f t="shared" si="123"/>
-        <v>0.83</v>
-      </c>
-      <c r="Z30" s="10">
-        <f t="shared" si="123"/>
+      <c r="AA30" s="10">
+        <f t="shared" si="133"/>
         <v>0.83000000000000007</v>
-      </c>
-      <c r="AA30" s="10">
-        <f t="shared" si="123"/>
-        <v>0.83</v>
       </c>
       <c r="AC30" s="2" t="s">
         <v>122</v>
       </c>
       <c r="AD30" s="2">
-        <f>NPV(AD29,Q25:XFD25)</f>
-        <v>1001179.1242146287</v>
+        <f>NPV(AD29,Q25:XFD25)+Main!K6-Main!K7</f>
+        <v>746543.52415987698</v>
       </c>
     </row>
     <row r="31" spans="1:120" x14ac:dyDescent="0.2">
@@ -5904,15 +5693,15 @@
         <v>0.26485655737704916</v>
       </c>
       <c r="H31" s="10" t="e">
-        <f t="shared" ref="H31:J31" si="124">H19/D19-1</f>
+        <f t="shared" ref="H31:J31" si="134">H19/D19-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I31" s="10" t="e">
-        <f t="shared" si="124"/>
+        <f t="shared" si="134"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="10" t="e">
-        <f t="shared" si="124"/>
+        <f t="shared" si="134"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="10"/>
@@ -5925,39 +5714,39 @@
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="S31" s="10">
-        <f t="shared" ref="S31:V31" si="125">S19/R19-1</f>
+        <f t="shared" ref="S31:V31" si="135">S19/R19-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="T31" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="U31" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="V31" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="W31" s="10">
-        <f t="shared" ref="W31:AA31" si="126">W19/V19-1</f>
+        <f t="shared" ref="W31:AA31" si="136">W19/V19-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="X31" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="136"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="Y31" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="136"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="Z31" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="136"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AA31" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="136"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AC31" s="2" t="s">
@@ -5965,13 +5754,13 @@
       </c>
       <c r="AD31" s="1">
         <f>AD30/Main!K4</f>
-        <v>1056.3914218791419</v>
+        <v>787.71336308132231</v>
       </c>
     </row>
     <row r="32" spans="1:120" x14ac:dyDescent="0.2">
       <c r="AD32" s="10">
         <f>AD31/Main!K3-1</f>
-        <v>0.30257881859327007</v>
+        <v>-2.8713485719701226E-2</v>
       </c>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.2">
@@ -6003,11 +5792,11 @@
         <v>1676.1586400000006</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" ref="I33:J33" si="127">H33+I25</f>
+        <f t="shared" ref="I33:J33" si="137">H33+I25</f>
         <v>7842.8940339680021</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="137"/>
         <v>15144.931703718286</v>
       </c>
       <c r="L33" s="2">
@@ -6036,43 +5825,43 @@
       </c>
       <c r="R33" s="2">
         <f>Q33+R25</f>
-        <v>50755.253512758536</v>
+        <v>49563.857613246531</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" ref="S33:V33" si="128">R33+S25</f>
-        <v>90978.132470649231</v>
+        <f t="shared" ref="S33:V33" si="138">R33+S25</f>
+        <v>87182.106855624093</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="128"/>
-        <v>136311.82589851617</v>
+        <f t="shared" si="138"/>
+        <v>128246.41349104118</v>
       </c>
       <c r="U33" s="2">
-        <f t="shared" si="128"/>
-        <v>187305.81495168919</v>
+        <f t="shared" si="138"/>
+        <v>173021.55136105217</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="128"/>
-        <v>244565.98159941932</v>
+        <f t="shared" si="138"/>
+        <v>221791.62529482626</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" ref="W33:AA33" si="129">V33+W25</f>
-        <v>308760.30546490935</v>
+        <f t="shared" ref="W33:AA33" si="139">V33+W25</f>
+        <v>274861.45379920595</v>
       </c>
       <c r="X33" s="2">
-        <f t="shared" si="129"/>
-        <v>380625.13259783428</v>
+        <f t="shared" si="139"/>
+        <v>332558.04967980681</v>
       </c>
       <c r="Y33" s="2">
-        <f t="shared" si="129"/>
-        <v>460972.07346218615</v>
+        <f t="shared" si="139"/>
+        <v>395232.20549342432</v>
       </c>
       <c r="Z33" s="2">
-        <f t="shared" si="129"/>
-        <v>550695.59315413889</v>
+        <f t="shared" si="139"/>
+        <v>463260.19121682458</v>
       </c>
       <c r="AA33" s="2">
-        <f t="shared" si="129"/>
-        <v>650781.36316981819</v>
+        <f t="shared" si="139"/>
+        <v>537045.57203581755</v>
       </c>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.2">
@@ -6100,7 +5889,7 @@
       <c r="G36" s="2">
         <v>1966.6</v>
       </c>
-      <c r="AB36" s="36">
+      <c r="AB36" s="31">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
@@ -6111,7 +5900,7 @@
       <c r="G37" s="2">
         <v>9311</v>
       </c>
-      <c r="AB37" s="36">
+      <c r="AB37" s="31">
         <f>AB38-AB36</f>
         <v>2.6000000000000009E-2</v>
       </c>
@@ -6526,12 +6315,11 @@
       <c r="B88" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11">
+      <c r="G88" s="2">
         <v>2389</v>
       </c>
-      <c r="H88" s="12">
-        <f t="shared" ref="H88:H91" si="130">G88/$G$92</f>
+      <c r="H88" s="10">
+        <f t="shared" ref="H88:H91" si="140">G88/$G$92</f>
         <v>0.18769641734758014</v>
       </c>
     </row>
@@ -6543,7 +6331,7 @@
         <v>451</v>
       </c>
       <c r="H89" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="140"/>
         <v>3.5433689503456947E-2</v>
       </c>
     </row>
@@ -6555,7 +6343,7 @@
         <v>402</v>
       </c>
       <c r="H90" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="140"/>
         <v>3.1583909490886235E-2</v>
       </c>
     </row>
@@ -6567,7 +6355,7 @@
         <v>997</v>
       </c>
       <c r="H91" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="140"/>
         <v>7.8331238214959145E-2</v>
       </c>
     </row>
@@ -6843,16 +6631,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A23FC46-79AB-4D31-998B-F6F3117F2304}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="18" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -6903,6 +6694,364 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C20" s="10"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>2024</v>
+      </c>
+      <c r="D22">
+        <f>C22+1</f>
+        <v>2025</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:R22" si="0">D22+1</f>
+        <v>2026</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="2">
+        <v>136000000</v>
+      </c>
+      <c r="D23" s="2">
+        <f>C23*1.005</f>
+        <v>136680000</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23:R23" si="1">D23*1.005</f>
+        <v>137363400</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>138050217</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>138740468.08499998</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>139434170.42542496</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="1"/>
+        <v>140131341.27755207</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>140831997.98393983</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="1"/>
+        <v>141536157.97385952</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="1"/>
+        <v>142243838.7637288</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="1"/>
+        <v>142955057.95754743</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="1"/>
+        <v>143669833.24733514</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="1"/>
+        <v>144388182.4135718</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="1"/>
+        <v>145110123.32563964</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="1"/>
+        <v>145835673.94226781</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="1"/>
+        <v>146564852.31197912</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" s="2">
+        <f>C23*0.03</f>
+        <v>4080000</v>
+      </c>
+      <c r="D24">
+        <f>D23*0.04</f>
+        <v>5467200</v>
+      </c>
+      <c r="E24">
+        <f>E23*0.05</f>
+        <v>6868170</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:R24" si="2">F23*0.05</f>
+        <v>6902510.8500000006</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>6937023.4042499997</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>6971708.5212712483</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>7006567.063877604</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>7041599.8991969917</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>7076807.8986929767</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>7112191.9381864406</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>7147752.8978773719</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>7183491.6623667572</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>7219409.1206785906</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>7255506.1662819823</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>7291783.697113391</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>7328242.6155989561</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="F25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="H25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="J25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="K25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="L25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="M25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="N25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="O25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="P25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="R25" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2">
+        <f>C25*C24/1000000</f>
+        <v>48960</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:R26" si="3">D25*D24/1000000</f>
+        <v>65606.399999999994</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="3"/>
+        <v>82418.039999999994</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="3"/>
+        <v>82830.1302</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="3"/>
+        <v>83244.280851000003</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="3"/>
+        <v>83660.502255254978</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="3"/>
+        <v>84078.804766531248</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="3"/>
+        <v>84499.198790363909</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="3"/>
+        <v>84921.694784315725</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="3"/>
+        <v>85346.303258237283</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="3"/>
+        <v>85773.034774528453</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="3"/>
+        <v>86201.899948401086</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="3"/>
+        <v>86632.90944814308</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="3"/>
+        <v>87066.073995383791</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="3"/>
+        <v>87501.404365360693</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="3"/>
+        <v>87938.911387187472</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="2">
+        <f>NPV(D28,D26:R26)</f>
+        <v>753525.64885395556</v>
+      </c>
+      <c r="E29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D31" s="2">
+        <f>D29+200000</f>
+        <v>953525.64885395556</v>
       </c>
     </row>
   </sheetData>
@@ -6985,7 +7134,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7011,8 +7160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55209CA0-1E65-4F76-BF8E-7B463599745A}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7089,7 +7238,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>250</v>
       </c>
     </row>
@@ -7104,7 +7253,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>249</v>
       </c>
     </row>
@@ -7114,15 +7263,15 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="34">
+      <c r="C16" s="29">
         <v>45870</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C17" s="34"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>248</v>
       </c>
     </row>
@@ -7132,15 +7281,15 @@
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C20" s="34">
+      <c r="C20" s="29">
         <v>46478</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C21" s="34"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="25" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7150,7 +7299,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C24" s="34">
+      <c r="C24" s="29">
         <v>46692</v>
       </c>
     </row>
@@ -7163,7 +7312,7 @@
         <v>2026</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:T31" si="0">D31+1</f>
+        <f t="shared" ref="E31:S31" si="0">D31+1</f>
         <v>2027</v>
       </c>
       <c r="F31">
@@ -7509,7 +7658,7 @@
       <c r="C38" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="26">
         <f>NPV(D37,C35:S35)</f>
         <v>110214.69142256565</v>
       </c>
@@ -7597,7 +7746,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>222</v>
       </c>
     </row>
@@ -7607,7 +7756,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>225</v>
       </c>
     </row>

--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5E123D-0FE4-44C2-BAE6-9CA0165B64B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17349C1E-81E2-47A7-85E9-5DAB7885F2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="7" xr2:uid="{0B35871E-4663-488C-B05C-A1B5B9C863D7}"/>
+    <workbookView xWindow="1260" yWindow="1080" windowWidth="22335" windowHeight="13875" activeTab="2" xr2:uid="{0B35871E-4663-488C-B05C-A1B5B9C863D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="IP" sheetId="5" r:id="rId3"/>
-    <sheet name="Trials" sheetId="4" r:id="rId4"/>
-    <sheet name="GLP-1s" sheetId="3" r:id="rId5"/>
-    <sheet name="Mounjaro-Zepbound" sheetId="6" r:id="rId6"/>
-    <sheet name="Trulicity" sheetId="7" r:id="rId7"/>
-    <sheet name="Kisunla" sheetId="8" r:id="rId8"/>
-    <sheet name="orforglipron" sheetId="10" r:id="rId9"/>
-    <sheet name="retratrutide" sheetId="11" r:id="rId10"/>
-    <sheet name="imlunestrant" sheetId="12" r:id="rId11"/>
-    <sheet name="lebrikizumab" sheetId="13" r:id="rId12"/>
-    <sheet name="lepodisiran" sheetId="14" r:id="rId13"/>
-    <sheet name="mirikizumab" sheetId="15" r:id="rId14"/>
-    <sheet name="olomorasib" sheetId="16" r:id="rId15"/>
+    <sheet name="Literature" sheetId="17" r:id="rId3"/>
+    <sheet name="IP" sheetId="5" r:id="rId4"/>
+    <sheet name="Trials" sheetId="4" r:id="rId5"/>
+    <sheet name="GLP-1s" sheetId="3" r:id="rId6"/>
+    <sheet name="Mounjaro-Zepbound" sheetId="6" r:id="rId7"/>
+    <sheet name="Trulicity" sheetId="7" r:id="rId8"/>
+    <sheet name="Kisunla" sheetId="8" r:id="rId9"/>
+    <sheet name="orforglipron" sheetId="10" r:id="rId10"/>
+    <sheet name="retratrutide" sheetId="11" r:id="rId11"/>
+    <sheet name="imlunestrant" sheetId="12" r:id="rId12"/>
+    <sheet name="lebrikizumab" sheetId="13" r:id="rId13"/>
+    <sheet name="lepodisiran" sheetId="14" r:id="rId14"/>
+    <sheet name="mirikizumab" sheetId="15" r:id="rId15"/>
+    <sheet name="olomorasib" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
     <author>tc={870D49C2-D2BC-4507-9362-BAC854248C6B}</author>
   </authors>
   <commentList>
-    <comment ref="Q15" authorId="0" shapeId="0" xr:uid="{870D49C2-D2BC-4507-9362-BAC854248C6B}">
+    <comment ref="Q17" authorId="0" shapeId="0" xr:uid="{870D49C2-D2BC-4507-9362-BAC854248C6B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1347,7 +1348,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>131885</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1397,7 +1398,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1441,14 +1442,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>65941</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>4475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>495579</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1856,7 +1857,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Q15" dT="2025-07-27T04:33:05.47" personId="{98EFBBC1-5F71-4714-B1FB-1E2DFC825096}" id="{870D49C2-D2BC-4507-9362-BAC854248C6B}">
+  <threadedComment ref="Q17" dT="2025-07-27T04:33:05.47" personId="{98EFBBC1-5F71-4714-B1FB-1E2DFC825096}" id="{870D49C2-D2BC-4507-9362-BAC854248C6B}">
     <text>2025 guidance 58-61B as per Q125 presentation</text>
   </threadedComment>
 </ThreadedComments>
@@ -1867,7 +1868,7 @@
   <dimension ref="B2:L96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3015,6 +3016,109 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2179A6F6-DBF9-4590-B13F-B22EDCA5BB90}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CE51DBE6-8B44-4E87-A0EB-867BDF7E290B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298463FF-A569-428F-A3AC-698CB3C8F0D4}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -3100,7 +3204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBFC883-F550-49DC-8A22-C9EDC397F408}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -3208,12 +3312,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78456EB6-E7FB-48AF-BF3C-2B541E9E55CA}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:B10"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3407,7 +3511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB93556F-E243-45F0-BA15-3375F9F3D65A}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -3500,7 +3604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD6FE77-10D0-4452-A008-CC8E0FEAB7B3}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -3640,7 +3744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E83A2C5-07C5-40B2-9372-AC6E7F29EFB7}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -3767,13 +3871,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EBA39-FD53-497C-AEEB-0F0FD94197E7}">
-  <dimension ref="A1:DP92"/>
+  <dimension ref="A1:DP94"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE36" sqref="AE36"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3886,9 +3990,6 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -3899,11 +4000,14 @@
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -3914,10 +4018,16 @@
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -3932,7 +4042,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -3947,7 +4057,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -3962,7 +4072,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -3977,7 +4087,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -3992,7 +4102,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -4007,7 +4117,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -4022,7 +4132,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -4037,7 +4147,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -4052,7 +4162,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -4065,2303 +4175,2333 @@
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
     </row>
-    <row r="15" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+    </row>
+    <row r="17" spans="1:120" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C17" s="7">
         <v>8768</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G17" s="7">
         <v>12728</v>
       </c>
-      <c r="H15" s="7">
-        <f>G15*1.1</f>
+      <c r="H17" s="7">
+        <f>G17*1.1</f>
         <v>14000.800000000001</v>
       </c>
-      <c r="I15" s="7">
-        <f t="shared" ref="I15:J15" si="1">H15*1.1</f>
+      <c r="I17" s="7">
+        <f t="shared" ref="I17:J17" si="1">H17*1.1</f>
         <v>15400.880000000003</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J17" s="7">
         <f t="shared" si="1"/>
         <v>16940.968000000004</v>
       </c>
-      <c r="Q15" s="7">
-        <f>SUM(G15:J15)</f>
+      <c r="Q17" s="7">
+        <f>SUM(G17:J17)</f>
         <v>59070.648000000016</v>
       </c>
-      <c r="R15" s="7">
-        <f>Q15*1.07</f>
+      <c r="R17" s="7">
+        <f>Q17*1.07</f>
         <v>63205.593360000021</v>
       </c>
-      <c r="S15" s="7">
-        <f t="shared" ref="S15:AA15" si="2">R15*1.07</f>
+      <c r="S17" s="7">
+        <f t="shared" ref="S17:AA17" si="2">R17*1.07</f>
         <v>67629.984895200032</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T17" s="7">
         <f t="shared" si="2"/>
         <v>72364.083837864033</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U17" s="7">
         <f t="shared" si="2"/>
         <v>77429.569706514521</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V17" s="7">
         <f t="shared" si="2"/>
         <v>82849.639585970537</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W17" s="7">
         <f t="shared" si="2"/>
         <v>88649.114356988473</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X17" s="7">
         <f t="shared" si="2"/>
         <v>94854.552361977665</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="Y17" s="7">
         <f t="shared" si="2"/>
         <v>101494.37102731611</v>
       </c>
-      <c r="Z15" s="7">
+      <c r="Z17" s="7">
         <f t="shared" si="2"/>
         <v>108598.97699922825</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AA17" s="7">
         <f t="shared" si="2"/>
         <v>116200.90538917424</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+    <row r="18" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C18" s="2">
         <v>1674</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G18" s="2">
         <v>2224</v>
       </c>
-      <c r="H16" s="2">
-        <f>H15*0.17</f>
+      <c r="H18" s="2">
+        <f>H17*0.17</f>
         <v>2380.1360000000004</v>
       </c>
-      <c r="I16" s="2">
-        <f t="shared" ref="I16:J16" si="3">I15*0.17</f>
+      <c r="I18" s="2">
+        <f t="shared" ref="I18:J18" si="3">I17*0.17</f>
         <v>2618.1496000000006</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J18" s="2">
         <f t="shared" si="3"/>
         <v>2879.9645600000008</v>
       </c>
-      <c r="Q16" s="2">
-        <f>SUM(G16:J16)</f>
+      <c r="Q18" s="2">
+        <f>SUM(G18:J18)</f>
         <v>10102.250160000001</v>
       </c>
-      <c r="R16" s="2">
-        <f t="shared" ref="R16" si="4">R15*0.17</f>
+      <c r="R18" s="2">
+        <f t="shared" ref="R18" si="4">R17*0.17</f>
         <v>10744.950871200004</v>
       </c>
-      <c r="S16" s="2">
-        <f t="shared" ref="S16" si="5">S15*0.17</f>
+      <c r="S18" s="2">
+        <f t="shared" ref="S18" si="5">S17*0.17</f>
         <v>11497.097432184006</v>
       </c>
-      <c r="T16" s="2">
-        <f t="shared" ref="T16" si="6">T15*0.17</f>
+      <c r="T18" s="2">
+        <f t="shared" ref="T18" si="6">T17*0.17</f>
         <v>12301.894252436887</v>
       </c>
-      <c r="U16" s="2">
-        <f t="shared" ref="U16:V16" si="7">U15*0.17</f>
+      <c r="U18" s="2">
+        <f t="shared" ref="U18:V18" si="7">U17*0.17</f>
         <v>13163.02685010747</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V18" s="2">
         <f t="shared" si="7"/>
         <v>14084.438729614993</v>
       </c>
-      <c r="W16" s="2">
-        <f t="shared" ref="W16" si="8">W15*0.17</f>
+      <c r="W18" s="2">
+        <f t="shared" ref="W18" si="8">W17*0.17</f>
         <v>15070.349440688042</v>
       </c>
-      <c r="X16" s="2">
-        <f t="shared" ref="X16" si="9">X15*0.17</f>
+      <c r="X18" s="2">
+        <f t="shared" ref="X18" si="9">X17*0.17</f>
         <v>16125.273901536204</v>
       </c>
-      <c r="Y16" s="2">
-        <f t="shared" ref="Y16" si="10">Y15*0.17</f>
+      <c r="Y18" s="2">
+        <f t="shared" ref="Y18" si="10">Y17*0.17</f>
         <v>17254.043074643741</v>
       </c>
-      <c r="Z16" s="2">
-        <f t="shared" ref="Z16" si="11">Z15*0.17</f>
+      <c r="Z18" s="2">
+        <f t="shared" ref="Z18" si="11">Z17*0.17</f>
         <v>18461.826089868806</v>
       </c>
-      <c r="AA16" s="2">
-        <f t="shared" ref="AA16" si="12">AA15*0.17</f>
+      <c r="AA18" s="2">
+        <f t="shared" ref="AA18" si="12">AA17*0.17</f>
         <v>19754.153916159623</v>
       </c>
     </row>
-    <row r="17" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+    <row r="19" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" ref="C17:H17" si="13">C15-C16</f>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:H19" si="13">C17-C18</f>
         <v>7094</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D19" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E19" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F19" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G19" s="2">
         <f t="shared" si="13"/>
         <v>10504</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H19" s="2">
         <f t="shared" si="13"/>
         <v>11620.664000000001</v>
       </c>
-      <c r="I17" s="2">
-        <f t="shared" ref="I17:L17" si="14">I15-I16</f>
+      <c r="I19" s="2">
+        <f t="shared" ref="I19:L19" si="14">I17-I18</f>
         <v>12782.730400000002</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J19" s="2">
         <f t="shared" si="14"/>
         <v>14061.003440000004</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L19" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M17" s="2">
-        <f t="shared" ref="M17" si="15">M15-M16</f>
+      <c r="M19" s="2">
+        <f t="shared" ref="M19" si="15">M17-M18</f>
         <v>0</v>
       </c>
-      <c r="N17" s="2">
-        <f t="shared" ref="N17" si="16">N15-N16</f>
+      <c r="N19" s="2">
+        <f t="shared" ref="N19" si="16">N17-N18</f>
         <v>0</v>
       </c>
-      <c r="O17" s="2">
-        <f t="shared" ref="O17" si="17">O15-O16</f>
+      <c r="O19" s="2">
+        <f t="shared" ref="O19" si="17">O17-O18</f>
         <v>0</v>
       </c>
-      <c r="P17" s="2">
-        <f t="shared" ref="P17" si="18">P15-P16</f>
+      <c r="P19" s="2">
+        <f t="shared" ref="P19" si="18">P17-P18</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="2">
-        <f t="shared" ref="Q17" si="19">Q15-Q16</f>
+      <c r="Q19" s="2">
+        <f t="shared" ref="Q19" si="19">Q17-Q18</f>
         <v>48968.397840000012</v>
       </c>
-      <c r="R17" s="2">
-        <f t="shared" ref="R17" si="20">R15-R16</f>
+      <c r="R19" s="2">
+        <f t="shared" ref="R19" si="20">R17-R18</f>
         <v>52460.642488800018</v>
       </c>
-      <c r="S17" s="2">
-        <f t="shared" ref="S17" si="21">S15-S16</f>
+      <c r="S19" s="2">
+        <f t="shared" ref="S19" si="21">S17-S18</f>
         <v>56132.887463016028</v>
       </c>
-      <c r="T17" s="2">
-        <f t="shared" ref="T17" si="22">T15-T16</f>
+      <c r="T19" s="2">
+        <f t="shared" ref="T19" si="22">T17-T18</f>
         <v>60062.189585427142</v>
       </c>
-      <c r="U17" s="2">
-        <f t="shared" ref="U17:V17" si="23">U15-U16</f>
+      <c r="U19" s="2">
+        <f t="shared" ref="U19:V19" si="23">U17-U18</f>
         <v>64266.542856407053</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V19" s="2">
         <f t="shared" si="23"/>
         <v>68765.200856355543</v>
       </c>
-      <c r="W17" s="2">
-        <f t="shared" ref="W17" si="24">W15-W16</f>
+      <c r="W19" s="2">
+        <f t="shared" ref="W19" si="24">W17-W18</f>
         <v>73578.764916300424</v>
       </c>
-      <c r="X17" s="2">
-        <f t="shared" ref="X17" si="25">X15-X16</f>
+      <c r="X19" s="2">
+        <f t="shared" ref="X19" si="25">X17-X18</f>
         <v>78729.278460441463</v>
       </c>
-      <c r="Y17" s="2">
-        <f t="shared" ref="Y17" si="26">Y15-Y16</f>
+      <c r="Y19" s="2">
+        <f t="shared" ref="Y19" si="26">Y17-Y18</f>
         <v>84240.327952672378</v>
       </c>
-      <c r="Z17" s="2">
-        <f t="shared" ref="Z17" si="27">Z15-Z16</f>
+      <c r="Z19" s="2">
+        <f t="shared" ref="Z19" si="27">Z17-Z18</f>
         <v>90137.15090935945</v>
       </c>
-      <c r="AA17" s="2">
-        <f t="shared" ref="AA17" si="28">AA15-AA16</f>
+      <c r="AA19" s="2">
+        <f t="shared" ref="AA19" si="28">AA17-AA18</f>
         <v>96446.751473014621</v>
       </c>
     </row>
-    <row r="18" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+    <row r="20" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C20" s="2">
         <v>2523</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G20" s="2">
         <v>2734</v>
       </c>
-      <c r="H18" s="2">
-        <f>G18</f>
+      <c r="H20" s="2">
+        <f>G20</f>
         <v>2734</v>
       </c>
-      <c r="I18" s="2">
-        <f t="shared" ref="I18:J18" si="29">H18</f>
+      <c r="I20" s="2">
+        <f t="shared" ref="I20:J20" si="29">H20</f>
         <v>2734</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J20" s="2">
         <f t="shared" si="29"/>
         <v>2734</v>
       </c>
-      <c r="Q18" s="2">
-        <f>SUM(G18:J18)</f>
+      <c r="Q20" s="2">
+        <f>SUM(G20:J20)</f>
         <v>10936</v>
       </c>
     </row>
-    <row r="19" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+    <row r="21" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C21" s="2">
         <v>1952</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G21" s="2">
         <v>2469</v>
       </c>
-      <c r="H19" s="2">
-        <f>G19</f>
+      <c r="H21" s="2">
+        <f>G21</f>
         <v>2469</v>
       </c>
-      <c r="I19" s="2">
-        <f t="shared" ref="I19:J19" si="30">H19</f>
+      <c r="I21" s="2">
+        <f t="shared" ref="I21:J21" si="30">H21</f>
         <v>2469</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J21" s="2">
         <f t="shared" si="30"/>
         <v>2469</v>
       </c>
-      <c r="Q19" s="2">
-        <f>SUM(G19:J19)</f>
+      <c r="Q21" s="2">
+        <f>SUM(G21:J21)</f>
         <v>9876</v>
       </c>
-      <c r="R19" s="2">
-        <f>Q19*1.04</f>
+      <c r="R21" s="2">
+        <f>Q21*1.04</f>
         <v>10271.040000000001</v>
       </c>
-      <c r="S19" s="2">
-        <f t="shared" ref="S19:V19" si="31">R19*1.04</f>
+      <c r="S21" s="2">
+        <f t="shared" ref="S21:V21" si="31">R21*1.04</f>
         <v>10681.881600000001</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T21" s="2">
         <f t="shared" si="31"/>
         <v>11109.156864</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U21" s="2">
         <f t="shared" si="31"/>
         <v>11553.52313856</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V21" s="2">
         <f t="shared" si="31"/>
         <v>12015.664064102401</v>
       </c>
-      <c r="W19" s="2">
-        <f t="shared" ref="W19:AA19" si="32">V19*1.04</f>
+      <c r="W21" s="2">
+        <f t="shared" ref="W21:AA21" si="32">V21*1.04</f>
         <v>12496.290626666498</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X21" s="2">
         <f t="shared" si="32"/>
         <v>12996.142251733158</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Y21" s="2">
         <f t="shared" si="32"/>
         <v>13515.987941802485</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="Z21" s="2">
         <f t="shared" si="32"/>
         <v>14056.627459474585</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AA21" s="2">
         <f t="shared" si="32"/>
         <v>14618.892557853569</v>
       </c>
     </row>
-    <row r="20" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+    <row r="22" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="2">
-        <f t="shared" ref="C20:H20" si="33">SUM(C18:C19)</f>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22:H22" si="33">SUM(C20:C21)</f>
         <v>4475</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D22" s="2">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E22" s="2">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F22" s="2">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G22" s="2">
         <f t="shared" si="33"/>
         <v>5203</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H22" s="2">
         <f t="shared" si="33"/>
         <v>5203</v>
       </c>
-      <c r="I20" s="2">
-        <f t="shared" ref="I20:L20" si="34">SUM(I18:I19)</f>
+      <c r="I22" s="2">
+        <f t="shared" ref="I22:L22" si="34">SUM(I20:I21)</f>
         <v>5203</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J22" s="2">
         <f t="shared" si="34"/>
         <v>5203</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L22" s="2">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="M20" s="2">
-        <f t="shared" ref="M20" si="35">SUM(M18:M19)</f>
+      <c r="M22" s="2">
+        <f t="shared" ref="M22" si="35">SUM(M20:M21)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="2">
-        <f t="shared" ref="N20" si="36">SUM(N18:N19)</f>
+      <c r="N22" s="2">
+        <f t="shared" ref="N22" si="36">SUM(N20:N21)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="2">
-        <f t="shared" ref="O20" si="37">SUM(O18:O19)</f>
+      <c r="O22" s="2">
+        <f t="shared" ref="O22" si="37">SUM(O20:O21)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="2">
-        <f t="shared" ref="P20" si="38">SUM(P18:P19)</f>
+      <c r="P22" s="2">
+        <f t="shared" ref="P22" si="38">SUM(P20:P21)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="2">
-        <f t="shared" ref="Q20" si="39">SUM(Q18:Q19)</f>
+      <c r="Q22" s="2">
+        <f t="shared" ref="Q22" si="39">SUM(Q20:Q21)</f>
         <v>20812</v>
       </c>
-      <c r="R20" s="2">
-        <f t="shared" ref="R20" si="40">SUM(R18:R19)</f>
+      <c r="R22" s="2">
+        <f t="shared" ref="R22" si="40">SUM(R20:R21)</f>
         <v>10271.040000000001</v>
       </c>
-      <c r="S20" s="2">
-        <f t="shared" ref="S20" si="41">SUM(S18:S19)</f>
+      <c r="S22" s="2">
+        <f t="shared" ref="S22" si="41">SUM(S20:S21)</f>
         <v>10681.881600000001</v>
       </c>
-      <c r="T20" s="2">
-        <f t="shared" ref="T20" si="42">SUM(T18:T19)</f>
+      <c r="T22" s="2">
+        <f t="shared" ref="T22" si="42">SUM(T20:T21)</f>
         <v>11109.156864</v>
       </c>
-      <c r="U20" s="2">
-        <f t="shared" ref="U20:V20" si="43">SUM(U18:U19)</f>
+      <c r="U22" s="2">
+        <f t="shared" ref="U22:V22" si="43">SUM(U20:U21)</f>
         <v>11553.52313856</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V22" s="2">
         <f t="shared" si="43"/>
         <v>12015.664064102401</v>
       </c>
-      <c r="W20" s="2">
-        <f t="shared" ref="W20" si="44">SUM(W18:W19)</f>
+      <c r="W22" s="2">
+        <f t="shared" ref="W22" si="44">SUM(W20:W21)</f>
         <v>12496.290626666498</v>
       </c>
-      <c r="X20" s="2">
-        <f t="shared" ref="X20" si="45">SUM(X18:X19)</f>
+      <c r="X22" s="2">
+        <f t="shared" ref="X22" si="45">SUM(X20:X21)</f>
         <v>12996.142251733158</v>
       </c>
-      <c r="Y20" s="2">
-        <f t="shared" ref="Y20" si="46">SUM(Y18:Y19)</f>
+      <c r="Y22" s="2">
+        <f t="shared" ref="Y22" si="46">SUM(Y20:Y21)</f>
         <v>13515.987941802485</v>
       </c>
-      <c r="Z20" s="2">
-        <f t="shared" ref="Z20" si="47">SUM(Z18:Z19)</f>
+      <c r="Z22" s="2">
+        <f t="shared" ref="Z22" si="47">SUM(Z20:Z21)</f>
         <v>14056.627459474585</v>
       </c>
-      <c r="AA20" s="2">
-        <f t="shared" ref="AA20" si="48">SUM(AA18:AA19)</f>
+      <c r="AA22" s="2">
+        <f t="shared" ref="AA22" si="48">SUM(AA20:AA21)</f>
         <v>14618.892557853569</v>
       </c>
     </row>
-    <row r="21" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+    <row r="23" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="2">
-        <f t="shared" ref="C21:H21" si="49">C17-C20</f>
+      <c r="C23" s="2">
+        <f t="shared" ref="C23:H23" si="49">C19-C22</f>
         <v>2619</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D23" s="2">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E23" s="2">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F23" s="2">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G23" s="2">
         <f t="shared" si="49"/>
         <v>5301</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H23" s="2">
         <f t="shared" si="49"/>
         <v>6417.6640000000007</v>
       </c>
-      <c r="I21" s="2">
-        <f t="shared" ref="I21:L21" si="50">I17-I20</f>
+      <c r="I23" s="2">
+        <f t="shared" ref="I23:L23" si="50">I19-I22</f>
         <v>7579.7304000000022</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J23" s="2">
         <f t="shared" si="50"/>
         <v>8858.003440000004</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L23" s="2">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="M21" s="2">
-        <f t="shared" ref="M21" si="51">M17-M20</f>
+      <c r="M23" s="2">
+        <f t="shared" ref="M23" si="51">M19-M22</f>
         <v>0</v>
       </c>
-      <c r="N21" s="2">
-        <f t="shared" ref="N21" si="52">N17-N20</f>
+      <c r="N23" s="2">
+        <f t="shared" ref="N23" si="52">N19-N22</f>
         <v>0</v>
       </c>
-      <c r="O21" s="2">
-        <f t="shared" ref="O21" si="53">O17-O20</f>
+      <c r="O23" s="2">
+        <f t="shared" ref="O23" si="53">O19-O22</f>
         <v>0</v>
       </c>
-      <c r="P21" s="2">
-        <f t="shared" ref="P21" si="54">P17-P20</f>
+      <c r="P23" s="2">
+        <f t="shared" ref="P23" si="54">P19-P22</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="2">
-        <f t="shared" ref="Q21" si="55">Q17-Q20</f>
+      <c r="Q23" s="2">
+        <f t="shared" ref="Q23" si="55">Q19-Q22</f>
         <v>28156.397840000012</v>
       </c>
-      <c r="R21" s="2">
-        <f t="shared" ref="R21" si="56">R17-R20</f>
+      <c r="R23" s="2">
+        <f t="shared" ref="R23" si="56">R19-R22</f>
         <v>42189.602488800017</v>
       </c>
-      <c r="S21" s="2">
-        <f t="shared" ref="S21" si="57">S17-S20</f>
+      <c r="S23" s="2">
+        <f t="shared" ref="S23" si="57">S19-S22</f>
         <v>45451.005863016027</v>
       </c>
-      <c r="T21" s="2">
-        <f t="shared" ref="T21" si="58">T17-T20</f>
+      <c r="T23" s="2">
+        <f t="shared" ref="T23" si="58">T19-T22</f>
         <v>48953.032721427138</v>
       </c>
-      <c r="U21" s="2">
-        <f t="shared" ref="U21:V21" si="59">U17-U20</f>
+      <c r="U23" s="2">
+        <f t="shared" ref="U23:V23" si="59">U19-U22</f>
         <v>52713.019717847055</v>
       </c>
-      <c r="V21" s="2">
+      <c r="V23" s="2">
         <f t="shared" si="59"/>
         <v>56749.536792253144</v>
       </c>
-      <c r="W21" s="2">
-        <f t="shared" ref="W21" si="60">W17-W20</f>
+      <c r="W23" s="2">
+        <f t="shared" ref="W23" si="60">W19-W22</f>
         <v>61082.47428963393</v>
       </c>
-      <c r="X21" s="2">
-        <f t="shared" ref="X21" si="61">X17-X20</f>
+      <c r="X23" s="2">
+        <f t="shared" ref="X23" si="61">X19-X22</f>
         <v>65733.136208708311</v>
       </c>
-      <c r="Y21" s="2">
-        <f t="shared" ref="Y21" si="62">Y17-Y20</f>
+      <c r="Y23" s="2">
+        <f t="shared" ref="Y23" si="62">Y19-Y22</f>
         <v>70724.340010869899</v>
       </c>
-      <c r="Z21" s="2">
-        <f t="shared" ref="Z21" si="63">Z17-Z20</f>
+      <c r="Z23" s="2">
+        <f t="shared" ref="Z23" si="63">Z19-Z22</f>
         <v>76080.523449884873</v>
       </c>
-      <c r="AA21" s="2">
-        <f t="shared" ref="AA21" si="64">AA17-AA20</f>
+      <c r="AA23" s="2">
+        <f t="shared" ref="AA23" si="64">AA19-AA22</f>
         <v>81827.85891516105</v>
       </c>
     </row>
-    <row r="22" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+    <row r="24" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C24" s="2">
         <v>27</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G24" s="2">
         <v>-239</v>
       </c>
-      <c r="H22" s="2">
-        <f>G33*$AD$27</f>
+      <c r="H24" s="2">
+        <f>G35*$AD$29</f>
         <v>-69.320000000000007</v>
       </c>
-      <c r="I22" s="2">
-        <f>H33*$AD$27</f>
+      <c r="I24" s="2">
+        <f>H35*$AD$29</f>
         <v>33.523172800000012</v>
       </c>
-      <c r="J22" s="2">
-        <f>I33*$AD$27</f>
+      <c r="J24" s="2">
+        <f>I35*$AD$29</f>
         <v>156.85788067936005</v>
       </c>
-      <c r="Q22" s="2">
-        <f>SUM(G22:J22)</f>
+      <c r="Q24" s="2">
+        <f>SUM(G24:J24)</f>
         <v>-117.93894652063994</v>
       </c>
-      <c r="R22" s="2">
-        <f t="shared" ref="R22:AA22" si="65">Q33*$AD$27</f>
+      <c r="R24" s="2">
+        <f t="shared" ref="R24:AA24" si="65">Q35*$AD$29</f>
         <v>302.89863407436576</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S24" s="2">
         <f t="shared" si="65"/>
         <v>991.27715226493069</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T24" s="2">
         <f t="shared" si="65"/>
         <v>1743.6421371124818</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U24" s="2">
         <f t="shared" si="65"/>
         <v>2564.9282698208235</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V24" s="2">
         <f t="shared" si="65"/>
         <v>3460.4310272210437</v>
       </c>
-      <c r="W22" s="2">
+      <c r="W24" s="2">
         <f t="shared" si="65"/>
         <v>4435.8325058965256</v>
       </c>
-      <c r="X22" s="2">
+      <c r="X24" s="2">
         <f t="shared" si="65"/>
         <v>5497.2290759841189</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Y24" s="2">
         <f t="shared" si="65"/>
         <v>6651.160993596136</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="Z24" s="2">
         <f t="shared" si="65"/>
         <v>7904.6441098684863</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AA24" s="2">
         <f t="shared" si="65"/>
         <v>9265.2038243364914</v>
       </c>
     </row>
-    <row r="23" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+    <row r="25" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2">
-        <f t="shared" ref="C23:H23" si="66">C21+C22</f>
+      <c r="C25" s="2">
+        <f t="shared" ref="C25:H25" si="66">C23+C24</f>
         <v>2646</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D25" s="2">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E25" s="2">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F25" s="2">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G25" s="2">
         <f t="shared" si="66"/>
         <v>5062</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H25" s="2">
         <f t="shared" si="66"/>
         <v>6348.344000000001</v>
       </c>
-      <c r="I23" s="2">
-        <f t="shared" ref="I23:L23" si="67">I21+I22</f>
+      <c r="I25" s="2">
+        <f t="shared" ref="I25:L25" si="67">I23+I24</f>
         <v>7613.2535728000021</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J25" s="2">
         <f t="shared" si="67"/>
         <v>9014.8613206793634</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L25" s="2">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="M23" s="2">
-        <f t="shared" ref="M23" si="68">M21+M22</f>
+      <c r="M25" s="2">
+        <f t="shared" ref="M25" si="68">M23+M24</f>
         <v>0</v>
       </c>
-      <c r="N23" s="2">
-        <f t="shared" ref="N23" si="69">N21+N22</f>
+      <c r="N25" s="2">
+        <f t="shared" ref="N25" si="69">N23+N24</f>
         <v>0</v>
       </c>
-      <c r="O23" s="2">
-        <f t="shared" ref="O23" si="70">O21+O22</f>
+      <c r="O25" s="2">
+        <f t="shared" ref="O25" si="70">O23+O24</f>
         <v>0</v>
       </c>
-      <c r="P23" s="2">
-        <f t="shared" ref="P23" si="71">P21+P22</f>
+      <c r="P25" s="2">
+        <f t="shared" ref="P25" si="71">P23+P24</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="2">
-        <f t="shared" ref="Q23" si="72">Q21+Q22</f>
+      <c r="Q25" s="2">
+        <f t="shared" ref="Q25" si="72">Q23+Q24</f>
         <v>28038.458893479372</v>
       </c>
-      <c r="R23" s="2">
-        <f t="shared" ref="R23" si="73">R21+R22</f>
+      <c r="R25" s="2">
+        <f t="shared" ref="R25" si="73">R23+R24</f>
         <v>42492.501122874382</v>
       </c>
-      <c r="S23" s="2">
-        <f t="shared" ref="S23" si="74">S21+S22</f>
+      <c r="S25" s="2">
+        <f t="shared" ref="S25" si="74">S23+S24</f>
         <v>46442.283015280955</v>
       </c>
-      <c r="T23" s="2">
-        <f t="shared" ref="T23" si="75">T21+T22</f>
+      <c r="T25" s="2">
+        <f t="shared" ref="T25" si="75">T23+T24</f>
         <v>50696.67485853962</v>
       </c>
-      <c r="U23" s="2">
-        <f t="shared" ref="U23:V23" si="76">U21+U22</f>
+      <c r="U25" s="2">
+        <f t="shared" ref="U25:V25" si="76">U23+U24</f>
         <v>55277.947987667882</v>
       </c>
-      <c r="V23" s="2">
+      <c r="V25" s="2">
         <f t="shared" si="76"/>
         <v>60209.967819474186</v>
       </c>
-      <c r="W23" s="2">
-        <f t="shared" ref="W23" si="77">W21+W22</f>
+      <c r="W25" s="2">
+        <f t="shared" ref="W25" si="77">W23+W24</f>
         <v>65518.306795530458</v>
       </c>
-      <c r="X23" s="2">
-        <f t="shared" ref="X23" si="78">X21+X22</f>
+      <c r="X25" s="2">
+        <f t="shared" ref="X25" si="78">X23+X24</f>
         <v>71230.365284692423</v>
       </c>
-      <c r="Y23" s="2">
-        <f t="shared" ref="Y23" si="79">Y21+Y22</f>
+      <c r="Y25" s="2">
+        <f t="shared" ref="Y25" si="79">Y23+Y24</f>
         <v>77375.50100446603</v>
       </c>
-      <c r="Z23" s="2">
-        <f t="shared" ref="Z23" si="80">Z21+Z22</f>
+      <c r="Z25" s="2">
+        <f t="shared" ref="Z25" si="80">Z23+Z24</f>
         <v>83985.167559753361</v>
       </c>
-      <c r="AA23" s="2">
-        <f t="shared" ref="AA23" si="81">AA21+AA22</f>
+      <c r="AA25" s="2">
+        <f t="shared" ref="AA25" si="81">AA23+AA24</f>
         <v>91093.062739497545</v>
       </c>
     </row>
-    <row r="24" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+    <row r="26" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C26" s="2">
         <v>293</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G26" s="2">
         <v>697</v>
       </c>
-      <c r="H24" s="2">
-        <f>H23*0.19</f>
+      <c r="H26" s="2">
+        <f>H25*0.19</f>
         <v>1206.1853600000002</v>
       </c>
-      <c r="I24" s="2">
-        <f t="shared" ref="I24:J24" si="82">I23*0.19</f>
+      <c r="I26" s="2">
+        <f t="shared" ref="I26:J26" si="82">I25*0.19</f>
         <v>1446.5181788320003</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J26" s="2">
         <f t="shared" si="82"/>
         <v>1712.8236509290791</v>
       </c>
-      <c r="Q24" s="2">
-        <f>SUM(G24:J24)</f>
+      <c r="Q26" s="2">
+        <f>SUM(G26:J26)</f>
         <v>5062.5271897610801</v>
       </c>
-      <c r="R24" s="2">
-        <f>R23*0.19</f>
+      <c r="R26" s="2">
+        <f>R25*0.19</f>
         <v>8073.5752133461328</v>
       </c>
-      <c r="S24" s="2">
-        <f t="shared" ref="S24:V24" si="83">S23*0.19</f>
+      <c r="S26" s="2">
+        <f t="shared" ref="S26:V26" si="83">S25*0.19</f>
         <v>8824.0337729033818</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T26" s="2">
         <f t="shared" si="83"/>
         <v>9632.3682231225284</v>
       </c>
-      <c r="U24" s="2">
+      <c r="U26" s="2">
         <f t="shared" si="83"/>
         <v>10502.810117656898</v>
       </c>
-      <c r="V24" s="2">
+      <c r="V26" s="2">
         <f t="shared" si="83"/>
         <v>11439.893885700096</v>
       </c>
-      <c r="W24" s="2">
-        <f t="shared" ref="W24" si="84">W23*0.19</f>
+      <c r="W26" s="2">
+        <f t="shared" ref="W26" si="84">W25*0.19</f>
         <v>12448.478291150786</v>
       </c>
-      <c r="X24" s="2">
-        <f t="shared" ref="X24" si="85">X23*0.19</f>
+      <c r="X26" s="2">
+        <f t="shared" ref="X26" si="85">X25*0.19</f>
         <v>13533.769404091561</v>
       </c>
-      <c r="Y24" s="2">
-        <f t="shared" ref="Y24" si="86">Y23*0.19</f>
+      <c r="Y26" s="2">
+        <f t="shared" ref="Y26" si="86">Y25*0.19</f>
         <v>14701.345190848546</v>
       </c>
-      <c r="Z24" s="2">
-        <f t="shared" ref="Z24" si="87">Z23*0.19</f>
+      <c r="Z26" s="2">
+        <f t="shared" ref="Z26" si="87">Z25*0.19</f>
         <v>15957.181836353138</v>
       </c>
-      <c r="AA24" s="2">
-        <f t="shared" ref="AA24" si="88">AA23*0.19</f>
+      <c r="AA26" s="2">
+        <f t="shared" ref="AA26" si="88">AA25*0.19</f>
         <v>17307.681920504532</v>
       </c>
     </row>
-    <row r="25" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+    <row r="27" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="2">
-        <f t="shared" ref="C25:H25" si="89">C23-C24</f>
+      <c r="C27" s="2">
+        <f t="shared" ref="C27:H27" si="89">C25-C26</f>
         <v>2353</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D27" s="2">
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E27" s="2">
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F27" s="2">
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G27" s="2">
         <f t="shared" si="89"/>
         <v>4365</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H27" s="2">
         <f t="shared" si="89"/>
         <v>5142.1586400000006</v>
       </c>
-      <c r="I25" s="2">
-        <f t="shared" ref="I25:L25" si="90">I23-I24</f>
+      <c r="I27" s="2">
+        <f t="shared" ref="I27:L27" si="90">I25-I26</f>
         <v>6166.7353939680015</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J27" s="2">
         <f t="shared" si="90"/>
         <v>7302.0376697502843</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L27" s="2">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="M25" s="2">
-        <f t="shared" ref="M25" si="91">M23-M24</f>
+      <c r="M27" s="2">
+        <f t="shared" ref="M27" si="91">M25-M26</f>
         <v>0</v>
       </c>
-      <c r="N25" s="2">
-        <f t="shared" ref="N25" si="92">N23-N24</f>
+      <c r="N27" s="2">
+        <f t="shared" ref="N27" si="92">N25-N26</f>
         <v>0</v>
       </c>
-      <c r="O25" s="2">
-        <f t="shared" ref="O25" si="93">O23-O24</f>
+      <c r="O27" s="2">
+        <f t="shared" ref="O27" si="93">O25-O26</f>
         <v>0</v>
       </c>
-      <c r="P25" s="2">
-        <f t="shared" ref="P25" si="94">P23-P24</f>
+      <c r="P27" s="2">
+        <f t="shared" ref="P27" si="94">P25-P26</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="2">
-        <f t="shared" ref="Q25" si="95">Q23-Q24</f>
+      <c r="Q27" s="2">
+        <f t="shared" ref="Q27" si="95">Q25-Q26</f>
         <v>22975.931703718292</v>
       </c>
-      <c r="R25" s="2">
-        <f t="shared" ref="R25" si="96">R23-R24</f>
+      <c r="R27" s="2">
+        <f t="shared" ref="R27" si="96">R25-R26</f>
         <v>34418.925909528247</v>
       </c>
-      <c r="S25" s="2">
-        <f t="shared" ref="S25" si="97">S23-S24</f>
+      <c r="S27" s="2">
+        <f t="shared" ref="S27" si="97">S25-S26</f>
         <v>37618.249242377569</v>
       </c>
-      <c r="T25" s="2">
-        <f t="shared" ref="T25" si="98">T23-T24</f>
+      <c r="T27" s="2">
+        <f t="shared" ref="T27" si="98">T25-T26</f>
         <v>41064.306635417088</v>
       </c>
-      <c r="U25" s="2">
-        <f t="shared" ref="U25:V25" si="99">U23-U24</f>
+      <c r="U27" s="2">
+        <f t="shared" ref="U27:V27" si="99">U25-U26</f>
         <v>44775.137870010985</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V27" s="2">
         <f t="shared" si="99"/>
         <v>48770.073933774089</v>
       </c>
-      <c r="W25" s="2">
-        <f t="shared" ref="W25" si="100">W23-W24</f>
+      <c r="W27" s="2">
+        <f t="shared" ref="W27" si="100">W25-W26</f>
         <v>53069.828504379671</v>
       </c>
-      <c r="X25" s="2">
-        <f t="shared" ref="X25" si="101">X23-X24</f>
+      <c r="X27" s="2">
+        <f t="shared" ref="X27" si="101">X25-X26</f>
         <v>57696.595880600864</v>
       </c>
-      <c r="Y25" s="2">
-        <f t="shared" ref="Y25" si="102">Y23-Y24</f>
+      <c r="Y27" s="2">
+        <f t="shared" ref="Y27" si="102">Y25-Y26</f>
         <v>62674.155813617486</v>
       </c>
-      <c r="Z25" s="2">
-        <f t="shared" ref="Z25" si="103">Z23-Z24</f>
+      <c r="Z27" s="2">
+        <f t="shared" ref="Z27" si="103">Z25-Z26</f>
         <v>68027.985723400227</v>
       </c>
-      <c r="AA25" s="2">
-        <f t="shared" ref="AA25" si="104">AA23-AA24</f>
+      <c r="AA27" s="2">
+        <f t="shared" ref="AA27" si="104">AA25-AA26</f>
         <v>73785.380818993013</v>
       </c>
-      <c r="AB25" s="2">
-        <f t="shared" ref="AB25:BG25" si="105">AA25*(1+$AD$28)</f>
+      <c r="AB27" s="2">
+        <f t="shared" ref="AB27:BG27" si="105">AA27*(1+$AD$30)</f>
         <v>73047.527010803082</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AC27" s="2">
         <f t="shared" si="105"/>
         <v>72317.051740695053</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD27" s="2">
         <f t="shared" si="105"/>
         <v>71593.881223288103</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AE27" s="2">
         <f t="shared" si="105"/>
         <v>70877.942411055221</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AF27" s="2">
         <f t="shared" si="105"/>
         <v>70169.162986944662</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AG27" s="2">
         <f t="shared" si="105"/>
         <v>69467.471357075221</v>
       </c>
-      <c r="AH25" s="2">
+      <c r="AH27" s="2">
         <f t="shared" si="105"/>
         <v>68772.796643504465</v>
       </c>
-      <c r="AI25" s="2">
+      <c r="AI27" s="2">
         <f t="shared" si="105"/>
         <v>68085.068677069416</v>
       </c>
-      <c r="AJ25" s="2">
+      <c r="AJ27" s="2">
         <f t="shared" si="105"/>
         <v>67404.217990298726</v>
       </c>
-      <c r="AK25" s="2">
+      <c r="AK27" s="2">
         <f t="shared" si="105"/>
         <v>66730.17581039574</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AL27" s="2">
         <f t="shared" si="105"/>
         <v>66062.87405229178</v>
       </c>
-      <c r="AM25" s="2">
+      <c r="AM27" s="2">
         <f t="shared" si="105"/>
         <v>65402.245311768864</v>
       </c>
-      <c r="AN25" s="2">
+      <c r="AN27" s="2">
         <f t="shared" si="105"/>
         <v>64748.222858651177</v>
       </c>
-      <c r="AO25" s="2">
+      <c r="AO27" s="2">
         <f t="shared" si="105"/>
         <v>64100.740630064662</v>
       </c>
-      <c r="AP25" s="2">
+      <c r="AP27" s="2">
         <f t="shared" si="105"/>
         <v>63459.733223764015</v>
       </c>
-      <c r="AQ25" s="2">
+      <c r="AQ27" s="2">
         <f t="shared" si="105"/>
         <v>62825.135891526377</v>
       </c>
-      <c r="AR25" s="2">
+      <c r="AR27" s="2">
         <f t="shared" si="105"/>
         <v>62196.884532611111</v>
       </c>
-      <c r="AS25" s="2">
+      <c r="AS27" s="2">
         <f t="shared" si="105"/>
         <v>61574.915687285</v>
       </c>
-      <c r="AT25" s="2">
+      <c r="AT27" s="2">
         <f t="shared" si="105"/>
         <v>60959.166530412149</v>
       </c>
-      <c r="AU25" s="2">
+      <c r="AU27" s="2">
         <f t="shared" si="105"/>
         <v>60349.574865108028</v>
       </c>
-      <c r="AV25" s="2">
+      <c r="AV27" s="2">
         <f t="shared" si="105"/>
         <v>59746.079116456945</v>
       </c>
-      <c r="AW25" s="2">
+      <c r="AW27" s="2">
         <f t="shared" si="105"/>
         <v>59148.618325292373</v>
       </c>
-      <c r="AX25" s="2">
+      <c r="AX27" s="2">
         <f t="shared" si="105"/>
         <v>58557.132142039445</v>
       </c>
-      <c r="AY25" s="2">
+      <c r="AY27" s="2">
         <f t="shared" si="105"/>
         <v>57971.560820619052</v>
       </c>
-      <c r="AZ25" s="2">
+      <c r="AZ27" s="2">
         <f t="shared" si="105"/>
         <v>57391.84521241286</v>
       </c>
-      <c r="BA25" s="2">
+      <c r="BA27" s="2">
         <f t="shared" si="105"/>
         <v>56817.926760288734</v>
       </c>
-      <c r="BB25" s="2">
+      <c r="BB27" s="2">
         <f t="shared" si="105"/>
         <v>56249.747492685849</v>
       </c>
-      <c r="BC25" s="2">
+      <c r="BC27" s="2">
         <f t="shared" si="105"/>
         <v>55687.25001775899</v>
       </c>
-      <c r="BD25" s="2">
+      <c r="BD27" s="2">
         <f t="shared" si="105"/>
         <v>55130.377517581401</v>
       </c>
-      <c r="BE25" s="2">
+      <c r="BE27" s="2">
         <f t="shared" si="105"/>
         <v>54579.073742405584</v>
       </c>
-      <c r="BF25" s="2">
+      <c r="BF27" s="2">
         <f t="shared" si="105"/>
         <v>54033.283004981531</v>
       </c>
-      <c r="BG25" s="2">
+      <c r="BG27" s="2">
         <f t="shared" si="105"/>
         <v>53492.950174931713</v>
       </c>
-      <c r="BH25" s="2">
-        <f t="shared" ref="BH25:CM25" si="106">BG25*(1+$AD$28)</f>
+      <c r="BH27" s="2">
+        <f t="shared" ref="BH27:CM27" si="106">BG27*(1+$AD$30)</f>
         <v>52958.020673182393</v>
       </c>
-      <c r="BI25" s="2">
+      <c r="BI27" s="2">
         <f t="shared" si="106"/>
         <v>52428.440466450571</v>
       </c>
-      <c r="BJ25" s="2">
+      <c r="BJ27" s="2">
         <f t="shared" si="106"/>
         <v>51904.156061786067</v>
       </c>
-      <c r="BK25" s="2">
+      <c r="BK27" s="2">
         <f t="shared" si="106"/>
         <v>51385.114501168209</v>
       </c>
-      <c r="BL25" s="2">
+      <c r="BL27" s="2">
         <f t="shared" si="106"/>
         <v>50871.263356156524</v>
       </c>
-      <c r="BM25" s="2">
+      <c r="BM27" s="2">
         <f t="shared" si="106"/>
         <v>50362.550722594955</v>
       </c>
-      <c r="BN25" s="2">
+      <c r="BN27" s="2">
         <f t="shared" si="106"/>
         <v>49858.925215369003</v>
       </c>
-      <c r="BO25" s="2">
+      <c r="BO27" s="2">
         <f t="shared" si="106"/>
         <v>49360.335963215315</v>
       </c>
-      <c r="BP25" s="2">
+      <c r="BP27" s="2">
         <f t="shared" si="106"/>
         <v>48866.732603583165</v>
       </c>
-      <c r="BQ25" s="2">
+      <c r="BQ27" s="2">
         <f t="shared" si="106"/>
         <v>48378.065277547335</v>
       </c>
-      <c r="BR25" s="2">
+      <c r="BR27" s="2">
         <f t="shared" si="106"/>
         <v>47894.284624771863</v>
       </c>
-      <c r="BS25" s="2">
+      <c r="BS27" s="2">
         <f t="shared" si="106"/>
         <v>47415.34177852414</v>
       </c>
-      <c r="BT25" s="2">
+      <c r="BT27" s="2">
         <f t="shared" si="106"/>
         <v>46941.188360738895</v>
       </c>
-      <c r="BU25" s="2">
+      <c r="BU27" s="2">
         <f t="shared" si="106"/>
         <v>46471.776477131505</v>
       </c>
-      <c r="BV25" s="2">
+      <c r="BV27" s="2">
         <f t="shared" si="106"/>
         <v>46007.058712360187</v>
       </c>
-      <c r="BW25" s="2">
+      <c r="BW27" s="2">
         <f t="shared" si="106"/>
         <v>45546.988125236589</v>
       </c>
-      <c r="BX25" s="2">
+      <c r="BX27" s="2">
         <f t="shared" si="106"/>
         <v>45091.518243984225</v>
       </c>
-      <c r="BY25" s="2">
+      <c r="BY27" s="2">
         <f t="shared" si="106"/>
         <v>44640.603061544381</v>
       </c>
-      <c r="BZ25" s="2">
+      <c r="BZ27" s="2">
         <f t="shared" si="106"/>
         <v>44194.197030928939</v>
       </c>
-      <c r="CA25" s="2">
+      <c r="CA27" s="2">
         <f t="shared" si="106"/>
         <v>43752.255060619653</v>
       </c>
-      <c r="CB25" s="2">
+      <c r="CB27" s="2">
         <f t="shared" si="106"/>
         <v>43314.732510013455</v>
       </c>
-      <c r="CC25" s="2">
+      <c r="CC27" s="2">
         <f t="shared" si="106"/>
         <v>42881.585184913318</v>
       </c>
-      <c r="CD25" s="2">
+      <c r="CD27" s="2">
         <f t="shared" si="106"/>
         <v>42452.769333064185</v>
       </c>
-      <c r="CE25" s="2">
+      <c r="CE27" s="2">
         <f t="shared" si="106"/>
         <v>42028.24163973354</v>
       </c>
-      <c r="CF25" s="2">
+      <c r="CF27" s="2">
         <f t="shared" si="106"/>
         <v>41607.959223336205</v>
       </c>
-      <c r="CG25" s="2">
+      <c r="CG27" s="2">
         <f t="shared" si="106"/>
         <v>41191.879631102842</v>
       </c>
-      <c r="CH25" s="2">
+      <c r="CH27" s="2">
         <f t="shared" si="106"/>
         <v>40779.960834791811</v>
       </c>
-      <c r="CI25" s="2">
+      <c r="CI27" s="2">
         <f t="shared" si="106"/>
         <v>40372.161226443895</v>
       </c>
-      <c r="CJ25" s="2">
+      <c r="CJ27" s="2">
         <f t="shared" si="106"/>
         <v>39968.439614179457</v>
       </c>
-      <c r="CK25" s="2">
+      <c r="CK27" s="2">
         <f t="shared" si="106"/>
         <v>39568.755218037659</v>
       </c>
-      <c r="CL25" s="2">
+      <c r="CL27" s="2">
         <f t="shared" si="106"/>
         <v>39173.067665857285</v>
       </c>
-      <c r="CM25" s="2">
+      <c r="CM27" s="2">
         <f t="shared" si="106"/>
         <v>38781.336989198709</v>
       </c>
-      <c r="CN25" s="2">
-        <f t="shared" ref="CN25:DP25" si="107">CM25*(1+$AD$28)</f>
+      <c r="CN27" s="2">
+        <f t="shared" ref="CN27:DP27" si="107">CM27*(1+$AD$30)</f>
         <v>38393.523619306725</v>
       </c>
-      <c r="CO25" s="2">
+      <c r="CO27" s="2">
         <f t="shared" si="107"/>
         <v>38009.58838311366</v>
       </c>
-      <c r="CP25" s="2">
+      <c r="CP27" s="2">
         <f t="shared" si="107"/>
         <v>37629.492499282525</v>
       </c>
-      <c r="CQ25" s="2">
+      <c r="CQ27" s="2">
         <f t="shared" si="107"/>
         <v>37253.197574289698</v>
       </c>
-      <c r="CR25" s="2">
+      <c r="CR27" s="2">
         <f t="shared" si="107"/>
         <v>36880.665598546802</v>
       </c>
-      <c r="CS25" s="2">
+      <c r="CS27" s="2">
         <f t="shared" si="107"/>
         <v>36511.858942561332</v>
       </c>
-      <c r="CT25" s="2">
+      <c r="CT27" s="2">
         <f t="shared" si="107"/>
         <v>36146.740353135719</v>
       </c>
-      <c r="CU25" s="2">
+      <c r="CU27" s="2">
         <f t="shared" si="107"/>
         <v>35785.272949604361</v>
       </c>
-      <c r="CV25" s="2">
+      <c r="CV27" s="2">
         <f t="shared" si="107"/>
         <v>35427.420220108317</v>
       </c>
-      <c r="CW25" s="2">
+      <c r="CW27" s="2">
         <f t="shared" si="107"/>
         <v>35073.146017907231</v>
       </c>
-      <c r="CX25" s="2">
+      <c r="CX27" s="2">
         <f t="shared" si="107"/>
         <v>34722.41455772816</v>
       </c>
-      <c r="CY25" s="2">
+      <c r="CY27" s="2">
         <f t="shared" si="107"/>
         <v>34375.190412150878</v>
       </c>
-      <c r="CZ25" s="2">
+      <c r="CZ27" s="2">
         <f t="shared" si="107"/>
         <v>34031.438508029372</v>
       </c>
-      <c r="DA25" s="2">
+      <c r="DA27" s="2">
         <f t="shared" si="107"/>
         <v>33691.124122949077</v>
       </c>
-      <c r="DB25" s="2">
+      <c r="DB27" s="2">
         <f t="shared" si="107"/>
         <v>33354.212881719584</v>
       </c>
-      <c r="DC25" s="2">
+      <c r="DC27" s="2">
         <f t="shared" si="107"/>
         <v>33020.670752902392</v>
       </c>
-      <c r="DD25" s="2">
+      <c r="DD27" s="2">
         <f t="shared" si="107"/>
         <v>32690.464045373366</v>
       </c>
-      <c r="DE25" s="2">
+      <c r="DE27" s="2">
         <f t="shared" si="107"/>
         <v>32363.559404919633</v>
       </c>
-      <c r="DF25" s="2">
+      <c r="DF27" s="2">
         <f t="shared" si="107"/>
         <v>32039.923810870438</v>
       </c>
-      <c r="DG25" s="2">
+      <c r="DG27" s="2">
         <f t="shared" si="107"/>
         <v>31719.524572761733</v>
       </c>
-      <c r="DH25" s="2">
+      <c r="DH27" s="2">
         <f t="shared" si="107"/>
         <v>31402.329327034116</v>
       </c>
-      <c r="DI25" s="2">
+      <c r="DI27" s="2">
         <f t="shared" si="107"/>
         <v>31088.306033763776</v>
       </c>
-      <c r="DJ25" s="2">
+      <c r="DJ27" s="2">
         <f t="shared" si="107"/>
         <v>30777.422973426139</v>
       </c>
-      <c r="DK25" s="2">
+      <c r="DK27" s="2">
         <f t="shared" si="107"/>
         <v>30469.648743691876</v>
       </c>
-      <c r="DL25" s="2">
+      <c r="DL27" s="2">
         <f t="shared" si="107"/>
         <v>30164.952256254957</v>
       </c>
-      <c r="DM25" s="2">
+      <c r="DM27" s="2">
         <f t="shared" si="107"/>
         <v>29863.302733692406</v>
       </c>
-      <c r="DN25" s="2">
+      <c r="DN27" s="2">
         <f t="shared" si="107"/>
         <v>29564.669706355482</v>
       </c>
-      <c r="DO25" s="2">
+      <c r="DO27" s="2">
         <f t="shared" si="107"/>
         <v>29269.023009291926</v>
       </c>
-      <c r="DP25" s="2">
+      <c r="DP27" s="2">
         <f t="shared" si="107"/>
         <v>28976.332779199009</v>
       </c>
     </row>
-    <row r="26" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
+    <row r="28" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C28" s="2">
         <v>901</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G28" s="2">
         <v>899</v>
       </c>
-      <c r="H26" s="2">
-        <f>G26</f>
+      <c r="H28" s="2">
+        <f>G28</f>
         <v>899</v>
       </c>
-      <c r="I26" s="2">
-        <f t="shared" ref="I26:J26" si="108">H26</f>
+      <c r="I28" s="2">
+        <f t="shared" ref="I28:J28" si="108">H28</f>
         <v>899</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J28" s="2">
         <f t="shared" si="108"/>
         <v>899</v>
       </c>
-      <c r="Q26" s="2">
-        <f>J26</f>
+      <c r="Q28" s="2">
+        <f>J28</f>
         <v>899</v>
       </c>
-      <c r="R26" s="2">
-        <f>Q26</f>
+      <c r="R28" s="2">
+        <f>Q28</f>
         <v>899</v>
       </c>
-      <c r="S26" s="2">
-        <f t="shared" ref="S26:V26" si="109">R26</f>
+      <c r="S28" s="2">
+        <f t="shared" ref="S28:V28" si="109">R28</f>
         <v>899</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T28" s="2">
         <f t="shared" si="109"/>
         <v>899</v>
       </c>
-      <c r="U26" s="2">
+      <c r="U28" s="2">
         <f t="shared" si="109"/>
         <v>899</v>
       </c>
-      <c r="V26" s="2">
+      <c r="V28" s="2">
         <f t="shared" si="109"/>
         <v>899</v>
       </c>
-      <c r="W26" s="2">
-        <f t="shared" ref="W26:AA26" si="110">V26</f>
+      <c r="W28" s="2">
+        <f t="shared" ref="W28:AA28" si="110">V28</f>
         <v>899</v>
       </c>
-      <c r="X26" s="2">
+      <c r="X28" s="2">
         <f t="shared" si="110"/>
         <v>899</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Y28" s="2">
         <f t="shared" si="110"/>
         <v>899</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="Z28" s="2">
         <f t="shared" si="110"/>
         <v>899</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AA28" s="2">
         <f t="shared" si="110"/>
         <v>899</v>
       </c>
     </row>
-    <row r="27" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+    <row r="29" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
-        <f t="shared" ref="C27:H27" si="111">C25/C26</f>
+      <c r="C29" s="1">
+        <f t="shared" ref="C29:H29" si="111">C27/C28</f>
         <v>2.611542730299667</v>
       </c>
-      <c r="D27" s="1" t="e">
+      <c r="D29" s="1" t="e">
         <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="1" t="e">
+      <c r="E29" s="1" t="e">
         <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="1" t="e">
+      <c r="F29" s="1" t="e">
         <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G29" s="1">
         <f t="shared" si="111"/>
         <v>4.8553948832035596</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H29" s="1">
         <f t="shared" si="111"/>
         <v>5.7198650055617355</v>
       </c>
-      <c r="I27" s="1">
-        <f t="shared" ref="I27:L27" si="112">I25/I26</f>
+      <c r="I29" s="1">
+        <f t="shared" ref="I29:L29" si="112">I27/I28</f>
         <v>6.8595499376729716</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J29" s="1">
         <f t="shared" si="112"/>
         <v>8.1224000775865228</v>
       </c>
-      <c r="L27" s="1" t="e">
+      <c r="L29" s="1" t="e">
         <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="1" t="e">
-        <f t="shared" ref="M27" si="113">M25/M26</f>
+      <c r="M29" s="1" t="e">
+        <f t="shared" ref="M29" si="113">M27/M28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="1" t="e">
-        <f t="shared" ref="N27" si="114">N25/N26</f>
+      <c r="N29" s="1" t="e">
+        <f t="shared" ref="N29" si="114">N27/N28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O27" s="1" t="e">
-        <f t="shared" ref="O27" si="115">O25/O26</f>
+      <c r="O29" s="1" t="e">
+        <f t="shared" ref="O29" si="115">O27/O28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P27" s="1" t="e">
-        <f t="shared" ref="P27" si="116">P25/P26</f>
+      <c r="P29" s="1" t="e">
+        <f t="shared" ref="P29" si="116">P27/P28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="1">
-        <f t="shared" ref="Q27" si="117">Q25/Q26</f>
+      <c r="Q29" s="1">
+        <f t="shared" ref="Q29" si="117">Q27/Q28</f>
         <v>25.557209904024795</v>
       </c>
-      <c r="R27" s="1">
-        <f t="shared" ref="R27" si="118">R25/R26</f>
+      <c r="R29" s="1">
+        <f t="shared" ref="R29" si="118">R27/R28</f>
         <v>38.285790778118184</v>
       </c>
-      <c r="S27" s="1">
-        <f t="shared" ref="S27" si="119">S25/S26</f>
+      <c r="S29" s="1">
+        <f t="shared" ref="S29" si="119">S27/S28</f>
         <v>41.844548656704752</v>
       </c>
-      <c r="T27" s="1">
-        <f t="shared" ref="T27" si="120">T25/T26</f>
+      <c r="T29" s="1">
+        <f t="shared" ref="T29" si="120">T27/T28</f>
         <v>45.67776043984103</v>
       </c>
-      <c r="U27" s="1">
-        <f t="shared" ref="U27:V27" si="121">U25/U26</f>
+      <c r="U29" s="1">
+        <f t="shared" ref="U29:V29" si="121">U27/U28</f>
         <v>49.80549262515126</v>
       </c>
-      <c r="V27" s="1">
+      <c r="V29" s="1">
         <f t="shared" si="121"/>
         <v>54.249247979726462</v>
       </c>
-      <c r="W27" s="1">
-        <f t="shared" ref="W27" si="122">W25/W26</f>
+      <c r="W29" s="1">
+        <f t="shared" ref="W29" si="122">W27/W28</f>
         <v>59.032067301868381</v>
       </c>
-      <c r="X27" s="1">
-        <f t="shared" ref="X27" si="123">X25/X26</f>
+      <c r="X29" s="1">
+        <f t="shared" ref="X29" si="123">X27/X28</f>
         <v>64.178638354394735</v>
       </c>
-      <c r="Y27" s="1">
-        <f t="shared" ref="Y27" si="124">Y25/Y26</f>
+      <c r="Y29" s="1">
+        <f t="shared" ref="Y29" si="124">Y27/Y28</f>
         <v>69.715412473434355</v>
       </c>
-      <c r="Z27" s="1">
-        <f t="shared" ref="Z27" si="125">Z25/Z26</f>
+      <c r="Z29" s="1">
+        <f t="shared" ref="Z29" si="125">Z27/Z28</f>
         <v>75.670729391991358</v>
       </c>
-      <c r="AA27" s="1">
-        <f t="shared" ref="AA27" si="126">AA25/AA26</f>
+      <c r="AA29" s="1">
+        <f t="shared" ref="AA29" si="126">AA27/AA28</f>
         <v>82.074950855387115</v>
       </c>
-      <c r="AC27" s="2" t="s">
+      <c r="AC29" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AD27" s="10">
+      <c r="AD29" s="10">
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="AC28" s="2" t="s">
+    <row r="30" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="AC30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AD28" s="10">
+      <c r="AD30" s="10">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:120" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="7" t="s">
+    <row r="31" spans="1:120" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="9">
-        <f>G15/C15-1</f>
+      <c r="G31" s="9">
+        <f>G17/C17-1</f>
         <v>0.45164233576642343</v>
       </c>
-      <c r="H29" s="9" t="e">
-        <f t="shared" ref="H29:J29" si="127">H15/D15-1</f>
+      <c r="H31" s="9" t="e">
+        <f t="shared" ref="H31:J31" si="127">H17/D17-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="9" t="e">
+      <c r="I31" s="9" t="e">
         <f t="shared" si="127"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="9" t="e">
+      <c r="J31" s="9" t="e">
         <f t="shared" si="127"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="9" t="e">
-        <f t="shared" ref="M29:V29" si="128">M15/L15-1</f>
+      <c r="M31" s="9" t="e">
+        <f t="shared" ref="M31:V31" si="128">M17/L17-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="9" t="e">
+      <c r="N31" s="9" t="e">
         <f t="shared" si="128"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="9" t="e">
+      <c r="O31" s="9" t="e">
         <f t="shared" si="128"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="9" t="e">
+      <c r="P31" s="9" t="e">
         <f t="shared" si="128"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="9" t="e">
+      <c r="Q31" s="9" t="e">
         <f t="shared" si="128"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R29" s="9">
+      <c r="R31" s="9">
         <f t="shared" si="128"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="S29" s="9">
+      <c r="S31" s="9">
         <f t="shared" si="128"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="T29" s="9">
+      <c r="T31" s="9">
         <f t="shared" si="128"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="U29" s="9">
+      <c r="U31" s="9">
         <f t="shared" si="128"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="V29" s="9">
+      <c r="V31" s="9">
         <f t="shared" si="128"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="W29" s="9">
-        <f t="shared" ref="W29:AA29" si="129">W15/V15-1</f>
+      <c r="W31" s="9">
+        <f t="shared" ref="W31:AA31" si="129">W17/V17-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="X29" s="9">
+      <c r="X31" s="9">
         <f t="shared" si="129"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="Y29" s="9">
+      <c r="Y31" s="9">
         <f t="shared" si="129"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="Z29" s="9">
+      <c r="Z31" s="9">
         <f t="shared" si="129"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AA29" s="9">
+      <c r="AA31" s="9">
         <f t="shared" si="129"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AC29" s="2" t="s">
+      <c r="AC31" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AD29" s="10">
+      <c r="AD31" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+    <row r="32" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="10">
-        <f>C17/C15</f>
+      <c r="C32" s="10">
+        <f>C19/C17</f>
         <v>0.80907846715328469</v>
       </c>
-      <c r="D30" s="10" t="e">
-        <f t="shared" ref="D30:J30" si="130">D17/D15</f>
+      <c r="D32" s="10" t="e">
+        <f t="shared" ref="D32:J32" si="130">D19/D17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="10" t="e">
+      <c r="E32" s="10" t="e">
         <f t="shared" si="130"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="10" t="e">
+      <c r="F32" s="10" t="e">
         <f t="shared" si="130"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G32" s="10">
         <f t="shared" si="130"/>
         <v>0.82526712759270904</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H32" s="10">
         <f t="shared" si="130"/>
         <v>0.83</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I32" s="10">
         <f t="shared" si="130"/>
         <v>0.83</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J32" s="10">
         <f t="shared" si="130"/>
         <v>0.83000000000000007</v>
       </c>
-      <c r="L30" s="10" t="e">
-        <f t="shared" ref="L30:Q30" si="131">L17/L15</f>
+      <c r="L32" s="10" t="e">
+        <f t="shared" ref="L32:Q32" si="131">L19/L17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="10" t="e">
+      <c r="M32" s="10" t="e">
         <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="10" t="e">
+      <c r="N32" s="10" t="e">
         <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="10" t="e">
+      <c r="O32" s="10" t="e">
         <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="10" t="e">
+      <c r="P32" s="10" t="e">
         <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q32" s="10">
         <f t="shared" si="131"/>
         <v>0.82898020417856255</v>
       </c>
-      <c r="R30" s="10">
-        <f t="shared" ref="R30:V30" si="132">R17/R15</f>
+      <c r="R32" s="10">
+        <f t="shared" ref="R32:V32" si="132">R19/R17</f>
         <v>0.83000000000000007</v>
       </c>
-      <c r="S30" s="10">
+      <c r="S32" s="10">
         <f t="shared" si="132"/>
         <v>0.83000000000000007</v>
       </c>
-      <c r="T30" s="10">
+      <c r="T32" s="10">
         <f t="shared" si="132"/>
         <v>0.83</v>
       </c>
-      <c r="U30" s="10">
+      <c r="U32" s="10">
         <f t="shared" si="132"/>
         <v>0.83</v>
       </c>
-      <c r="V30" s="10">
+      <c r="V32" s="10">
         <f t="shared" si="132"/>
         <v>0.83</v>
       </c>
-      <c r="W30" s="10">
-        <f t="shared" ref="W30:AA30" si="133">W17/W15</f>
+      <c r="W32" s="10">
+        <f t="shared" ref="W32:AA32" si="133">W19/W17</f>
         <v>0.82999999999999985</v>
       </c>
-      <c r="X30" s="10">
+      <c r="X32" s="10">
         <f t="shared" si="133"/>
         <v>0.83</v>
       </c>
-      <c r="Y30" s="10">
+      <c r="Y32" s="10">
         <f t="shared" si="133"/>
         <v>0.83000000000000007</v>
       </c>
-      <c r="Z30" s="10">
+      <c r="Z32" s="10">
         <f t="shared" si="133"/>
         <v>0.83</v>
       </c>
-      <c r="AA30" s="10">
+      <c r="AA32" s="10">
         <f t="shared" si="133"/>
         <v>0.83000000000000007</v>
       </c>
-      <c r="AC30" s="2" t="s">
+      <c r="AC32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AD30" s="2">
-        <f>NPV(AD29,Q25:XFD25)+Main!K6-Main!K7</f>
+      <c r="AD32" s="2">
+        <f>NPV(AD31,Q27:XFD27)+Main!K6-Main!K7</f>
         <v>746543.52415987698</v>
       </c>
     </row>
-    <row r="31" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="G31" s="10">
-        <f>G19/C19-1</f>
+      <c r="C33" s="10"/>
+      <c r="G33" s="10">
+        <f>G21/C21-1</f>
         <v>0.26485655737704916</v>
       </c>
-      <c r="H31" s="10" t="e">
-        <f t="shared" ref="H31:J31" si="134">H19/D19-1</f>
+      <c r="H33" s="10" t="e">
+        <f t="shared" ref="H33:J33" si="134">H21/D21-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="10" t="e">
+      <c r="I33" s="10" t="e">
         <f t="shared" si="134"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="10" t="e">
+      <c r="J33" s="10" t="e">
         <f t="shared" si="134"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10">
-        <f>R19/Q19-1</f>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10">
+        <f>R21/Q21-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="S31" s="10">
-        <f t="shared" ref="S31:V31" si="135">S19/R19-1</f>
+      <c r="S33" s="10">
+        <f t="shared" ref="S33:V33" si="135">S21/R21-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="T31" s="10">
+      <c r="T33" s="10">
         <f t="shared" si="135"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="U31" s="10">
+      <c r="U33" s="10">
         <f t="shared" si="135"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="V31" s="10">
+      <c r="V33" s="10">
         <f t="shared" si="135"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="W31" s="10">
-        <f t="shared" ref="W31:AA31" si="136">W19/V19-1</f>
+      <c r="W33" s="10">
+        <f t="shared" ref="W33:AA33" si="136">W21/V21-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="X31" s="10">
+      <c r="X33" s="10">
         <f t="shared" si="136"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="Y31" s="10">
+      <c r="Y33" s="10">
         <f t="shared" si="136"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="Z31" s="10">
+      <c r="Z33" s="10">
         <f t="shared" si="136"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AA31" s="10">
+      <c r="AA33" s="10">
         <f t="shared" si="136"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AC31" s="2" t="s">
+      <c r="AC33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AD31" s="1">
-        <f>AD30/Main!K4</f>
+      <c r="AD33" s="1">
+        <f>AD32/Main!K4</f>
         <v>787.71336308132231</v>
       </c>
     </row>
-    <row r="32" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="AD32" s="10">
-        <f>AD31/Main!K3-1</f>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD34" s="10">
+        <f>AD33/Main!K3-1</f>
         <v>-2.8713485719701226E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="2">
-        <f>C34-SUM(C55:C57)</f>
+      <c r="C35" s="2">
+        <f>C36-SUM(C57:C59)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="2">
-        <f>D34-SUM(D55:D57)</f>
+      <c r="D35" s="2">
+        <f>D36-SUM(D57:D59)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="2">
-        <f>E34-SUM(E55:E57)</f>
+      <c r="E35" s="2">
+        <f>E36-SUM(E57:E59)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="2">
-        <f>F34-SUM(F55:F57)</f>
+      <c r="F35" s="2">
+        <f>F36-SUM(F57:F59)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="2">
-        <f>G34-SUM(G55:G56)</f>
+      <c r="G35" s="2">
+        <f>G36-SUM(G57:G58)</f>
         <v>-3466</v>
       </c>
-      <c r="H33" s="2">
-        <f>G33+H25</f>
+      <c r="H35" s="2">
+        <f>G35+H27</f>
         <v>1676.1586400000006</v>
       </c>
-      <c r="I33" s="2">
-        <f t="shared" ref="I33:J33" si="137">H33+I25</f>
+      <c r="I35" s="2">
+        <f t="shared" ref="I35:J35" si="137">H35+I27</f>
         <v>7842.8940339680021</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J35" s="2">
         <f t="shared" si="137"/>
         <v>15144.931703718286</v>
       </c>
-      <c r="L33" s="2">
-        <f>L34-SUM(L55:L57)</f>
+      <c r="L35" s="2">
+        <f>L36-SUM(L57:L59)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="2">
-        <f>M34-SUM(M55:M57)</f>
+      <c r="M35" s="2">
+        <f>M36-SUM(M57:M59)</f>
         <v>0</v>
       </c>
-      <c r="N33" s="2">
-        <f>N34-SUM(N55:N57)</f>
+      <c r="N35" s="2">
+        <f>N36-SUM(N57:N59)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="2">
-        <f>O34-SUM(O55:O57)</f>
+      <c r="O35" s="2">
+        <f>O36-SUM(O57:O59)</f>
         <v>0</v>
       </c>
-      <c r="P33" s="2">
-        <f>P34-SUM(P55:P57)</f>
+      <c r="P35" s="2">
+        <f>P36-SUM(P57:P59)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="2">
-        <f>J33</f>
+      <c r="Q35" s="2">
+        <f>J35</f>
         <v>15144.931703718286</v>
       </c>
-      <c r="R33" s="2">
-        <f>Q33+R25</f>
+      <c r="R35" s="2">
+        <f>Q35+R27</f>
         <v>49563.857613246531</v>
       </c>
-      <c r="S33" s="2">
-        <f t="shared" ref="S33:V33" si="138">R33+S25</f>
+      <c r="S35" s="2">
+        <f t="shared" ref="S35:V35" si="138">R35+S27</f>
         <v>87182.106855624093</v>
       </c>
-      <c r="T33" s="2">
+      <c r="T35" s="2">
         <f t="shared" si="138"/>
         <v>128246.41349104118</v>
       </c>
-      <c r="U33" s="2">
+      <c r="U35" s="2">
         <f t="shared" si="138"/>
         <v>173021.55136105217</v>
       </c>
-      <c r="V33" s="2">
+      <c r="V35" s="2">
         <f t="shared" si="138"/>
         <v>221791.62529482626</v>
       </c>
-      <c r="W33" s="2">
-        <f t="shared" ref="W33:AA33" si="139">V33+W25</f>
+      <c r="W35" s="2">
+        <f t="shared" ref="W35:AA35" si="139">V35+W27</f>
         <v>274861.45379920595</v>
       </c>
-      <c r="X33" s="2">
+      <c r="X35" s="2">
         <f t="shared" si="139"/>
         <v>332558.04967980681</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="Y35" s="2">
         <f t="shared" si="139"/>
         <v>395232.20549342432</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="Z35" s="2">
         <f t="shared" si="139"/>
         <v>463260.19121682458</v>
       </c>
-      <c r="AA33" s="2">
+      <c r="AA35" s="2">
         <f t="shared" si="139"/>
         <v>537045.57203581755</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G36" s="2">
         <f>3093+128</f>
         <v>3221</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G37" s="2">
         <v>12037</v>
       </c>
-      <c r="X35" s="10"/>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+      <c r="X37" s="10"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G38" s="2">
         <v>1966.6</v>
       </c>
-      <c r="AB36" s="31">
+      <c r="AB38" s="31">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G39" s="2">
         <v>9311</v>
       </c>
-      <c r="AB37" s="31">
-        <f>AB38-AB36</f>
+      <c r="AB39" s="31">
+        <f>AB40-AB38</f>
         <v>2.6000000000000009E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G40" s="2">
         <v>14654</v>
       </c>
-      <c r="AA38" s="2" t="s">
+      <c r="AA40" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AB38" s="10">
+      <c r="AB40" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G41" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G42" s="2">
         <v>3223</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G43" s="2">
         <v>5771</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G44" s="2">
         <v>6012</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G45" s="2">
         <v>8573</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G46" s="2">
         <v>18474</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G47" s="2">
         <v>6075</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G46" s="2">
-        <f>SUM(G34:G45)</f>
+      <c r="G48" s="2">
+        <f>SUM(G36:G47)</f>
         <v>89389.6</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G50" s="2">
         <f>4016+34449</f>
         <v>38465</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="2">
-        <v>3442</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" s="2">
-        <v>1114</v>
-      </c>
-    </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G51" s="2">
-        <v>11550</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G52" s="2">
-        <v>0</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G53" s="2">
-        <v>6176</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G54" s="2">
-        <v>3770</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G55" s="2">
-        <v>1316</v>
+        <v>6176</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G56" s="2">
-        <v>5371</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G57" s="2">
-        <v>2288</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G58" s="2">
-        <f>SUM(G48:G57)</f>
-        <v>73492</v>
+        <v>5371</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G59" s="2">
-        <f>G46-G58</f>
-        <v>15897.600000000006</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G60" s="2">
-        <f>G59+G58</f>
-        <v>89389.6</v>
+        <f>SUM(G50:G59)</f>
+        <v>73492</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="2">
+        <f>G48-G60</f>
+        <v>15897.600000000006</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="2">
-        <f>C25</f>
-        <v>2353</v>
-      </c>
-      <c r="D62" s="2">
-        <f>D25</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="2">
-        <f>E25</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="2">
-        <f>F25</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G62" s="2">
-        <f>G25</f>
-        <v>4365</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="2">
-        <v>2243</v>
-      </c>
-      <c r="G63" s="2">
-        <v>2759</v>
+        <f>G61+G60</f>
+        <v>89389.6</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="C64" s="2">
+        <f>C27</f>
+        <v>2353</v>
+      </c>
+      <c r="D64" s="2">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <f>E27</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <f>F27</f>
+        <v>0</v>
       </c>
       <c r="G64" s="2">
-        <v>463</v>
+        <f>G27</f>
+        <v>4365</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2243</v>
       </c>
       <c r="G65" s="2">
-        <v>-392</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G66" s="2">
-        <v>154</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G67" s="2">
-        <v>149</v>
+        <v>-392</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G68" s="2">
-        <v>1572</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G69" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G71" s="2">
         <f>-3364+325</f>
         <v>-3039</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G70" s="2">
-        <f>SUM(G34:G39)-SUM(G40:G45)</f>
+      <c r="G72" s="2">
+        <f>SUM(G36:G41)-SUM(G42:G47)</f>
         <v>-6866.4000000000015</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" s="2">
-        <f>SUM(G63:G69)</f>
-        <v>1666</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G73" s="2">
+        <f>SUM(G65:G71)</f>
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G75" s="2">
         <v>-1510</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74" s="2" t="s">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G76" s="2">
         <f>72-197</f>
         <v>-125</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G75" s="2">
-        <v>-1757</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G76" s="2">
-        <v>39</v>
-      </c>
-    </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G77" s="2">
-        <f>SUM(G73:G76)</f>
-        <v>-3353</v>
+        <v>-1757</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G78" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G79" s="2">
+        <f>SUM(G75:G78)</f>
+        <v>-3353</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G81" s="2">
         <v>-1346</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B80" s="2" t="s">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G82" s="2">
         <f>-1849+6461</f>
         <v>4612</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" s="2">
-        <v>-1200</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G82" s="2">
-        <v>-686</v>
-      </c>
-    </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G83" s="2">
-        <f>SUM(G79:G82)</f>
-        <v>1380</v>
+        <v>-1200</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" s="2">
-        <v>-36</v>
+        <v>83</v>
       </c>
       <c r="G84" s="2">
-        <v>132</v>
+        <v>-686</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G85" s="2">
-        <f>G71+G77+G83+G84</f>
-        <v>-175</v>
+        <f>SUM(G81:G84)</f>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2">
+        <v>-36</v>
+      </c>
+      <c r="G86" s="2">
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G87" s="2">
-        <v>8489</v>
-      </c>
-      <c r="H87" s="10">
-        <f>G87/$G$92</f>
-        <v>0.6669547454431175</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G88" s="2">
-        <v>2389</v>
-      </c>
-      <c r="H88" s="10">
-        <f t="shared" ref="H88:H91" si="140">G88/$G$92</f>
-        <v>0.18769641734758014</v>
+        <f>G73+G79+G85+G86</f>
+        <v>-175</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G89" s="2">
+        <v>8489</v>
+      </c>
+      <c r="H89" s="10">
+        <f>G89/$G$94</f>
+        <v>0.6669547454431175</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G90" s="2">
+        <v>2389</v>
+      </c>
+      <c r="H90" s="10">
+        <f t="shared" ref="H90:H93" si="140">G90/$G$94</f>
+        <v>0.18769641734758014</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G91" s="2">
         <v>451</v>
       </c>
-      <c r="H89" s="10">
+      <c r="H91" s="10">
         <f t="shared" si="140"/>
         <v>3.5433689503456947E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="2" t="s">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G92" s="2">
         <v>402</v>
       </c>
-      <c r="H90" s="10">
+      <c r="H92" s="10">
         <f t="shared" si="140"/>
         <v>3.1583909490886235E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="2" t="s">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G93" s="2">
         <v>997</v>
       </c>
-      <c r="H91" s="10">
+      <c r="H93" s="10">
         <f t="shared" si="140"/>
         <v>7.8331238214959145E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G92" s="2">
-        <f>SUM(G87:G91)</f>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G94" s="2">
+        <f>SUM(G89:G93)</f>
         <v>12728</v>
       </c>
     </row>
@@ -6376,6 +6516,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D92F221-2168-4E03-8F61-52C2DF201221}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14288813-3D1E-4A9E-A516-334ACAC114C1}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -6418,7 +6570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15C051B-1DA4-4878-A4F2-4493F7143AF8}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -6470,7 +6622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5744FCAD-61D7-4A2F-914E-2906B0E5F55A}">
   <dimension ref="A1:N12"/>
   <sheetViews>
@@ -6629,7 +6781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A23FC46-79AB-4D31-998B-F6F3117F2304}">
   <dimension ref="A1:R31"/>
   <sheetViews>
@@ -7062,7 +7214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6177376-F086-44CA-9B21-31B260C7B0CC}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -7156,12 +7308,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55209CA0-1E65-4F76-BF8E-7B463599745A}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7252,54 +7404,54 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="25" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="25" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="29">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C18" s="29">
         <v>45870</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C17" s="29"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C18" s="25" t="s">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C20" s="25" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C20" s="29">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C22" s="29">
         <v>46478</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C21" s="29"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C22" s="25" t="s">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C23" s="29"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C24" s="25" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C24" s="29">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C26" s="29">
         <v>46692</v>
       </c>
     </row>
@@ -7669,107 +7821,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2179A6F6-DBF9-4590-B13F-B22EDCA5BB90}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="25" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CE51DBE6-8B44-4E87-A0EB-867BDF7E290B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17349C1E-81E2-47A7-85E9-5DAB7885F2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7BA687-4EAA-46A7-9007-B3CBB6E9C20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1080" windowWidth="22335" windowHeight="13875" activeTab="2" xr2:uid="{0B35871E-4663-488C-B05C-A1B5B9C863D7}"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{0B35871E-4663-488C-B05C-A1B5B9C863D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1868,7 +1868,7 @@
   <dimension ref="B2:L96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>811</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="K5" s="2">
         <f>K4*K3</f>
-        <v>768613.08499999996</v>
+        <v>649198.47499999998</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="K8" s="2">
         <f>K5+K7-K6</f>
-        <v>803908.08499999996</v>
+        <v>684493.47499999998</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -3873,11 +3873,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EBA39-FD53-497C-AEEB-0F0FD94197E7}">
   <dimension ref="A1:DP94"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4233,44 +4233,44 @@
         <v>59070.648000000016</v>
       </c>
       <c r="R17" s="7">
-        <f>Q17*1.07</f>
-        <v>63205.593360000021</v>
+        <f>Q17*1.09</f>
+        <v>64387.006320000022</v>
       </c>
       <c r="S17" s="7">
-        <f t="shared" ref="S17:AA17" si="2">R17*1.07</f>
-        <v>67629.984895200032</v>
+        <f t="shared" ref="S17:AA17" si="2">R17*1.09</f>
+        <v>70181.836888800026</v>
       </c>
       <c r="T17" s="7">
         <f t="shared" si="2"/>
-        <v>72364.083837864033</v>
+        <v>76498.202208792034</v>
       </c>
       <c r="U17" s="7">
         <f t="shared" si="2"/>
-        <v>77429.569706514521</v>
+        <v>83383.040407583321</v>
       </c>
       <c r="V17" s="7">
         <f t="shared" si="2"/>
-        <v>82849.639585970537</v>
+        <v>90887.51404426583</v>
       </c>
       <c r="W17" s="7">
         <f t="shared" si="2"/>
-        <v>88649.114356988473</v>
+        <v>99067.390308249756</v>
       </c>
       <c r="X17" s="7">
         <f t="shared" si="2"/>
-        <v>94854.552361977665</v>
+        <v>107983.45543599225</v>
       </c>
       <c r="Y17" s="7">
         <f t="shared" si="2"/>
-        <v>101494.37102731611</v>
+        <v>117701.96642523156</v>
       </c>
       <c r="Z17" s="7">
         <f t="shared" si="2"/>
-        <v>108598.97699922825</v>
+        <v>128295.1434035024</v>
       </c>
       <c r="AA17" s="7">
         <f t="shared" si="2"/>
-        <v>116200.90538917424</v>
+        <v>139841.70630981761</v>
       </c>
     </row>
     <row r="18" spans="1:120" x14ac:dyDescent="0.2">
@@ -4301,43 +4301,43 @@
       </c>
       <c r="R18" s="2">
         <f t="shared" ref="R18" si="4">R17*0.17</f>
-        <v>10744.950871200004</v>
+        <v>10945.791074400004</v>
       </c>
       <c r="S18" s="2">
         <f t="shared" ref="S18" si="5">S17*0.17</f>
-        <v>11497.097432184006</v>
+        <v>11930.912271096005</v>
       </c>
       <c r="T18" s="2">
         <f t="shared" ref="T18" si="6">T17*0.17</f>
-        <v>12301.894252436887</v>
+        <v>13004.694375494646</v>
       </c>
       <c r="U18" s="2">
         <f t="shared" ref="U18:V18" si="7">U17*0.17</f>
-        <v>13163.02685010747</v>
+        <v>14175.116869289166</v>
       </c>
       <c r="V18" s="2">
         <f t="shared" si="7"/>
-        <v>14084.438729614993</v>
+        <v>15450.877387525192</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" ref="W18" si="8">W17*0.17</f>
-        <v>15070.349440688042</v>
+        <v>16841.45635240246</v>
       </c>
       <c r="X18" s="2">
         <f t="shared" ref="X18" si="9">X17*0.17</f>
-        <v>16125.273901536204</v>
+        <v>18357.187424118685</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" ref="Y18" si="10">Y17*0.17</f>
-        <v>17254.043074643741</v>
+        <v>20009.334292289364</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" ref="Z18" si="11">Z17*0.17</f>
-        <v>18461.826089868806</v>
+        <v>21810.17437859541</v>
       </c>
       <c r="AA18" s="2">
         <f t="shared" ref="AA18" si="12">AA17*0.17</f>
-        <v>19754.153916159623</v>
+        <v>23773.090072668998</v>
       </c>
     </row>
     <row r="19" spans="1:120" x14ac:dyDescent="0.2">
@@ -4402,43 +4402,43 @@
       </c>
       <c r="R19" s="2">
         <f t="shared" ref="R19" si="20">R17-R18</f>
-        <v>52460.642488800018</v>
+        <v>53441.215245600019</v>
       </c>
       <c r="S19" s="2">
         <f t="shared" ref="S19" si="21">S17-S18</f>
-        <v>56132.887463016028</v>
+        <v>58250.924617704019</v>
       </c>
       <c r="T19" s="2">
         <f t="shared" ref="T19" si="22">T17-T18</f>
-        <v>60062.189585427142</v>
+        <v>63493.507833297386</v>
       </c>
       <c r="U19" s="2">
         <f t="shared" ref="U19:V19" si="23">U17-U18</f>
-        <v>64266.542856407053</v>
+        <v>69207.923538294155</v>
       </c>
       <c r="V19" s="2">
         <f t="shared" si="23"/>
-        <v>68765.200856355543</v>
+        <v>75436.636656740637</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" ref="W19" si="24">W17-W18</f>
-        <v>73578.764916300424</v>
+        <v>82225.9339558473</v>
       </c>
       <c r="X19" s="2">
         <f t="shared" ref="X19" si="25">X17-X18</f>
-        <v>78729.278460441463</v>
+        <v>89626.268011873559</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" ref="Y19" si="26">Y17-Y18</f>
-        <v>84240.327952672378</v>
+        <v>97692.632132942192</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" ref="Z19" si="27">Z17-Z18</f>
-        <v>90137.15090935945</v>
+        <v>106484.96902490698</v>
       </c>
       <c r="AA19" s="2">
         <f t="shared" ref="AA19" si="28">AA17-AA18</f>
-        <v>96446.751473014621</v>
+        <v>116068.61623714861</v>
       </c>
     </row>
     <row r="20" spans="1:120" x14ac:dyDescent="0.2">
@@ -4698,43 +4698,43 @@
       </c>
       <c r="R23" s="2">
         <f t="shared" ref="R23" si="56">R19-R22</f>
-        <v>42189.602488800017</v>
+        <v>43170.175245600018</v>
       </c>
       <c r="S23" s="2">
         <f t="shared" ref="S23" si="57">S19-S22</f>
-        <v>45451.005863016027</v>
+        <v>47569.043017704018</v>
       </c>
       <c r="T23" s="2">
         <f t="shared" ref="T23" si="58">T19-T22</f>
-        <v>48953.032721427138</v>
+        <v>52384.350969297389</v>
       </c>
       <c r="U23" s="2">
         <f t="shared" ref="U23:V23" si="59">U19-U22</f>
-        <v>52713.019717847055</v>
+        <v>57654.400399734157</v>
       </c>
       <c r="V23" s="2">
         <f t="shared" si="59"/>
-        <v>56749.536792253144</v>
+        <v>63420.972592638238</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" ref="W23" si="60">W19-W22</f>
-        <v>61082.47428963393</v>
+        <v>69729.643329180806</v>
       </c>
       <c r="X23" s="2">
         <f t="shared" ref="X23" si="61">X19-X22</f>
-        <v>65733.136208708311</v>
+        <v>76630.125760140407</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" ref="Y23" si="62">Y19-Y22</f>
-        <v>70724.340010869899</v>
+        <v>84176.644191139712</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" ref="Z23" si="63">Z19-Z22</f>
-        <v>76080.523449884873</v>
+        <v>92428.341565432405</v>
       </c>
       <c r="AA23" s="2">
         <f t="shared" ref="AA23" si="64">AA19-AA22</f>
-        <v>81827.85891516105</v>
+        <v>101449.72367929504</v>
       </c>
     </row>
     <row r="24" spans="1:120" x14ac:dyDescent="0.2">
@@ -4769,39 +4769,39 @@
       </c>
       <c r="S24" s="2">
         <f t="shared" si="65"/>
-        <v>991.27715226493069</v>
+        <v>1007.1624309250908</v>
       </c>
       <c r="T24" s="2">
         <f t="shared" si="65"/>
-        <v>1743.6421371124818</v>
+        <v>1794.0969591928824</v>
       </c>
       <c r="U24" s="2">
         <f t="shared" si="65"/>
-        <v>2564.9282698208235</v>
+        <v>2671.787815634425</v>
       </c>
       <c r="V24" s="2">
         <f t="shared" si="65"/>
-        <v>3460.4310272210437</v>
+        <v>3649.0720647233957</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="65"/>
-        <v>4435.8325058965256</v>
+        <v>4735.6067881726549</v>
       </c>
       <c r="X24" s="2">
         <f t="shared" si="65"/>
-        <v>5497.2290759841189</v>
+        <v>5941.9438400737799</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" si="65"/>
-        <v>6651.160993596136</v>
+        <v>7279.6113675972492</v>
       </c>
       <c r="Z24" s="2">
         <f t="shared" si="65"/>
-        <v>7904.6441098684863</v>
+        <v>8761.2027076487884</v>
       </c>
       <c r="AA24" s="2">
         <f t="shared" si="65"/>
-        <v>9265.2038243364914</v>
+        <v>10400.473324872704</v>
       </c>
     </row>
     <row r="25" spans="1:120" x14ac:dyDescent="0.2">
@@ -4866,43 +4866,43 @@
       </c>
       <c r="R25" s="2">
         <f t="shared" ref="R25" si="73">R23+R24</f>
-        <v>42492.501122874382</v>
+        <v>43473.073879674383</v>
       </c>
       <c r="S25" s="2">
         <f t="shared" ref="S25" si="74">S23+S24</f>
-        <v>46442.283015280955</v>
+        <v>48576.205448629109</v>
       </c>
       <c r="T25" s="2">
         <f t="shared" ref="T25" si="75">T23+T24</f>
-        <v>50696.67485853962</v>
+        <v>54178.44792849027</v>
       </c>
       <c r="U25" s="2">
         <f t="shared" ref="U25:V25" si="76">U23+U24</f>
-        <v>55277.947987667882</v>
+        <v>60326.18821536858</v>
       </c>
       <c r="V25" s="2">
         <f t="shared" si="76"/>
-        <v>60209.967819474186</v>
+        <v>67070.044657361635</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" ref="W25" si="77">W23+W24</f>
-        <v>65518.306795530458</v>
+        <v>74465.250117353455</v>
       </c>
       <c r="X25" s="2">
         <f t="shared" ref="X25" si="78">X23+X24</f>
-        <v>71230.365284692423</v>
+        <v>82572.069600214192</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" ref="Y25" si="79">Y23+Y24</f>
-        <v>77375.50100446603</v>
+        <v>91456.255558736957</v>
       </c>
       <c r="Z25" s="2">
         <f t="shared" ref="Z25" si="80">Z23+Z24</f>
-        <v>83985.167559753361</v>
+        <v>101189.54427308119</v>
       </c>
       <c r="AA25" s="2">
         <f t="shared" ref="AA25" si="81">AA23+AA24</f>
-        <v>91093.062739497545</v>
+        <v>111850.19700416774</v>
       </c>
     </row>
     <row r="26" spans="1:120" x14ac:dyDescent="0.2">
@@ -4933,43 +4933,43 @@
       </c>
       <c r="R26" s="2">
         <f>R25*0.19</f>
-        <v>8073.5752133461328</v>
+        <v>8259.884037138132</v>
       </c>
       <c r="S26" s="2">
         <f t="shared" ref="S26:V26" si="83">S25*0.19</f>
-        <v>8824.0337729033818</v>
+        <v>9229.4790352395303</v>
       </c>
       <c r="T26" s="2">
         <f t="shared" si="83"/>
-        <v>9632.3682231225284</v>
+        <v>10293.905106413151</v>
       </c>
       <c r="U26" s="2">
         <f t="shared" si="83"/>
-        <v>10502.810117656898</v>
+        <v>11461.97576092003</v>
       </c>
       <c r="V26" s="2">
         <f t="shared" si="83"/>
-        <v>11439.893885700096</v>
+        <v>12743.308484898711</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" ref="W26" si="84">W25*0.19</f>
-        <v>12448.478291150786</v>
+        <v>14148.397522297157</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" ref="X26" si="85">X25*0.19</f>
-        <v>13533.769404091561</v>
+        <v>15688.693224040697</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" ref="Y26" si="86">Y25*0.19</f>
-        <v>14701.345190848546</v>
+        <v>17376.688556160021</v>
       </c>
       <c r="Z26" s="2">
         <f t="shared" ref="Z26" si="87">Z25*0.19</f>
-        <v>15957.181836353138</v>
+        <v>19226.013411885426</v>
       </c>
       <c r="AA26" s="2">
         <f t="shared" ref="AA26" si="88">AA25*0.19</f>
-        <v>17307.681920504532</v>
+        <v>21251.537430791872</v>
       </c>
     </row>
     <row r="27" spans="1:120" x14ac:dyDescent="0.2">
@@ -5034,415 +5034,415 @@
       </c>
       <c r="R27" s="2">
         <f t="shared" ref="R27" si="96">R25-R26</f>
-        <v>34418.925909528247</v>
+        <v>35213.189842536252</v>
       </c>
       <c r="S27" s="2">
         <f t="shared" ref="S27" si="97">S25-S26</f>
-        <v>37618.249242377569</v>
+        <v>39346.726413389581</v>
       </c>
       <c r="T27" s="2">
         <f t="shared" ref="T27" si="98">T25-T26</f>
-        <v>41064.306635417088</v>
+        <v>43884.542822077121</v>
       </c>
       <c r="U27" s="2">
         <f t="shared" ref="U27:V27" si="99">U25-U26</f>
-        <v>44775.137870010985</v>
+        <v>48864.212454448549</v>
       </c>
       <c r="V27" s="2">
         <f t="shared" si="99"/>
-        <v>48770.073933774089</v>
+        <v>54326.736172462923</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" ref="W27" si="100">W25-W26</f>
-        <v>53069.828504379671</v>
+        <v>60316.852595056298</v>
       </c>
       <c r="X27" s="2">
         <f t="shared" ref="X27" si="101">X25-X26</f>
-        <v>57696.595880600864</v>
+        <v>66883.376376173488</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" ref="Y27" si="102">Y25-Y26</f>
-        <v>62674.155813617486</v>
+        <v>74079.567002576936</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" ref="Z27" si="103">Z25-Z26</f>
-        <v>68027.985723400227</v>
+        <v>81963.530861195759</v>
       </c>
       <c r="AA27" s="2">
         <f t="shared" ref="AA27" si="104">AA25-AA26</f>
-        <v>73785.380818993013</v>
+        <v>90598.659573375873</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" ref="AB27:BG27" si="105">AA27*(1+$AD$30)</f>
-        <v>73047.527010803082</v>
+        <v>89692.672977642113</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="105"/>
-        <v>72317.051740695053</v>
+        <v>88795.746247865696</v>
       </c>
       <c r="AD27" s="2">
         <f t="shared" si="105"/>
-        <v>71593.881223288103</v>
+        <v>87907.788785387034</v>
       </c>
       <c r="AE27" s="2">
         <f t="shared" si="105"/>
-        <v>70877.942411055221</v>
+        <v>87028.710897533165</v>
       </c>
       <c r="AF27" s="2">
         <f t="shared" si="105"/>
-        <v>70169.162986944662</v>
+        <v>86158.423788557833</v>
       </c>
       <c r="AG27" s="2">
         <f t="shared" si="105"/>
-        <v>69467.471357075221</v>
+        <v>85296.839550672259</v>
       </c>
       <c r="AH27" s="2">
         <f t="shared" si="105"/>
-        <v>68772.796643504465</v>
+        <v>84443.871155165529</v>
       </c>
       <c r="AI27" s="2">
         <f t="shared" si="105"/>
-        <v>68085.068677069416</v>
+        <v>83599.43244361387</v>
       </c>
       <c r="AJ27" s="2">
         <f t="shared" si="105"/>
-        <v>67404.217990298726</v>
+        <v>82763.438119177736</v>
       </c>
       <c r="AK27" s="2">
         <f t="shared" si="105"/>
-        <v>66730.17581039574</v>
+        <v>81935.80373798596</v>
       </c>
       <c r="AL27" s="2">
         <f t="shared" si="105"/>
-        <v>66062.87405229178</v>
+        <v>81116.445700606098</v>
       </c>
       <c r="AM27" s="2">
         <f t="shared" si="105"/>
-        <v>65402.245311768864</v>
+        <v>80305.281243600039</v>
       </c>
       <c r="AN27" s="2">
         <f t="shared" si="105"/>
-        <v>64748.222858651177</v>
+        <v>79502.22843116404</v>
       </c>
       <c r="AO27" s="2">
         <f t="shared" si="105"/>
-        <v>64100.740630064662</v>
+        <v>78707.206146852404</v>
       </c>
       <c r="AP27" s="2">
         <f t="shared" si="105"/>
-        <v>63459.733223764015</v>
+        <v>77920.134085383877</v>
       </c>
       <c r="AQ27" s="2">
         <f t="shared" si="105"/>
-        <v>62825.135891526377</v>
+        <v>77140.932744530044</v>
       </c>
       <c r="AR27" s="2">
         <f t="shared" si="105"/>
-        <v>62196.884532611111</v>
+        <v>76369.52341708474</v>
       </c>
       <c r="AS27" s="2">
         <f t="shared" si="105"/>
-        <v>61574.915687285</v>
+        <v>75605.828182913887</v>
       </c>
       <c r="AT27" s="2">
         <f t="shared" si="105"/>
-        <v>60959.166530412149</v>
+        <v>74849.769901084743</v>
       </c>
       <c r="AU27" s="2">
         <f t="shared" si="105"/>
-        <v>60349.574865108028</v>
+        <v>74101.272202073887</v>
       </c>
       <c r="AV27" s="2">
         <f t="shared" si="105"/>
-        <v>59746.079116456945</v>
+        <v>73360.259480053151</v>
       </c>
       <c r="AW27" s="2">
         <f t="shared" si="105"/>
-        <v>59148.618325292373</v>
+        <v>72626.656885252625</v>
       </c>
       <c r="AX27" s="2">
         <f t="shared" si="105"/>
-        <v>58557.132142039445</v>
+        <v>71900.390316400095</v>
       </c>
       <c r="AY27" s="2">
         <f t="shared" si="105"/>
-        <v>57971.560820619052</v>
+        <v>71181.38641323609</v>
       </c>
       <c r="AZ27" s="2">
         <f t="shared" si="105"/>
-        <v>57391.84521241286</v>
+        <v>70469.57254910373</v>
       </c>
       <c r="BA27" s="2">
         <f t="shared" si="105"/>
-        <v>56817.926760288734</v>
+        <v>69764.876823612693</v>
       </c>
       <c r="BB27" s="2">
         <f t="shared" si="105"/>
-        <v>56249.747492685849</v>
+        <v>69067.228055376559</v>
       </c>
       <c r="BC27" s="2">
         <f t="shared" si="105"/>
-        <v>55687.25001775899</v>
+        <v>68376.555774822787</v>
       </c>
       <c r="BD27" s="2">
         <f t="shared" si="105"/>
-        <v>55130.377517581401</v>
+        <v>67692.790217074566</v>
       </c>
       <c r="BE27" s="2">
         <f t="shared" si="105"/>
-        <v>54579.073742405584</v>
+        <v>67015.862314903818</v>
       </c>
       <c r="BF27" s="2">
         <f t="shared" si="105"/>
-        <v>54033.283004981531</v>
+        <v>66345.703691754781</v>
       </c>
       <c r="BG27" s="2">
         <f t="shared" si="105"/>
-        <v>53492.950174931713</v>
+        <v>65682.246654837232</v>
       </c>
       <c r="BH27" s="2">
         <f t="shared" ref="BH27:CM27" si="106">BG27*(1+$AD$30)</f>
-        <v>52958.020673182393</v>
+        <v>65025.42418828886</v>
       </c>
       <c r="BI27" s="2">
         <f t="shared" si="106"/>
-        <v>52428.440466450571</v>
+        <v>64375.169946405971</v>
       </c>
       <c r="BJ27" s="2">
         <f t="shared" si="106"/>
-        <v>51904.156061786067</v>
+        <v>63731.41824694191</v>
       </c>
       <c r="BK27" s="2">
         <f t="shared" si="106"/>
-        <v>51385.114501168209</v>
+        <v>63094.104064472493</v>
       </c>
       <c r="BL27" s="2">
         <f t="shared" si="106"/>
-        <v>50871.263356156524</v>
+        <v>62463.163023827765</v>
       </c>
       <c r="BM27" s="2">
         <f t="shared" si="106"/>
-        <v>50362.550722594955</v>
+        <v>61838.531393589488</v>
       </c>
       <c r="BN27" s="2">
         <f t="shared" si="106"/>
-        <v>49858.925215369003</v>
+        <v>61220.14607965359</v>
       </c>
       <c r="BO27" s="2">
         <f t="shared" si="106"/>
-        <v>49360.335963215315</v>
+        <v>60607.944618857051</v>
       </c>
       <c r="BP27" s="2">
         <f t="shared" si="106"/>
-        <v>48866.732603583165</v>
+        <v>60001.865172668477</v>
       </c>
       <c r="BQ27" s="2">
         <f t="shared" si="106"/>
-        <v>48378.065277547335</v>
+        <v>59401.846520941792</v>
       </c>
       <c r="BR27" s="2">
         <f t="shared" si="106"/>
-        <v>47894.284624771863</v>
+        <v>58807.828055732374</v>
       </c>
       <c r="BS27" s="2">
         <f t="shared" si="106"/>
-        <v>47415.34177852414</v>
+        <v>58219.749775175049</v>
       </c>
       <c r="BT27" s="2">
         <f t="shared" si="106"/>
-        <v>46941.188360738895</v>
+        <v>57637.552277423296</v>
       </c>
       <c r="BU27" s="2">
         <f t="shared" si="106"/>
-        <v>46471.776477131505</v>
+        <v>57061.176754649059</v>
       </c>
       <c r="BV27" s="2">
         <f t="shared" si="106"/>
-        <v>46007.058712360187</v>
+        <v>56490.564987102567</v>
       </c>
       <c r="BW27" s="2">
         <f t="shared" si="106"/>
-        <v>45546.988125236589</v>
+        <v>55925.65933723154</v>
       </c>
       <c r="BX27" s="2">
         <f t="shared" si="106"/>
-        <v>45091.518243984225</v>
+        <v>55366.402743859224</v>
       </c>
       <c r="BY27" s="2">
         <f t="shared" si="106"/>
-        <v>44640.603061544381</v>
+        <v>54812.73871642063</v>
       </c>
       <c r="BZ27" s="2">
         <f t="shared" si="106"/>
-        <v>44194.197030928939</v>
+        <v>54264.611329256426</v>
       </c>
       <c r="CA27" s="2">
         <f t="shared" si="106"/>
-        <v>43752.255060619653</v>
+        <v>53721.965215963864</v>
       </c>
       <c r="CB27" s="2">
         <f t="shared" si="106"/>
-        <v>43314.732510013455</v>
+        <v>53184.745563804223</v>
       </c>
       <c r="CC27" s="2">
         <f t="shared" si="106"/>
-        <v>42881.585184913318</v>
+        <v>52652.898108166177</v>
       </c>
       <c r="CD27" s="2">
         <f t="shared" si="106"/>
-        <v>42452.769333064185</v>
+        <v>52126.369127084516</v>
       </c>
       <c r="CE27" s="2">
         <f t="shared" si="106"/>
-        <v>42028.24163973354</v>
+        <v>51605.105435813668</v>
       </c>
       <c r="CF27" s="2">
         <f t="shared" si="106"/>
-        <v>41607.959223336205</v>
+        <v>51089.054381455528</v>
       </c>
       <c r="CG27" s="2">
         <f t="shared" si="106"/>
-        <v>41191.879631102842</v>
+        <v>50578.163837640968</v>
       </c>
       <c r="CH27" s="2">
         <f t="shared" si="106"/>
-        <v>40779.960834791811</v>
+        <v>50072.382199264561</v>
       </c>
       <c r="CI27" s="2">
         <f t="shared" si="106"/>
-        <v>40372.161226443895</v>
+        <v>49571.658377271917</v>
       </c>
       <c r="CJ27" s="2">
         <f t="shared" si="106"/>
-        <v>39968.439614179457</v>
+        <v>49075.941793499194</v>
       </c>
       <c r="CK27" s="2">
         <f t="shared" si="106"/>
-        <v>39568.755218037659</v>
+        <v>48585.182375564204</v>
       </c>
       <c r="CL27" s="2">
         <f t="shared" si="106"/>
-        <v>39173.067665857285</v>
+        <v>48099.330551808562</v>
       </c>
       <c r="CM27" s="2">
         <f t="shared" si="106"/>
-        <v>38781.336989198709</v>
+        <v>47618.337246290474</v>
       </c>
       <c r="CN27" s="2">
         <f t="shared" ref="CN27:DP27" si="107">CM27*(1+$AD$30)</f>
-        <v>38393.523619306725</v>
+        <v>47142.15387382757</v>
       </c>
       <c r="CO27" s="2">
         <f t="shared" si="107"/>
-        <v>38009.58838311366</v>
+        <v>46670.732335089291</v>
       </c>
       <c r="CP27" s="2">
         <f t="shared" si="107"/>
-        <v>37629.492499282525</v>
+        <v>46204.025011738398</v>
       </c>
       <c r="CQ27" s="2">
         <f t="shared" si="107"/>
-        <v>37253.197574289698</v>
+        <v>45741.984761621017</v>
       </c>
       <c r="CR27" s="2">
         <f t="shared" si="107"/>
-        <v>36880.665598546802</v>
+        <v>45284.564914004804</v>
       </c>
       <c r="CS27" s="2">
         <f t="shared" si="107"/>
-        <v>36511.858942561332</v>
+        <v>44831.719264864754</v>
       </c>
       <c r="CT27" s="2">
         <f t="shared" si="107"/>
-        <v>36146.740353135719</v>
+        <v>44383.402072216108</v>
       </c>
       <c r="CU27" s="2">
         <f t="shared" si="107"/>
-        <v>35785.272949604361</v>
+        <v>43939.568051493945</v>
       </c>
       <c r="CV27" s="2">
         <f t="shared" si="107"/>
-        <v>35427.420220108317</v>
+        <v>43500.172370979002</v>
       </c>
       <c r="CW27" s="2">
         <f t="shared" si="107"/>
-        <v>35073.146017907231</v>
+        <v>43065.170647269209</v>
       </c>
       <c r="CX27" s="2">
         <f t="shared" si="107"/>
-        <v>34722.41455772816</v>
+        <v>42634.518940796515</v>
       </c>
       <c r="CY27" s="2">
         <f t="shared" si="107"/>
-        <v>34375.190412150878</v>
+        <v>42208.173751388553</v>
       </c>
       <c r="CZ27" s="2">
         <f t="shared" si="107"/>
-        <v>34031.438508029372</v>
+        <v>41786.092013874666</v>
       </c>
       <c r="DA27" s="2">
         <f t="shared" si="107"/>
-        <v>33691.124122949077</v>
+        <v>41368.231093735922</v>
       </c>
       <c r="DB27" s="2">
         <f t="shared" si="107"/>
-        <v>33354.212881719584</v>
+        <v>40954.548782798563</v>
       </c>
       <c r="DC27" s="2">
         <f t="shared" si="107"/>
-        <v>33020.670752902392</v>
+        <v>40545.003294970578</v>
       </c>
       <c r="DD27" s="2">
         <f t="shared" si="107"/>
-        <v>32690.464045373366</v>
+        <v>40139.553262020869</v>
       </c>
       <c r="DE27" s="2">
         <f t="shared" si="107"/>
-        <v>32363.559404919633</v>
+        <v>39738.157729400657</v>
       </c>
       <c r="DF27" s="2">
         <f t="shared" si="107"/>
-        <v>32039.923810870438</v>
+        <v>39340.77615210665</v>
       </c>
       <c r="DG27" s="2">
         <f t="shared" si="107"/>
-        <v>31719.524572761733</v>
+        <v>38947.36839058558</v>
       </c>
       <c r="DH27" s="2">
         <f t="shared" si="107"/>
-        <v>31402.329327034116</v>
+        <v>38557.894706679726</v>
       </c>
       <c r="DI27" s="2">
         <f t="shared" si="107"/>
-        <v>31088.306033763776</v>
+        <v>38172.315759612931</v>
       </c>
       <c r="DJ27" s="2">
         <f t="shared" si="107"/>
-        <v>30777.422973426139</v>
+        <v>37790.592602016804</v>
       </c>
       <c r="DK27" s="2">
         <f t="shared" si="107"/>
-        <v>30469.648743691876</v>
+        <v>37412.686675996636</v>
       </c>
       <c r="DL27" s="2">
         <f t="shared" si="107"/>
-        <v>30164.952256254957</v>
+        <v>37038.559809236671</v>
       </c>
       <c r="DM27" s="2">
         <f t="shared" si="107"/>
-        <v>29863.302733692406</v>
+        <v>36668.174211144302</v>
       </c>
       <c r="DN27" s="2">
         <f t="shared" si="107"/>
-        <v>29564.669706355482</v>
+        <v>36301.492469032855</v>
       </c>
       <c r="DO27" s="2">
         <f t="shared" si="107"/>
-        <v>29269.023009291926</v>
+        <v>35938.477544342524</v>
       </c>
       <c r="DP27" s="2">
         <f t="shared" si="107"/>
-        <v>28976.332779199009</v>
+        <v>35579.0927688991</v>
       </c>
     </row>
     <row r="28" spans="1:120" x14ac:dyDescent="0.2">
@@ -5574,43 +5574,43 @@
       </c>
       <c r="R29" s="1">
         <f t="shared" ref="R29" si="118">R27/R28</f>
-        <v>38.285790778118184</v>
+        <v>39.169287922732202</v>
       </c>
       <c r="S29" s="1">
         <f t="shared" ref="S29" si="119">S27/S28</f>
-        <v>41.844548656704752</v>
+        <v>43.767215142813768</v>
       </c>
       <c r="T29" s="1">
         <f t="shared" ref="T29" si="120">T27/T28</f>
-        <v>45.67776043984103</v>
+        <v>48.814841848806587</v>
       </c>
       <c r="U29" s="1">
         <f t="shared" ref="U29:V29" si="121">U27/U28</f>
-        <v>49.80549262515126</v>
+        <v>54.353962685704722</v>
       </c>
       <c r="V29" s="1">
         <f t="shared" si="121"/>
-        <v>54.249247979726462</v>
+        <v>60.430184841449304</v>
       </c>
       <c r="W29" s="1">
         <f t="shared" ref="W29" si="122">W27/W28</f>
-        <v>59.032067301868381</v>
+        <v>67.093273186936926</v>
       </c>
       <c r="X29" s="1">
         <f t="shared" ref="X29" si="123">X27/X28</f>
-        <v>64.178638354394735</v>
+        <v>74.397526558591196</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" ref="Y29" si="124">Y27/Y28</f>
-        <v>69.715412473434355</v>
+        <v>82.402187989518282</v>
       </c>
       <c r="Z29" s="1">
         <f t="shared" ref="Z29" si="125">Z27/Z28</f>
-        <v>75.670729391991358</v>
+        <v>91.171891947937439</v>
       </c>
       <c r="AA29" s="1">
         <f t="shared" ref="AA29" si="126">AA27/AA28</f>
-        <v>82.074950855387115</v>
+        <v>100.77715191699207</v>
       </c>
       <c r="AC29" s="2" t="s">
         <v>119</v>
@@ -5670,43 +5670,43 @@
       </c>
       <c r="R31" s="9">
         <f t="shared" si="128"/>
-        <v>7.0000000000000062E-2</v>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="S31" s="9">
         <f t="shared" si="128"/>
-        <v>7.0000000000000062E-2</v>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="T31" s="9">
         <f t="shared" si="128"/>
-        <v>7.0000000000000062E-2</v>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="U31" s="9">
         <f t="shared" si="128"/>
-        <v>7.0000000000000062E-2</v>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="V31" s="9">
         <f t="shared" si="128"/>
-        <v>7.0000000000000062E-2</v>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="W31" s="9">
         <f t="shared" ref="W31:AA31" si="129">W17/V17-1</f>
-        <v>7.0000000000000062E-2</v>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="X31" s="9">
         <f t="shared" si="129"/>
-        <v>7.0000000000000062E-2</v>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="Y31" s="9">
         <f t="shared" si="129"/>
-        <v>7.0000000000000062E-2</v>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="Z31" s="9">
         <f t="shared" si="129"/>
-        <v>7.0000000000000062E-2</v>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="AA31" s="9">
         <f t="shared" si="129"/>
-        <v>7.0000000000000062E-2</v>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="AC31" s="2" t="s">
         <v>121</v>
@@ -5777,11 +5777,11 @@
       </c>
       <c r="R32" s="10">
         <f t="shared" ref="R32:V32" si="132">R19/R17</f>
-        <v>0.83000000000000007</v>
+        <v>0.83</v>
       </c>
       <c r="S32" s="10">
         <f t="shared" si="132"/>
-        <v>0.83000000000000007</v>
+        <v>0.83</v>
       </c>
       <c r="T32" s="10">
         <f t="shared" si="132"/>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="W32" s="10">
         <f t="shared" ref="W32:AA32" si="133">W19/W17</f>
-        <v>0.82999999999999985</v>
+        <v>0.83000000000000007</v>
       </c>
       <c r="X32" s="10">
         <f t="shared" si="133"/>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="Y32" s="10">
         <f t="shared" si="133"/>
-        <v>0.83000000000000007</v>
+        <v>0.83</v>
       </c>
       <c r="Z32" s="10">
         <f t="shared" si="133"/>
@@ -5813,14 +5813,14 @@
       </c>
       <c r="AA32" s="10">
         <f t="shared" si="133"/>
-        <v>0.83000000000000007</v>
+        <v>0.83</v>
       </c>
       <c r="AC32" s="2" t="s">
         <v>122</v>
       </c>
       <c r="AD32" s="2">
         <f>NPV(AD31,Q27:XFD27)+Main!K6-Main!K7</f>
-        <v>746543.52415987698</v>
+        <v>887331.52989786386</v>
       </c>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.2">
@@ -5894,13 +5894,13 @@
       </c>
       <c r="AD33" s="1">
         <f>AD32/Main!K4</f>
-        <v>787.71336308132231</v>
+        <v>936.26544329149374</v>
       </c>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="AD34" s="10">
         <f>AD33/Main!K3-1</f>
-        <v>-2.8713485719701226E-2</v>
+        <v>0.36681086611896907</v>
       </c>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.2">
@@ -5965,43 +5965,43 @@
       </c>
       <c r="R35" s="2">
         <f>Q35+R27</f>
-        <v>49563.857613246531</v>
+        <v>50358.121546254537</v>
       </c>
       <c r="S35" s="2">
         <f t="shared" ref="S35:V35" si="138">R35+S27</f>
-        <v>87182.106855624093</v>
+        <v>89704.847959644118</v>
       </c>
       <c r="T35" s="2">
         <f t="shared" si="138"/>
-        <v>128246.41349104118</v>
+        <v>133589.39078172125</v>
       </c>
       <c r="U35" s="2">
         <f t="shared" si="138"/>
-        <v>173021.55136105217</v>
+        <v>182453.60323616979</v>
       </c>
       <c r="V35" s="2">
         <f t="shared" si="138"/>
-        <v>221791.62529482626</v>
+        <v>236780.33940863272</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" ref="W35:AA35" si="139">V35+W27</f>
-        <v>274861.45379920595</v>
+        <v>297097.19200368901</v>
       </c>
       <c r="X35" s="2">
         <f t="shared" si="139"/>
-        <v>332558.04967980681</v>
+        <v>363980.56837986247</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="139"/>
-        <v>395232.20549342432</v>
+        <v>438060.13538243942</v>
       </c>
       <c r="Z35" s="2">
         <f t="shared" si="139"/>
-        <v>463260.19121682458</v>
+        <v>520023.66624363518</v>
       </c>
       <c r="AA35" s="2">
         <f t="shared" si="139"/>
-        <v>537045.57203581755</v>
+        <v>610622.32581701106</v>
       </c>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.2">
@@ -6519,7 +6519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D92F221-2168-4E03-8F61-52C2DF201221}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -6786,7 +6786,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7BA687-4EAA-46A7-9007-B3CBB6E9C20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BF6A43-0D93-4968-8275-762C1149FBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{0B35871E-4663-488C-B05C-A1B5B9C863D7}"/>
+    <workbookView xWindow="3570" yWindow="465" windowWidth="21750" windowHeight="15015" activeTab="2" xr2:uid="{0B35871E-4663-488C-B05C-A1B5B9C863D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,12 @@
     <author>tc={870D49C2-D2BC-4507-9362-BAC854248C6B}</author>
   </authors>
   <commentList>
-    <comment ref="Q17" authorId="0" shapeId="0" xr:uid="{870D49C2-D2BC-4507-9362-BAC854248C6B}">
+    <comment ref="W20" authorId="0" shapeId="0" xr:uid="{870D49C2-D2BC-4507-9362-BAC854248C6B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    2025 guidance 58-61B as per Q125 presentation</t>
+    61b guidance</t>
       </text>
     </comment>
   </commentList>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="364">
   <si>
     <t>Price</t>
   </si>
@@ -236,9 +236,6 @@
     <t>Net Cash</t>
   </si>
   <si>
-    <t>AR</t>
-  </si>
-  <si>
     <t>Inventories</t>
   </si>
   <si>
@@ -353,9 +350,6 @@
     <t>CIC</t>
   </si>
   <si>
-    <t>Royalties</t>
-  </si>
-  <si>
     <t>Mounjaro</t>
   </si>
   <si>
@@ -368,39 +362,12 @@
     <t>Jardiance</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Rest of World</t>
-  </si>
-  <si>
-    <t>Other Cardiometabolic Health</t>
-  </si>
-  <si>
     <t>Verzenio</t>
   </si>
   <si>
-    <t>Other Oncology</t>
-  </si>
-  <si>
     <t>Taltz</t>
   </si>
   <si>
-    <t>Other Immunology</t>
-  </si>
-  <si>
-    <t>Neuroscience</t>
-  </si>
-  <si>
     <t>Pricing power of GLP-1s?</t>
   </si>
   <si>
@@ -1115,9 +1082,6 @@
     <t>60% slowing in progressing as per management confrence call</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Treated est.</t>
   </si>
   <si>
@@ -1125,6 +1089,78 @@
   </si>
   <si>
     <t>~treating 100m people (~70% of TAM) in total maybe people take GLP-1 multiple times or other people enter the TAM. Very dynamic population</t>
+  </si>
+  <si>
+    <t>A/R</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Humalog</t>
+  </si>
+  <si>
+    <t>Cyramza</t>
+  </si>
+  <si>
+    <t>Olumiant</t>
+  </si>
+  <si>
+    <t>Humulin</t>
+  </si>
+  <si>
+    <t>Emgality</t>
+  </si>
+  <si>
+    <t>Basaglar</t>
+  </si>
+  <si>
+    <t>Erbitux</t>
+  </si>
+  <si>
+    <t>Tyvyt</t>
+  </si>
+  <si>
+    <t>Zyprexa</t>
+  </si>
+  <si>
+    <t>Baqsimi</t>
+  </si>
+  <si>
+    <t>Other Products</t>
+  </si>
+  <si>
+    <t>US Rev</t>
+  </si>
+  <si>
+    <t>Europe Rev</t>
+  </si>
+  <si>
+    <t>China Rev</t>
+  </si>
+  <si>
+    <t>Japan Rev</t>
+  </si>
+  <si>
+    <t>International Rev</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Relevance</t>
+  </si>
+  <si>
+    <t>Topic</t>
   </si>
 </sst>
 </file>
@@ -1340,16 +1376,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>65942</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>131885</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7328</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1363,9 +1399,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4586654" y="65942"/>
-          <a:ext cx="0" cy="8447943"/>
+        <a:xfrm flipH="1">
+          <a:off x="7627327" y="0"/>
+          <a:ext cx="7328" cy="18068192"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1390,16 +1426,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>600807</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>36635</xdr:rowOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1413,9 +1449,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10059866" y="0"/>
-          <a:ext cx="0" cy="7935058"/>
+        <a:xfrm flipH="1">
+          <a:off x="13767288" y="0"/>
+          <a:ext cx="7328" cy="17020442"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1436,50 +1472,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>65941</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>4475</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495579</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>117230</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FCF56D-E764-3630-B001-26D10E786FE6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1611922" y="14995360"/>
-          <a:ext cx="4752522" cy="1402294"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1857,8 +1849,8 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Q17" dT="2025-07-27T04:33:05.47" personId="{98EFBBC1-5F71-4714-B1FB-1E2DFC825096}" id="{870D49C2-D2BC-4507-9362-BAC854248C6B}">
-    <text>2025 guidance 58-61B as per Q125 presentation</text>
+  <threadedComment ref="W20" dT="2025-07-27T04:33:05.47" personId="{98EFBBC1-5F71-4714-B1FB-1E2DFC825096}" id="{870D49C2-D2BC-4507-9362-BAC854248C6B}">
+    <text>61b guidance</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1868,7 +1860,7 @@
   <dimension ref="B2:L96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1905,13 +1897,16 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D3" s="27">
         <v>44694</v>
+      </c>
+      <c r="F3">
+        <v>2036</v>
       </c>
       <c r="G3" s="12"/>
       <c r="J3" t="s">
@@ -1923,26 +1918,28 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D4" s="27">
         <v>45238</v>
+      </c>
+      <c r="F4">
+        <v>2036</v>
       </c>
       <c r="G4" s="12"/>
       <c r="J4" t="s">
         <v>1</v>
       </c>
       <c r="K4" s="2">
-        <f>947.735</f>
-        <v>947.73500000000001</v>
+        <v>898</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D5" s="27">
         <v>43370</v>
@@ -1953,15 +1950,15 @@
       </c>
       <c r="K5" s="2">
         <f>K4*K3</f>
-        <v>649198.47499999998</v>
+        <v>615130</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D6" s="27">
         <v>44953</v>
@@ -1971,19 +1968,18 @@
         <v>3</v>
       </c>
       <c r="K6" s="2">
-        <f>3093+127</f>
-        <v>3220</v>
+        <v>3546</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D7" s="27">
         <v>43959</v>
@@ -1993,16 +1989,15 @@
         <v>4</v>
       </c>
       <c r="K7" s="2">
-        <f>4016+34499</f>
-        <v>38515</v>
+        <v>46862</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D8" s="27">
         <v>43251</v>
@@ -2013,129 +2008,135 @@
       </c>
       <c r="K8" s="2">
         <f>K5+K7-K6</f>
-        <v>684493.47499999998</v>
+        <v>658446</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="23" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D9" s="27">
         <v>45225</v>
       </c>
+      <c r="F9">
+        <v>2037</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D10" s="27">
         <v>43749</v>
       </c>
       <c r="G10" s="12"/>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D11" s="27">
         <v>43997</v>
       </c>
       <c r="G11" s="12"/>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D12" s="27">
         <v>45475</v>
       </c>
+      <c r="F12">
+        <v>2036</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D13" s="27">
         <v>45548</v>
       </c>
       <c r="G13" s="12"/>
       <c r="J13" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D14" s="27">
         <v>39955</v>
       </c>
       <c r="G14" s="12"/>
       <c r="J14" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D15" s="27">
         <v>38021</v>
       </c>
       <c r="G15" s="12"/>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D16" s="27">
         <v>41005</v>
       </c>
       <c r="G16" s="12"/>
       <c r="J16" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D17" s="27">
         <v>43670</v>
       </c>
       <c r="G17" s="12"/>
       <c r="J17" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D18" s="27">
         <v>42354</v>
@@ -2145,33 +2146,33 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D19" s="27">
         <v>41750</v>
       </c>
       <c r="G19" s="12"/>
       <c r="J19" s="25" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D20" s="27">
         <v>38029</v>
       </c>
       <c r="G20" s="12"/>
       <c r="J20" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D21" s="27">
         <v>37586</v>
@@ -2181,7 +2182,7 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D22" s="27">
         <v>42034</v>
@@ -2191,20 +2192,20 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D23" s="27">
         <v>35230</v>
       </c>
       <c r="G23" s="12"/>
       <c r="J23" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D24" s="27">
         <v>31701</v>
@@ -2214,7 +2215,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D25" s="27">
         <v>32623</v>
@@ -2224,49 +2225,49 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D26" s="27">
         <v>41852</v>
       </c>
       <c r="G26" s="12"/>
       <c r="J26" s="25" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D27" s="27">
         <v>40938</v>
       </c>
       <c r="G27" s="12"/>
       <c r="J27" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D28" s="27">
         <v>42242</v>
       </c>
       <c r="G28" s="12"/>
       <c r="J28" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C29" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D29" s="27">
         <v>42451</v>
@@ -2276,20 +2277,20 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D30" s="27">
         <v>43979</v>
       </c>
       <c r="G30" s="12"/>
       <c r="J30" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D31" s="27">
         <v>40665</v>
@@ -2299,36 +2300,39 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="23" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D32" s="27">
         <v>45553</v>
       </c>
+      <c r="F32">
+        <v>2027</v>
+      </c>
       <c r="G32" s="12"/>
       <c r="J32" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C33" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D33" s="27">
         <v>43006</v>
       </c>
       <c r="G33" s="12"/>
       <c r="J33" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="28">
@@ -2351,628 +2355,628 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G36" s="12"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="23" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G37" s="12"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G38" s="12"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="23" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G39" s="12"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="23" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G40" s="12"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="23" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G41" s="12"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="23" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G42" s="12"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G43" s="12"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="23" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G44" s="12"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G45" s="12"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G46" s="12"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E47" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G47" s="12"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G48" s="12"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G49" s="12"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G50" s="12"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G51" s="12"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G52" s="12"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G53" s="12"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G54" s="12"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" t="s">
+        <v>300</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="C55" t="s">
-        <v>311</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="G55" s="12"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G56" s="12"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G57" s="12"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G58" s="12"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="11" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G59" s="12"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="11" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="G60" s="12"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G61" s="12"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="11" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G62" s="12"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="11" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G63" s="12"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="11" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G64" s="12"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="11" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G65" s="12"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="11" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C66" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G66" s="12"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C67" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G67" s="12"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="11" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G68" s="12"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="11" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G69" s="12"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="11" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G70" s="12"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="11" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G71" s="12"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="11" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C72" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G72" s="12"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="11" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G73" s="12"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="11" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G74" s="12"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="11" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G75" s="12"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="11" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G76" s="12"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="11" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C77" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G77" s="12"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="11" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C78" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G78" s="12"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="11" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C79" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G79" s="12"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C80" t="s">
-        <v>218</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="G80" s="12"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="11" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G81" s="12"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G82" s="12"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="11" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C83" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G83" s="12"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="11" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C84" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G84" s="12"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="11" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G85" s="12"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="11" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C86" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G86" s="12"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="11" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G87" s="12"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="11" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G88" s="12"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="11" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C89" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G89" s="12"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="13" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
@@ -3042,7 +3046,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3050,7 +3054,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3058,25 +3062,25 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3086,27 +3090,27 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="25" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="25" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3145,7 +3149,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3153,7 +3157,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3163,17 +3167,17 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3183,17 +3187,17 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="25" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3209,7 +3213,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:B10"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3233,7 +3237,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3241,7 +3245,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3251,17 +3255,17 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3271,17 +3275,17 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="25" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3291,12 +3295,12 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="25" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
@@ -3316,7 +3320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78456EB6-E7FB-48AF-BF3C-2B541E9E55CA}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -3337,7 +3341,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3345,7 +3349,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3360,17 +3364,17 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3380,17 +3384,17 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="25" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3400,12 +3404,12 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="25" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3415,12 +3419,12 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="25" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
@@ -3430,12 +3434,12 @@
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="25" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
@@ -3445,12 +3449,12 @@
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="25" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
@@ -3460,12 +3464,12 @@
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="25" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
@@ -3475,12 +3479,12 @@
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="25" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
@@ -3490,12 +3494,12 @@
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" s="25" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
@@ -3516,7 +3520,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:B10"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3540,7 +3544,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3548,7 +3552,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3558,17 +3562,17 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3578,17 +3582,17 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="25" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3627,7 +3631,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3635,7 +3639,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3643,7 +3647,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3653,17 +3657,17 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3673,17 +3677,17 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="25" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3693,12 +3697,12 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="25" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
@@ -3708,12 +3712,12 @@
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="25" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
@@ -3723,12 +3727,12 @@
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="25" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
@@ -3767,7 +3771,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3775,7 +3779,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3783,7 +3787,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3793,17 +3797,17 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3813,17 +3817,17 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="25" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3833,12 +3837,12 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="25" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
@@ -3848,12 +3852,12 @@
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="25" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
@@ -3871,2658 +3875,3467 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EBA39-FD53-497C-AEEB-0F0FD94197E7}">
-  <dimension ref="A1:DP94"/>
+  <dimension ref="A1:DV102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AB15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA17" sqref="AA17"/>
+      <selection pane="bottomRight" activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="6" width="9.140625" style="2" customWidth="1"/>
+    <col min="7" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="24">
+      <c r="L1" s="24">
         <v>45876</v>
       </c>
-      <c r="I1" s="24">
+      <c r="M1" s="24">
         <v>45960</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="8">
+      <c r="P2" s="8">
+        <v>2018</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>2019</v>
+      </c>
+      <c r="R2" s="8">
+        <f>Q2+1</f>
         <v>2020</v>
       </c>
-      <c r="M2" s="8">
-        <f>L2+1</f>
+      <c r="S2" s="8">
+        <f>R2+1</f>
         <v>2021</v>
       </c>
-      <c r="N2" s="8">
-        <f>M2+1</f>
+      <c r="T2" s="8">
+        <f>S2+1</f>
         <v>2022</v>
       </c>
-      <c r="O2" s="8">
-        <f t="shared" ref="O2:AA2" si="0">N2+1</f>
+      <c r="U2" s="8">
+        <f t="shared" ref="U2:AF2" si="0">T2+1</f>
         <v>2023</v>
       </c>
-      <c r="P2" s="8">
+      <c r="V2" s="8">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="W2" s="8">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="R2" s="8">
+      <c r="X2" s="8">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="S2" s="8">
+      <c r="Y2" s="8">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="T2" s="8">
+      <c r="Z2" s="8">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="U2" s="8">
+      <c r="AA2" s="8">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="V2" s="8">
+      <c r="AB2" s="8">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="W2" s="8">
+      <c r="AC2" s="8">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="X2" s="8">
+      <c r="AD2" s="8">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="AE2" s="8">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="AF2" s="8">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AA2" s="8">
-        <f t="shared" si="0"/>
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AG2" s="8"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2">
+        <v>568.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>980</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1409</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2206</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1807</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3091</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3123</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3530</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3842</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5199</v>
+      </c>
+      <c r="U3" s="2">
+        <v>5163</v>
+      </c>
+      <c r="V3" s="2">
+        <v>11540</v>
+      </c>
+      <c r="W3" s="10"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="2">
+        <v>751</v>
+      </c>
+      <c r="D4" s="2">
+        <v>927</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1040</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1145</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1050</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1332</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1369</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1555</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1159</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1489</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1350</v>
+      </c>
+      <c r="T4" s="2">
+        <v>2484</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3863.4</v>
+      </c>
+      <c r="V4" s="2">
+        <v>5307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C5" s="2">
+        <v>1977</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1813</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1674</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1669</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1456</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1246</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1301</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1250</v>
+      </c>
+      <c r="S5" s="2">
+        <v>6472</v>
+      </c>
+      <c r="T5" s="2">
+        <v>7440</v>
+      </c>
+      <c r="U5" s="2">
+        <v>7133</v>
+      </c>
+      <c r="V5" s="2">
+        <v>5254</v>
+      </c>
+      <c r="X5" s="10"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="2">
+        <v>176</v>
+      </c>
+      <c r="G6" s="2">
+        <v>517</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1243.2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1258</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1907</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2312</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3381.4</v>
+      </c>
+      <c r="U6" s="2">
+        <v>176</v>
+      </c>
+      <c r="V6" s="2">
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C7" s="2">
+        <v>577.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>668</v>
+      </c>
+      <c r="E7" s="2">
+        <v>701</v>
+      </c>
+      <c r="F7" s="2">
+        <v>798</v>
+      </c>
+      <c r="G7" s="2">
+        <v>686.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>770</v>
+      </c>
+      <c r="I7" s="2">
+        <v>686.4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1198</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1491</v>
+      </c>
+      <c r="T7" s="2">
+        <v>2066</v>
+      </c>
+      <c r="U7" s="2">
+        <v>2745</v>
+      </c>
+      <c r="V7" s="2">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C8" s="2">
+        <v>527</v>
+      </c>
+      <c r="D8" s="2">
+        <v>704</v>
+      </c>
+      <c r="E8" s="2">
+        <v>744.2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>784.6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>604</v>
+      </c>
+      <c r="H8" s="2">
+        <v>825</v>
+      </c>
+      <c r="I8" s="2">
+        <v>880</v>
+      </c>
+      <c r="J8" s="2">
+        <v>952</v>
+      </c>
+      <c r="S8" s="2">
+        <v>2213</v>
+      </c>
+      <c r="T8" s="2">
+        <v>2482</v>
+      </c>
+      <c r="U8" s="2">
+        <v>2760</v>
+      </c>
+      <c r="V8" s="2">
+        <v>3260.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="C9" s="2">
+        <v>461</v>
+      </c>
+      <c r="D9" s="2">
+        <v>440</v>
+      </c>
+      <c r="E9" s="2">
+        <v>395</v>
+      </c>
+      <c r="F9" s="2">
+        <v>367</v>
+      </c>
+      <c r="G9" s="2">
+        <v>539</v>
+      </c>
+      <c r="H9" s="2">
+        <v>632</v>
+      </c>
+      <c r="I9" s="2">
+        <v>535</v>
+      </c>
+      <c r="J9" s="2">
+        <v>620</v>
+      </c>
+      <c r="S9" s="2">
+        <v>2453</v>
+      </c>
+      <c r="T9" s="2">
+        <v>2024</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1663</v>
+      </c>
+      <c r="V9" s="2">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1033</v>
+      </c>
+      <c r="T10" s="2">
+        <v>971.4</v>
+      </c>
+      <c r="U10" s="2">
+        <v>975</v>
+      </c>
+      <c r="V10" s="2">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1115</v>
+      </c>
+      <c r="T11" s="2">
+        <v>830.5</v>
+      </c>
+      <c r="U11" s="2">
+        <v>923</v>
+      </c>
+      <c r="V11" s="2">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1223</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1019.4</v>
+      </c>
+      <c r="U12" s="2">
+        <v>852</v>
+      </c>
+      <c r="V12" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="S13" s="2">
+        <v>577</v>
+      </c>
+      <c r="T13" s="2">
+        <v>651</v>
+      </c>
+      <c r="U13" s="2">
+        <v>678</v>
+      </c>
+      <c r="V13" s="2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="S14" s="2">
+        <v>893</v>
+      </c>
+      <c r="T14" s="2">
+        <v>760</v>
+      </c>
+      <c r="U14" s="2">
+        <v>728</v>
+      </c>
+      <c r="V14" s="2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="U15" s="2">
+        <v>597</v>
+      </c>
+      <c r="V15" s="2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S16" s="2">
+        <v>418</v>
+      </c>
+      <c r="T16" s="2">
+        <v>293</v>
+      </c>
+      <c r="U16" s="2">
+        <v>393</v>
+      </c>
+      <c r="V16" s="2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1695</v>
+      </c>
+      <c r="V17" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="U18" s="2">
+        <v>678</v>
+      </c>
+      <c r="V18" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="U19" s="2">
+        <v>3103</v>
+      </c>
+      <c r="V19" s="2">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:126" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6960</v>
+      </c>
+      <c r="D20" s="7">
+        <v>8312</v>
+      </c>
+      <c r="E20" s="7">
+        <v>9499</v>
+      </c>
+      <c r="F20" s="7">
+        <v>9353.4</v>
+      </c>
+      <c r="G20" s="7">
+        <v>8768</v>
+      </c>
+      <c r="H20" s="7">
+        <v>11303</v>
+      </c>
+      <c r="I20" s="7">
+        <v>11439</v>
+      </c>
+      <c r="J20" s="7">
+        <v>13533</v>
+      </c>
+      <c r="K20" s="7">
+        <v>12728</v>
+      </c>
+      <c r="L20" s="7">
+        <v>15557</v>
+      </c>
+      <c r="M20" s="7">
+        <f>L20*1.04</f>
+        <v>16179.28</v>
+      </c>
+      <c r="N20" s="7">
+        <f>M20*1.04</f>
+        <v>16826.4512</v>
+      </c>
+      <c r="P20" s="7">
+        <v>21493</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>22320</v>
+      </c>
+      <c r="R20" s="7">
+        <v>24540</v>
+      </c>
+      <c r="S20" s="7">
+        <v>28318</v>
+      </c>
+      <c r="T20" s="7">
+        <v>28541</v>
+      </c>
+      <c r="U20" s="7">
+        <f>SUM(U3:U19)</f>
+        <v>34125.4</v>
+      </c>
+      <c r="V20" s="7">
+        <f>SUM(V3:V19)</f>
+        <v>45042.5</v>
+      </c>
+      <c r="W20" s="7">
+        <f>SUM(K20:N20)</f>
+        <v>61290.731199999995</v>
+      </c>
+      <c r="X20" s="7">
+        <f>W20*1.2</f>
+        <v>73548.877439999997</v>
+      </c>
+      <c r="Y20" s="7">
+        <f>X20*1.1</f>
+        <v>80903.765184000004</v>
+      </c>
+      <c r="Z20" s="7">
+        <f>Y20*1.1</f>
+        <v>88994.141702400011</v>
+      </c>
+      <c r="AA20" s="7">
+        <f>Z20*1.1</f>
+        <v>97893.55587264002</v>
+      </c>
+      <c r="AB20" s="7">
+        <f>AA20*1.04</f>
+        <v>101809.29810754562</v>
+      </c>
+      <c r="AC20" s="7">
+        <f t="shared" ref="AC20:AF20" si="1">AB20*1.04</f>
+        <v>105881.67003184745</v>
+      </c>
+      <c r="AD20" s="7">
+        <f t="shared" si="1"/>
+        <v>110116.93683312135</v>
+      </c>
+      <c r="AE20" s="7">
+        <f t="shared" si="1"/>
+        <v>114521.61430644621</v>
+      </c>
+      <c r="AF20" s="7">
+        <f t="shared" si="1"/>
+        <v>119102.47887870406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1627</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1807</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1860</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1788</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1674</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2170</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2171</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2404</v>
+      </c>
+      <c r="K21" s="2">
+        <v>2224</v>
+      </c>
+      <c r="L21" s="2">
+        <v>2448</v>
+      </c>
+      <c r="M21" s="2">
+        <f>M20*0.16</f>
+        <v>2588.6848</v>
+      </c>
+      <c r="N21" s="2">
+        <f>N20*0.16</f>
+        <v>2692.2321919999999</v>
+      </c>
+      <c r="P21" s="2">
+        <v>4682</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>4721</v>
+      </c>
+      <c r="R21" s="2">
+        <v>5483</v>
+      </c>
+      <c r="S21" s="2">
+        <v>7313</v>
+      </c>
+      <c r="T21" s="2">
+        <v>6630</v>
+      </c>
+      <c r="U21" s="2">
+        <v>7082</v>
+      </c>
+      <c r="V21" s="2">
+        <v>8418</v>
+      </c>
+      <c r="W21" s="2">
+        <f>SUM(K21:N21)</f>
+        <v>9952.9169920000004</v>
+      </c>
+      <c r="X21" s="2">
+        <f>X20*0.16</f>
+        <v>11767.8203904</v>
+      </c>
+      <c r="Y21" s="2">
+        <f t="shared" ref="Y21:AF21" si="2">Y20*0.16</f>
+        <v>12944.602429440001</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="2"/>
+        <v>14239.062672384001</v>
+      </c>
+      <c r="AA21" s="2">
+        <f t="shared" si="2"/>
+        <v>15662.968939622404</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" si="2"/>
+        <v>16289.4876972073</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" si="2"/>
+        <v>16941.067205095591</v>
+      </c>
+      <c r="AD21" s="2">
+        <f t="shared" si="2"/>
+        <v>17618.709893299416</v>
+      </c>
+      <c r="AE21" s="2">
+        <f t="shared" si="2"/>
+        <v>18323.458289031394</v>
+      </c>
+      <c r="AF21" s="2">
+        <f t="shared" si="2"/>
+        <v>19056.396620592652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22" si="3">C20-C21</f>
+        <v>5333</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22" si="4">D20-D21</f>
+        <v>6505</v>
+      </c>
+      <c r="E22" s="2">
+        <f>E20-E21</f>
+        <v>7639</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" ref="F22" si="5">F20-F21</f>
+        <v>7565.4</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" ref="G22:L22" si="6">G20-G21</f>
+        <v>7094</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" ref="H22" si="7">H20-H21</f>
+        <v>9133</v>
+      </c>
+      <c r="I22" s="2">
+        <f>I20-I21</f>
+        <v>9268</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" ref="J22" si="8">J20-J21</f>
+        <v>11129</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="6"/>
+        <v>10504</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="6"/>
+        <v>13109</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" ref="M22:R22" si="9">M20-M21</f>
+        <v>13590.5952</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="9"/>
+        <v>14134.219008</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="9"/>
+        <v>16811</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="9"/>
+        <v>17599</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="9"/>
+        <v>19057</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" ref="S22" si="10">S20-S21</f>
+        <v>21005</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" ref="T22" si="11">T20-T21</f>
+        <v>21911</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" ref="U22" si="12">U20-U21</f>
+        <v>27043.4</v>
+      </c>
+      <c r="V22" s="2">
+        <f t="shared" ref="V22" si="13">V20-V21</f>
+        <v>36624.5</v>
+      </c>
+      <c r="W22" s="2">
+        <f t="shared" ref="W22" si="14">W20-W21</f>
+        <v>51337.814207999996</v>
+      </c>
+      <c r="X22" s="2">
+        <f t="shared" ref="X22" si="15">X20-X21</f>
+        <v>61781.0570496</v>
+      </c>
+      <c r="Y22" s="2">
+        <f t="shared" ref="Y22" si="16">Y20-Y21</f>
+        <v>67959.162754560006</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" ref="Z22" si="17">Z20-Z21</f>
+        <v>74755.079030016015</v>
+      </c>
+      <c r="AA22" s="2">
+        <f t="shared" ref="AA22:AB22" si="18">AA20-AA21</f>
+        <v>82230.586933017621</v>
+      </c>
+      <c r="AB22" s="2">
+        <f t="shared" si="18"/>
+        <v>85519.810410338323</v>
+      </c>
+      <c r="AC22" s="2">
+        <f t="shared" ref="AC22" si="19">AC20-AC21</f>
+        <v>88940.602826751856</v>
+      </c>
+      <c r="AD22" s="2">
+        <f t="shared" ref="AD22" si="20">AD20-AD21</f>
+        <v>92498.226939821936</v>
+      </c>
+      <c r="AE22" s="2">
+        <f t="shared" ref="AE22" si="21">AE20-AE21</f>
+        <v>96198.156017414818</v>
+      </c>
+      <c r="AF22" s="2">
+        <f t="shared" ref="AF22" si="22">AF20-AF21</f>
+        <v>100046.0822581114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1985</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2357</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2409</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2563</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2523</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2711</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2734</v>
+      </c>
+      <c r="J23" s="2">
+        <v>3022.5</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2734</v>
+      </c>
+      <c r="L23" s="2">
+        <v>3336</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" ref="M23:N23" si="23">L23</f>
+        <v>3336</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="23"/>
+        <v>3336</v>
+      </c>
+      <c r="P23" s="2">
+        <v>5051</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>5595</v>
+      </c>
+      <c r="R23" s="2">
+        <v>6086</v>
+      </c>
+      <c r="S23" s="2">
+        <v>7026</v>
+      </c>
+      <c r="T23" s="2">
+        <v>7191</v>
+      </c>
+      <c r="U23" s="2">
+        <v>9313</v>
+      </c>
+      <c r="V23" s="2">
+        <v>10991</v>
+      </c>
+      <c r="W23" s="2">
+        <f>SUM(K23:N23)</f>
+        <v>12742</v>
+      </c>
+    </row>
+    <row r="24" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1749</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1925</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1804</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1925</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1952</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2117</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2100</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2424.5</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2469</v>
+      </c>
+      <c r="L24" s="2">
+        <v>2753</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" ref="M24:N24" si="24">L24</f>
+        <v>2753</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="24"/>
+        <v>2753</v>
+      </c>
+      <c r="P24" s="2">
+        <v>5975</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>6214</v>
+      </c>
+      <c r="R24" s="2">
+        <v>6121</v>
+      </c>
+      <c r="S24" s="2">
+        <v>6432</v>
+      </c>
+      <c r="T24" s="2">
+        <v>6440</v>
+      </c>
+      <c r="U24" s="2">
+        <v>7403</v>
+      </c>
+      <c r="V24" s="2">
+        <v>8594</v>
+      </c>
+      <c r="W24" s="2">
+        <f>SUM(K24:N24)</f>
+        <v>10728</v>
+      </c>
+      <c r="X24" s="2">
+        <f>W24*1.1</f>
+        <v>11800.800000000001</v>
+      </c>
+      <c r="Y24" s="2">
+        <f t="shared" ref="Y24:AA24" si="25">X24*1.04</f>
+        <v>12272.832000000002</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="25"/>
+        <v>12763.745280000003</v>
+      </c>
+      <c r="AA24" s="2">
+        <f t="shared" si="25"/>
+        <v>13274.295091200003</v>
+      </c>
+      <c r="AB24" s="2">
+        <f>AA24*1.02</f>
+        <v>13539.780993024004</v>
+      </c>
+      <c r="AC24" s="2">
+        <f t="shared" ref="AC24:AF24" si="26">AB24*1.02</f>
+        <v>13810.576612884484</v>
+      </c>
+      <c r="AD24" s="2">
+        <f t="shared" si="26"/>
+        <v>14086.788145142174</v>
+      </c>
+      <c r="AE24" s="2">
+        <f t="shared" si="26"/>
+        <v>14368.523908045017</v>
+      </c>
+      <c r="AF24" s="2">
+        <f t="shared" si="26"/>
+        <v>14655.894386205919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" ref="C25" si="27">SUM(C23:C24)</f>
+        <v>3734</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25" si="28">SUM(D23:D24)</f>
+        <v>4282</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ref="E25:F25" si="29">SUM(E23:E24)</f>
+        <v>4213</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="29"/>
+        <v>4488</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" ref="G25:L25" si="30">SUM(G23:G24)</f>
+        <v>4475</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" ref="H25:J25" si="31">SUM(H23:H24)</f>
+        <v>4828</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="31"/>
+        <v>4834</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="31"/>
+        <v>5447</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="30"/>
+        <v>5203</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="30"/>
+        <v>6089</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" ref="M25:R25" si="32">SUM(M23:M24)</f>
+        <v>6089</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="32"/>
+        <v>6089</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" ref="P25" si="33">SUM(P23:P24)</f>
+        <v>11026</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" ref="Q25" si="34">SUM(Q23:Q24)</f>
+        <v>11809</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="32"/>
+        <v>12207</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" ref="S25" si="35">SUM(S23:S24)</f>
+        <v>13458</v>
+      </c>
+      <c r="T25" s="2">
+        <f t="shared" ref="T25" si="36">SUM(T23:T24)</f>
+        <v>13631</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" ref="U25" si="37">SUM(U23:U24)</f>
+        <v>16716</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" ref="V25" si="38">SUM(V23:V24)</f>
+        <v>19585</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" ref="W25" si="39">SUM(W23:W24)</f>
+        <v>23470</v>
+      </c>
+      <c r="X25" s="2">
+        <f t="shared" ref="X25" si="40">SUM(X23:X24)</f>
+        <v>11800.800000000001</v>
+      </c>
+      <c r="Y25" s="2">
+        <f t="shared" ref="Y25" si="41">SUM(Y23:Y24)</f>
+        <v>12272.832000000002</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" ref="Z25" si="42">SUM(Z23:Z24)</f>
+        <v>12763.745280000003</v>
+      </c>
+      <c r="AA25" s="2">
+        <f t="shared" ref="AA25:AB25" si="43">SUM(AA23:AA24)</f>
+        <v>13274.295091200003</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" si="43"/>
+        <v>13539.780993024004</v>
+      </c>
+      <c r="AC25" s="2">
+        <f t="shared" ref="AC25" si="44">SUM(AC23:AC24)</f>
+        <v>13810.576612884484</v>
+      </c>
+      <c r="AD25" s="2">
+        <f t="shared" ref="AD25" si="45">SUM(AD23:AD24)</f>
+        <v>14086.788145142174</v>
+      </c>
+      <c r="AE25" s="2">
+        <f t="shared" ref="AE25" si="46">SUM(AE23:AE24)</f>
+        <v>14368.523908045017</v>
+      </c>
+      <c r="AF25" s="2">
+        <f t="shared" ref="AF25" si="47">SUM(AF23:AF24)</f>
+        <v>14655.894386205919</v>
+      </c>
+    </row>
+    <row r="26" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" ref="C26" si="48">C22-C25</f>
+        <v>1599</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26" si="49">D22-D25</f>
+        <v>2223</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" ref="E26:F26" si="50">E22-E25</f>
+        <v>3426</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="50"/>
+        <v>3077.3999999999996</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" ref="G26:L26" si="51">G22-G25</f>
+        <v>2619</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" ref="H26:J26" si="52">H22-H25</f>
+        <v>4305</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="52"/>
+        <v>4434</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="52"/>
+        <v>5682</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="51"/>
+        <v>5301</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="51"/>
+        <v>7020</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" ref="M26:R26" si="53">M22-M25</f>
+        <v>7501.5951999999997</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="53"/>
+        <v>8045.219008</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" ref="P26" si="54">P22-P25</f>
+        <v>5785</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" ref="Q26" si="55">Q22-Q25</f>
+        <v>5790</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="53"/>
+        <v>6850</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" ref="S26" si="56">S22-S25</f>
+        <v>7547</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" ref="T26" si="57">T22-T25</f>
+        <v>8280</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" ref="U26" si="58">U22-U25</f>
+        <v>10327.400000000001</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" ref="V26" si="59">V22-V25</f>
+        <v>17039.5</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" ref="W26" si="60">W22-W25</f>
+        <v>27867.814207999996</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" ref="X26" si="61">X22-X25</f>
+        <v>49980.257049599997</v>
+      </c>
+      <c r="Y26" s="2">
+        <f t="shared" ref="Y26" si="62">Y22-Y25</f>
+        <v>55686.330754560004</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" ref="Z26" si="63">Z22-Z25</f>
+        <v>61991.333750016012</v>
+      </c>
+      <c r="AA26" s="2">
+        <f t="shared" ref="AA26:AB26" si="64">AA22-AA25</f>
+        <v>68956.291841817612</v>
+      </c>
+      <c r="AB26" s="2">
+        <f t="shared" si="64"/>
+        <v>71980.029417314319</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" ref="AC26" si="65">AC22-AC25</f>
+        <v>75130.026213867372</v>
+      </c>
+      <c r="AD26" s="2">
+        <f t="shared" ref="AD26" si="66">AD22-AD25</f>
+        <v>78411.438794679765</v>
+      </c>
+      <c r="AE26" s="2">
+        <f t="shared" ref="AE26" si="67">AE22-AE25</f>
+        <v>81829.632109369806</v>
+      </c>
+      <c r="AF26" s="2">
+        <f t="shared" ref="AF26" si="68">AF22-AF25</f>
+        <v>85390.18787190548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-36</v>
+      </c>
+      <c r="D27" s="2">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2">
+        <v>23</v>
+      </c>
+      <c r="F27" s="2">
+        <f>-94+215</f>
+        <v>121</v>
+      </c>
+      <c r="G27" s="2">
+        <v>27</v>
+      </c>
+      <c r="H27" s="2">
+        <v>200</v>
+      </c>
+      <c r="I27" s="2">
+        <v>-62</v>
+      </c>
+      <c r="J27" s="2">
+        <f>-180.4+70</f>
+        <v>-110.4</v>
+      </c>
+      <c r="K27" s="2">
+        <v>-239</v>
+      </c>
+      <c r="L27" s="2">
+        <v>91</v>
+      </c>
+      <c r="M27" s="2">
+        <f>L38*$AI$32/4</f>
+        <v>-17.414999999999999</v>
+      </c>
+      <c r="N27" s="2">
+        <f>M38*$AI$32/4</f>
+        <v>12.895929809999998</v>
+      </c>
+      <c r="P27" s="2">
+        <v>-146</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>-292</v>
+      </c>
+      <c r="R27" s="2">
+        <v>-1172</v>
+      </c>
+      <c r="S27" s="2">
+        <v>202</v>
+      </c>
+      <c r="T27" s="2">
+        <v>321</v>
+      </c>
+      <c r="U27" s="2">
+        <v>-97</v>
+      </c>
+      <c r="V27" s="2">
+        <v>219</v>
+      </c>
+      <c r="W27" s="2">
+        <f>SUM(K27:N27)</f>
+        <v>-152.51907018999998</v>
+      </c>
+      <c r="X27" s="2">
+        <f t="shared" ref="X27:AF27" si="69">W38*$AI$32</f>
+        <v>182.12518123252201</v>
+      </c>
+      <c r="Y27" s="2">
+        <f t="shared" si="69"/>
+        <v>994.75577337200889</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="69"/>
+        <v>1912.9893751245074</v>
+      </c>
+      <c r="AA27" s="2">
+        <f t="shared" si="69"/>
+        <v>2948.239409751784</v>
+      </c>
+      <c r="AB27" s="2">
+        <f t="shared" si="69"/>
+        <v>4113.0928160272078</v>
+      </c>
+      <c r="AC27" s="2">
+        <f t="shared" si="69"/>
+        <v>5345.8013962073401</v>
+      </c>
+      <c r="AD27" s="2">
+        <f t="shared" si="69"/>
+        <v>6649.5098034905504</v>
+      </c>
+      <c r="AE27" s="2">
+        <f t="shared" si="69"/>
+        <v>8027.4971707809091</v>
+      </c>
+      <c r="AF27" s="2">
+        <f t="shared" si="69"/>
+        <v>9483.1826651193514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" ref="C28" si="70">C26+C27</f>
+        <v>1563</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28" si="71">D26+D27</f>
+        <v>2260</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" ref="E28:F28" si="72">E26+E27</f>
+        <v>3449</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="72"/>
+        <v>3198.3999999999996</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" ref="G28:L28" si="73">G26+G27</f>
+        <v>2646</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" ref="H28:J28" si="74">H26+H27</f>
+        <v>4505</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="74"/>
+        <v>4372</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="74"/>
+        <v>5571.6</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="73"/>
+        <v>5062</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="73"/>
+        <v>7111</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" ref="M28:R28" si="75">M26+M27</f>
+        <v>7484.1801999999998</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="75"/>
+        <v>8058.1149378099999</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" ref="P28" si="76">P26+P27</f>
+        <v>5639</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" ref="Q28" si="77">Q26+Q27</f>
+        <v>5498</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="75"/>
+        <v>5678</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" ref="S28" si="78">S26+S27</f>
+        <v>7749</v>
+      </c>
+      <c r="T28" s="2">
+        <f t="shared" ref="T28" si="79">T26+T27</f>
+        <v>8601</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" ref="U28" si="80">U26+U27</f>
+        <v>10230.400000000001</v>
+      </c>
+      <c r="V28" s="2">
+        <f t="shared" ref="V28" si="81">V26+V27</f>
+        <v>17258.5</v>
+      </c>
+      <c r="W28" s="2">
+        <f t="shared" ref="W28" si="82">W26+W27</f>
+        <v>27715.295137809997</v>
+      </c>
+      <c r="X28" s="2">
+        <f t="shared" ref="X28" si="83">X26+X27</f>
+        <v>50162.382230832518</v>
+      </c>
+      <c r="Y28" s="2">
+        <f t="shared" ref="Y28" si="84">Y26+Y27</f>
+        <v>56681.086527932013</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" ref="Z28" si="85">Z26+Z27</f>
+        <v>63904.323125140523</v>
+      </c>
+      <c r="AA28" s="2">
+        <f t="shared" ref="AA28:AB28" si="86">AA26+AA27</f>
+        <v>71904.531251569395</v>
+      </c>
+      <c r="AB28" s="2">
+        <f t="shared" si="86"/>
+        <v>76093.122233341521</v>
+      </c>
+      <c r="AC28" s="2">
+        <f t="shared" ref="AC28" si="87">AC26+AC27</f>
+        <v>80475.827610074717</v>
+      </c>
+      <c r="AD28" s="2">
+        <f t="shared" ref="AD28" si="88">AD26+AD27</f>
+        <v>85060.948598170318</v>
+      </c>
+      <c r="AE28" s="2">
+        <f t="shared" ref="AE28" si="89">AE26+AE27</f>
+        <v>89857.129280150722</v>
+      </c>
+      <c r="AF28" s="2">
+        <f t="shared" ref="AF28" si="90">AF26+AF27</f>
+        <v>94873.370537024835</v>
+      </c>
+    </row>
+    <row r="29" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="2">
+        <v>185</v>
+      </c>
+      <c r="D29" s="2">
+        <v>326</v>
+      </c>
+      <c r="E29" s="2">
+        <v>485</v>
+      </c>
+      <c r="F29" s="2">
+        <v>320</v>
+      </c>
+      <c r="G29" s="2">
+        <v>293</v>
+      </c>
+      <c r="H29" s="2">
+        <v>550</v>
+      </c>
+      <c r="I29" s="2">
+        <v>618</v>
+      </c>
+      <c r="J29" s="2">
+        <v>629</v>
+      </c>
+      <c r="K29" s="2">
+        <v>697</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1116</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" ref="M29:N29" si="91">M28*0.19</f>
+        <v>1421.994238</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="91"/>
+        <v>1531.0418381838999</v>
+      </c>
+      <c r="P29" s="2">
+        <v>530</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>628</v>
+      </c>
+      <c r="R29" s="2">
+        <v>1036</v>
+      </c>
+      <c r="S29" s="2">
+        <v>574</v>
+      </c>
+      <c r="T29" s="2">
+        <v>562</v>
+      </c>
+      <c r="U29" s="2">
+        <v>1314</v>
+      </c>
+      <c r="V29" s="2">
+        <v>2090</v>
+      </c>
+      <c r="W29" s="2">
+        <f>SUM(K29:N29)</f>
+        <v>4766.0360761839001</v>
+      </c>
+      <c r="X29" s="2">
+        <f>X28*0.19</f>
+        <v>9530.852623858178</v>
+      </c>
+      <c r="Y29" s="2">
+        <f t="shared" ref="Y29:AB29" si="92">Y28*0.19</f>
+        <v>10769.406440307082</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="92"/>
+        <v>12141.8213937767</v>
+      </c>
+      <c r="AA29" s="2">
+        <f t="shared" si="92"/>
+        <v>13661.860937798185</v>
+      </c>
+      <c r="AB29" s="2">
+        <f t="shared" si="92"/>
+        <v>14457.693224334889</v>
+      </c>
+      <c r="AC29" s="2">
+        <f t="shared" ref="AC29" si="93">AC28*0.19</f>
+        <v>15290.407245914197</v>
+      </c>
+      <c r="AD29" s="2">
+        <f t="shared" ref="AD29" si="94">AD28*0.19</f>
+        <v>16161.580233652361</v>
+      </c>
+      <c r="AE29" s="2">
+        <f t="shared" ref="AE29" si="95">AE28*0.19</f>
+        <v>17072.854563228637</v>
+      </c>
+      <c r="AF29" s="2">
+        <f t="shared" ref="AF29" si="96">AF28*0.19</f>
+        <v>18025.940402034717</v>
+      </c>
+    </row>
+    <row r="30" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" ref="C30" si="97">C28-C29</f>
+        <v>1378</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" ref="D30" si="98">D28-D29</f>
+        <v>1934</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ref="E30:F30" si="99">E28-E29</f>
+        <v>2964</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="99"/>
+        <v>2878.3999999999996</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" ref="G30:L30" si="100">G28-G29</f>
+        <v>2353</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" ref="H30:J30" si="101">H28-H29</f>
+        <v>3955</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="101"/>
+        <v>3754</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="101"/>
+        <v>4942.6000000000004</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="100"/>
+        <v>4365</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="100"/>
+        <v>5995</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" ref="M30:R30" si="102">M28-M29</f>
+        <v>6062.1859619999996</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="102"/>
+        <v>6527.0730996261</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" ref="P30" si="103">P28-P29</f>
+        <v>5109</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" ref="Q30" si="104">Q28-Q29</f>
+        <v>4870</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="102"/>
+        <v>4642</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" ref="S30" si="105">S28-S29</f>
+        <v>7175</v>
+      </c>
+      <c r="T30" s="2">
+        <f t="shared" ref="T30" si="106">T28-T29</f>
+        <v>8039</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" ref="U30" si="107">U28-U29</f>
+        <v>8916.4000000000015</v>
+      </c>
+      <c r="V30" s="2">
+        <f t="shared" ref="V30" si="108">V28-V29</f>
+        <v>15168.5</v>
+      </c>
+      <c r="W30" s="2">
+        <f t="shared" ref="W30" si="109">W28-W29</f>
+        <v>22949.259061626097</v>
+      </c>
+      <c r="X30" s="2">
+        <f t="shared" ref="X30" si="110">X28-X29</f>
+        <v>40631.529606974342</v>
+      </c>
+      <c r="Y30" s="2">
+        <f t="shared" ref="Y30" si="111">Y28-Y29</f>
+        <v>45911.680087624933</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" ref="Z30" si="112">Z28-Z29</f>
+        <v>51762.501731363824</v>
+      </c>
+      <c r="AA30" s="2">
+        <f t="shared" ref="AA30:AB30" si="113">AA28-AA29</f>
+        <v>58242.67031377121</v>
+      </c>
+      <c r="AB30" s="2">
+        <f t="shared" si="113"/>
+        <v>61635.429009006635</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" ref="AC30" si="114">AC28-AC29</f>
+        <v>65185.42036416052</v>
+      </c>
+      <c r="AD30" s="2">
+        <f t="shared" ref="AD30" si="115">AD28-AD29</f>
+        <v>68899.368364517955</v>
+      </c>
+      <c r="AE30" s="2">
+        <f t="shared" ref="AE30" si="116">AE28-AE29</f>
+        <v>72784.274716922082</v>
+      </c>
+      <c r="AF30" s="2">
+        <f t="shared" ref="AF30" si="117">AF28-AF29</f>
+        <v>76847.430134990122</v>
+      </c>
+      <c r="AG30" s="2">
+        <f t="shared" ref="AG30:BL30" si="118">AF30*(1+$AI$33)</f>
+        <v>76078.955833640226</v>
+      </c>
+      <c r="AH30" s="2">
+        <f t="shared" si="118"/>
+        <v>75318.166275303825</v>
+      </c>
+      <c r="AI30" s="2">
+        <f t="shared" si="118"/>
+        <v>74564.98461255079</v>
+      </c>
+      <c r="AJ30" s="2">
+        <f t="shared" si="118"/>
+        <v>73819.33476642528</v>
+      </c>
+      <c r="AK30" s="2">
+        <f t="shared" si="118"/>
+        <v>73081.141418761021</v>
+      </c>
+      <c r="AL30" s="2">
+        <f t="shared" si="118"/>
+        <v>72350.330004573407</v>
+      </c>
+      <c r="AM30" s="2">
+        <f t="shared" si="118"/>
+        <v>71626.826704527673</v>
+      </c>
+      <c r="AN30" s="2">
+        <f t="shared" si="118"/>
+        <v>70910.558437482396</v>
+      </c>
+      <c r="AO30" s="2">
+        <f t="shared" si="118"/>
+        <v>70201.452853107578</v>
+      </c>
+      <c r="AP30" s="2">
+        <f t="shared" si="118"/>
+        <v>69499.438324576506</v>
+      </c>
+      <c r="AQ30" s="2">
+        <f t="shared" si="118"/>
+        <v>68804.443941330741</v>
+      </c>
+      <c r="AR30" s="2">
+        <f t="shared" si="118"/>
+        <v>68116.399501917433</v>
+      </c>
+      <c r="AS30" s="2">
+        <f t="shared" si="118"/>
+        <v>67435.235506898258</v>
+      </c>
+      <c r="AT30" s="2">
+        <f t="shared" si="118"/>
+        <v>66760.883151829272</v>
+      </c>
+      <c r="AU30" s="2">
+        <f t="shared" si="118"/>
+        <v>66093.274320310971</v>
+      </c>
+      <c r="AV30" s="2">
+        <f t="shared" si="118"/>
+        <v>65432.341577107858</v>
+      </c>
+      <c r="AW30" s="2">
+        <f t="shared" si="118"/>
+        <v>64778.018161336782</v>
+      </c>
+      <c r="AX30" s="2">
+        <f t="shared" si="118"/>
+        <v>64130.237979723417</v>
+      </c>
+      <c r="AY30" s="2">
+        <f t="shared" si="118"/>
+        <v>63488.935599926182</v>
+      </c>
+      <c r="AZ30" s="2">
+        <f t="shared" si="118"/>
+        <v>62854.046243926918</v>
+      </c>
+      <c r="BA30" s="2">
+        <f t="shared" si="118"/>
+        <v>62225.505781487649</v>
+      </c>
+      <c r="BB30" s="2">
+        <f t="shared" si="118"/>
+        <v>61603.250723672769</v>
+      </c>
+      <c r="BC30" s="2">
+        <f t="shared" si="118"/>
+        <v>60987.218216436042</v>
+      </c>
+      <c r="BD30" s="2">
+        <f t="shared" si="118"/>
+        <v>60377.346034271679</v>
+      </c>
+      <c r="BE30" s="2">
+        <f t="shared" si="118"/>
+        <v>59773.572573928963</v>
+      </c>
+      <c r="BF30" s="2">
+        <f t="shared" si="118"/>
+        <v>59175.836848189676</v>
+      </c>
+      <c r="BG30" s="2">
+        <f t="shared" si="118"/>
+        <v>58584.078479707779</v>
+      </c>
+      <c r="BH30" s="2">
+        <f t="shared" si="118"/>
+        <v>57998.237694910698</v>
+      </c>
+      <c r="BI30" s="2">
+        <f t="shared" si="118"/>
+        <v>57418.255317961593</v>
+      </c>
+      <c r="BJ30" s="2">
+        <f t="shared" si="118"/>
+        <v>56844.07276478198</v>
+      </c>
+      <c r="BK30" s="2">
+        <f t="shared" si="118"/>
+        <v>56275.632037134157</v>
+      </c>
+      <c r="BL30" s="2">
+        <f t="shared" si="118"/>
+        <v>55712.875716762814</v>
+      </c>
+      <c r="BM30" s="2">
+        <f t="shared" ref="BM30:CR30" si="119">BL30*(1+$AI$33)</f>
+        <v>55155.746959595184</v>
+      </c>
+      <c r="BN30" s="2">
+        <f t="shared" si="119"/>
+        <v>54604.189489999233</v>
+      </c>
+      <c r="BO30" s="2">
+        <f t="shared" si="119"/>
+        <v>54058.147595099239</v>
+      </c>
+      <c r="BP30" s="2">
+        <f t="shared" si="119"/>
+        <v>53517.566119148243</v>
+      </c>
+      <c r="BQ30" s="2">
+        <f t="shared" si="119"/>
+        <v>52982.390457956761</v>
+      </c>
+      <c r="BR30" s="2">
+        <f t="shared" si="119"/>
+        <v>52452.56655337719</v>
+      </c>
+      <c r="BS30" s="2">
+        <f t="shared" si="119"/>
+        <v>51928.040887843417</v>
+      </c>
+      <c r="BT30" s="2">
+        <f t="shared" si="119"/>
+        <v>51408.760478964985</v>
+      </c>
+      <c r="BU30" s="2">
+        <f t="shared" si="119"/>
+        <v>50894.672874175332</v>
+      </c>
+      <c r="BV30" s="2">
+        <f t="shared" si="119"/>
+        <v>50385.726145433575</v>
+      </c>
+      <c r="BW30" s="2">
+        <f t="shared" si="119"/>
+        <v>49881.868883979238</v>
+      </c>
+      <c r="BX30" s="2">
+        <f t="shared" si="119"/>
+        <v>49383.050195139447</v>
+      </c>
+      <c r="BY30" s="2">
+        <f t="shared" si="119"/>
+        <v>48889.219693188053</v>
+      </c>
+      <c r="BZ30" s="2">
+        <f t="shared" si="119"/>
+        <v>48400.32749625617</v>
+      </c>
+      <c r="CA30" s="2">
+        <f t="shared" si="119"/>
+        <v>47916.324221293609</v>
+      </c>
+      <c r="CB30" s="2">
+        <f t="shared" si="119"/>
+        <v>47437.160979080676</v>
+      </c>
+      <c r="CC30" s="2">
+        <f t="shared" si="119"/>
+        <v>46962.789369289872</v>
+      </c>
+      <c r="CD30" s="2">
+        <f t="shared" si="119"/>
+        <v>46493.161475596971</v>
+      </c>
+      <c r="CE30" s="2">
+        <f t="shared" si="119"/>
+        <v>46028.229860840998</v>
+      </c>
+      <c r="CF30" s="2">
+        <f t="shared" si="119"/>
+        <v>45567.947562232584</v>
+      </c>
+      <c r="CG30" s="2">
+        <f t="shared" si="119"/>
+        <v>45112.26808661026</v>
+      </c>
+      <c r="CH30" s="2">
+        <f t="shared" si="119"/>
+        <v>44661.145405744159</v>
+      </c>
+      <c r="CI30" s="2">
+        <f t="shared" si="119"/>
+        <v>44214.533951686717</v>
+      </c>
+      <c r="CJ30" s="2">
+        <f t="shared" si="119"/>
+        <v>43772.388612169852</v>
+      </c>
+      <c r="CK30" s="2">
+        <f t="shared" si="119"/>
+        <v>43334.664726048155</v>
+      </c>
+      <c r="CL30" s="2">
+        <f t="shared" si="119"/>
+        <v>42901.31807878767</v>
+      </c>
+      <c r="CM30" s="2">
+        <f t="shared" si="119"/>
+        <v>42472.304897999791</v>
+      </c>
+      <c r="CN30" s="2">
+        <f t="shared" si="119"/>
+        <v>42047.581849019793</v>
+      </c>
+      <c r="CO30" s="2">
+        <f t="shared" si="119"/>
+        <v>41627.106030529598</v>
+      </c>
+      <c r="CP30" s="2">
+        <f t="shared" si="119"/>
+        <v>41210.834970224299</v>
+      </c>
+      <c r="CQ30" s="2">
+        <f t="shared" si="119"/>
+        <v>40798.726620522059</v>
+      </c>
+      <c r="CR30" s="2">
+        <f t="shared" si="119"/>
+        <v>40390.739354316836</v>
+      </c>
+      <c r="CS30" s="2">
+        <f t="shared" ref="CS30:DV30" si="120">CR30*(1+$AI$33)</f>
+        <v>39986.83196077367</v>
+      </c>
+      <c r="CT30" s="2">
+        <f t="shared" si="120"/>
+        <v>39586.96364116593</v>
+      </c>
+      <c r="CU30" s="2">
+        <f t="shared" si="120"/>
+        <v>39191.094004754268</v>
+      </c>
+      <c r="CV30" s="2">
+        <f t="shared" si="120"/>
+        <v>38799.183064706725</v>
+      </c>
+      <c r="CW30" s="2">
+        <f t="shared" si="120"/>
+        <v>38411.191234059661</v>
+      </c>
+      <c r="CX30" s="2">
+        <f t="shared" si="120"/>
+        <v>38027.079321719066</v>
+      </c>
+      <c r="CY30" s="2">
+        <f t="shared" si="120"/>
+        <v>37646.808528501875</v>
+      </c>
+      <c r="CZ30" s="2">
+        <f t="shared" si="120"/>
+        <v>37270.340443216854</v>
+      </c>
+      <c r="DA30" s="2">
+        <f t="shared" si="120"/>
+        <v>36897.637038784684</v>
+      </c>
+      <c r="DB30" s="2">
+        <f t="shared" si="120"/>
+        <v>36528.660668396835</v>
+      </c>
+      <c r="DC30" s="2">
+        <f t="shared" si="120"/>
+        <v>36163.374061712864</v>
+      </c>
+      <c r="DD30" s="2">
+        <f t="shared" si="120"/>
+        <v>35801.740321095735</v>
+      </c>
+      <c r="DE30" s="2">
+        <f t="shared" si="120"/>
+        <v>35443.722917884777</v>
+      </c>
+      <c r="DF30" s="2">
+        <f t="shared" si="120"/>
+        <v>35089.285688705932</v>
+      </c>
+      <c r="DG30" s="2">
+        <f t="shared" si="120"/>
+        <v>34738.39283181887</v>
+      </c>
+      <c r="DH30" s="2">
+        <f t="shared" si="120"/>
+        <v>34391.008903500682</v>
+      </c>
+      <c r="DI30" s="2">
+        <f t="shared" si="120"/>
+        <v>34047.098814465673</v>
+      </c>
+      <c r="DJ30" s="2">
+        <f t="shared" si="120"/>
+        <v>33706.627826321019</v>
+      </c>
+      <c r="DK30" s="2">
+        <f t="shared" si="120"/>
+        <v>33369.561548057805</v>
+      </c>
+      <c r="DL30" s="2">
+        <f t="shared" si="120"/>
+        <v>33035.865932577224</v>
+      </c>
+      <c r="DM30" s="2">
+        <f t="shared" si="120"/>
+        <v>32705.507273251453</v>
+      </c>
+      <c r="DN30" s="2">
+        <f t="shared" si="120"/>
+        <v>32378.452200518939</v>
+      </c>
+      <c r="DO30" s="2">
+        <f t="shared" si="120"/>
+        <v>32054.66767851375</v>
+      </c>
+      <c r="DP30" s="2">
+        <f t="shared" si="120"/>
+        <v>31734.12100172861</v>
+      </c>
+      <c r="DQ30" s="2">
+        <f t="shared" si="120"/>
+        <v>31416.779791711324</v>
+      </c>
+      <c r="DR30" s="2">
+        <f t="shared" si="120"/>
+        <v>31102.611993794209</v>
+      </c>
+      <c r="DS30" s="2">
+        <f t="shared" si="120"/>
+        <v>30791.585873856267</v>
+      </c>
+      <c r="DT30" s="2">
+        <f t="shared" si="120"/>
+        <v>30483.670015117703</v>
+      </c>
+      <c r="DU30" s="2">
+        <f t="shared" si="120"/>
+        <v>30178.833314966527</v>
+      </c>
+      <c r="DV30" s="2">
+        <f t="shared" si="120"/>
+        <v>29877.04498181686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>901</v>
+      </c>
+      <c r="D31" s="2">
+        <v>900</v>
+      </c>
+      <c r="E31" s="2">
+        <v>900</v>
+      </c>
+      <c r="F31" s="2">
+        <v>900</v>
+      </c>
+      <c r="G31" s="2">
+        <v>901</v>
+      </c>
+      <c r="H31" s="2">
+        <v>901</v>
+      </c>
+      <c r="I31" s="2">
+        <v>901</v>
+      </c>
+      <c r="J31" s="2">
+        <v>900</v>
+      </c>
+      <c r="K31" s="2">
+        <v>899</v>
+      </c>
+      <c r="L31" s="2">
+        <v>898</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" ref="M31:N31" si="121">L31</f>
+        <v>898</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="121"/>
+        <v>898</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1027.7</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>931.06</v>
+      </c>
+      <c r="R31" s="2">
+        <v>907.6</v>
+      </c>
+      <c r="S31" s="2">
+        <v>907</v>
+      </c>
+      <c r="T31" s="2">
+        <v>901.74</v>
+      </c>
+      <c r="U31" s="2">
+        <v>900.2</v>
+      </c>
+      <c r="V31" s="2">
+        <v>900.6</v>
+      </c>
+      <c r="W31" s="2">
+        <f>N31</f>
+        <v>898</v>
+      </c>
+      <c r="X31" s="2">
+        <f>W31</f>
+        <v>898</v>
+      </c>
+      <c r="Y31" s="2">
+        <f t="shared" ref="Y31:AB31" si="122">X31</f>
+        <v>898</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="122"/>
+        <v>898</v>
+      </c>
+      <c r="AA31" s="2">
+        <f t="shared" si="122"/>
+        <v>898</v>
+      </c>
+      <c r="AB31" s="2">
+        <f t="shared" si="122"/>
+        <v>898</v>
+      </c>
+      <c r="AC31" s="2">
+        <f t="shared" ref="AC31:AF31" si="123">AB31</f>
+        <v>898</v>
+      </c>
+      <c r="AD31" s="2">
+        <f t="shared" si="123"/>
+        <v>898</v>
+      </c>
+      <c r="AE31" s="2">
+        <f t="shared" si="123"/>
+        <v>898</v>
+      </c>
+      <c r="AF31" s="2">
+        <f t="shared" si="123"/>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" ref="C32" si="124">C30/C31</f>
+        <v>1.5294117647058822</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" ref="D32" si="125">D30/D31</f>
+        <v>2.1488888888888891</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" ref="E32:F32" si="126">E30/E31</f>
+        <v>3.2933333333333334</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="126"/>
+        <v>3.1982222222222219</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" ref="G32:L32" si="127">G30/G31</f>
+        <v>2.611542730299667</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" ref="H32:J32" si="128">H30/H31</f>
+        <v>4.3895671476137625</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="128"/>
+        <v>4.1664816870144286</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="128"/>
+        <v>5.4917777777777781</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="127"/>
+        <v>4.8553948832035596</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="127"/>
+        <v>6.6759465478841875</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" ref="M32:R32" si="129">M30/M31</f>
+        <v>6.7507638775055678</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="129"/>
+        <v>7.268455567512361</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1">
+        <f t="shared" ref="P32" si="130">P30/P31</f>
+        <v>4.9712951250364892</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" ref="Q32" si="131">Q30/Q31</f>
+        <v>5.2305973836272637</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="129"/>
+        <v>5.1145879241956811</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" ref="S32" si="132">S30/S31</f>
+        <v>7.9106945975744214</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" ref="T32" si="133">T30/T31</f>
+        <v>8.9149865814979918</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" ref="U32" si="134">U30/U31</f>
+        <v>9.9049100199955582</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" ref="V32" si="135">V30/V31</f>
+        <v>16.842660448589829</v>
+      </c>
+      <c r="W32" s="1">
+        <f t="shared" ref="W32" si="136">W30/W31</f>
+        <v>25.555967774639306</v>
+      </c>
+      <c r="X32" s="1">
+        <f t="shared" ref="X32" si="137">X30/X31</f>
+        <v>45.246692212666304</v>
+      </c>
+      <c r="Y32" s="1">
+        <f t="shared" ref="Y32" si="138">Y30/Y31</f>
+        <v>51.126592525194802</v>
+      </c>
+      <c r="Z32" s="1">
+        <f t="shared" ref="Z32" si="139">Z30/Z31</f>
+        <v>57.641984110650135</v>
+      </c>
+      <c r="AA32" s="1">
+        <f t="shared" ref="AA32:AB32" si="140">AA30/AA31</f>
+        <v>64.858207476359922</v>
+      </c>
+      <c r="AB32" s="1">
+        <f t="shared" si="140"/>
+        <v>68.636335199339243</v>
+      </c>
+      <c r="AC32" s="1">
+        <f t="shared" ref="AC32" si="141">AC30/AC31</f>
+        <v>72.589554971225525</v>
+      </c>
+      <c r="AD32" s="1">
+        <f t="shared" ref="AD32" si="142">AD30/AD31</f>
+        <v>76.725354526189264</v>
+      </c>
+      <c r="AE32" s="1">
+        <f t="shared" ref="AE32" si="143">AE30/AE31</f>
+        <v>81.051530865169354</v>
+      </c>
+      <c r="AF32" s="1">
+        <f t="shared" ref="AF32" si="144">AF30/AF31</f>
+        <v>85.576202822928863</v>
+      </c>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI32" s="10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AH33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI33" s="10">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="9">
+        <f>K20/G20-1</f>
+        <v>0.45164233576642343</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" ref="L34:M34" si="145">L20/H20-1</f>
+        <v>0.37636025833849418</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="145"/>
+        <v>0.41439636331847196</v>
+      </c>
+      <c r="N34" s="9">
+        <f>N20/J20-1</f>
+        <v>0.24336445725264166</v>
+      </c>
+      <c r="O34" s="9"/>
+      <c r="Q34" s="9">
+        <f t="shared" ref="Q34:AB34" si="146">Q20/P20-1</f>
+        <v>3.8477643884055279E-2</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" si="146"/>
+        <v>9.9462365591397761E-2</v>
+      </c>
+      <c r="S34" s="9">
+        <f t="shared" si="146"/>
+        <v>0.15395273023634881</v>
+      </c>
+      <c r="T34" s="9">
+        <f t="shared" si="146"/>
+        <v>7.874849918779514E-3</v>
+      </c>
+      <c r="U34" s="9">
+        <f t="shared" si="146"/>
+        <v>0.1956623804351636</v>
+      </c>
+      <c r="V34" s="9">
+        <f t="shared" si="146"/>
+        <v>0.31991126843934414</v>
+      </c>
+      <c r="W34" s="9">
+        <f t="shared" si="146"/>
+        <v>0.36073111394793789</v>
+      </c>
+      <c r="X34" s="9">
+        <f t="shared" si="146"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="Y34" s="9">
+        <f t="shared" si="146"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Z34" s="9">
+        <f t="shared" si="146"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AA34" s="9">
+        <f t="shared" si="146"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AB34" s="9">
+        <f t="shared" si="146"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AC34" s="9">
+        <f t="shared" ref="AC34:AF34" si="147">AC20/AB20-1</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AD34" s="9">
+        <f t="shared" si="147"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AE34" s="9">
+        <f t="shared" si="147"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AF34" s="9">
+        <f t="shared" si="147"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI34" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="10">
+        <f t="shared" ref="C35" si="148">C22/C20</f>
+        <v>0.766235632183908</v>
+      </c>
+      <c r="D35" s="10">
+        <f t="shared" ref="D35" si="149">D22/D20</f>
+        <v>0.78260346487006738</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" ref="E35" si="150">E22/E20</f>
+        <v>0.80418991472786605</v>
+      </c>
+      <c r="F35" s="10">
+        <f>F22/F20</f>
+        <v>0.80883956636089549</v>
+      </c>
+      <c r="G35" s="10">
+        <f>G22/G20</f>
+        <v>0.80907846715328469</v>
+      </c>
+      <c r="H35" s="10">
+        <f t="shared" ref="H35:N35" si="151">H22/H20</f>
+        <v>0.80801557108732192</v>
+      </c>
+      <c r="I35" s="10">
+        <f t="shared" si="151"/>
+        <v>0.81021068275198882</v>
+      </c>
+      <c r="J35" s="10">
+        <f>J22/J20</f>
+        <v>0.82236015665410478</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="shared" si="151"/>
+        <v>0.82526712759270904</v>
+      </c>
+      <c r="L35" s="10">
+        <f t="shared" si="151"/>
+        <v>0.8426431831329948</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="151"/>
+        <v>0.84</v>
+      </c>
+      <c r="N35" s="10">
+        <f t="shared" si="151"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10">
+        <f t="shared" ref="P35" si="152">P22/P20</f>
+        <v>0.78216163402037875</v>
+      </c>
+      <c r="Q35" s="10">
+        <f t="shared" ref="Q35" si="153">Q22/Q20</f>
+        <v>0.78848566308243728</v>
+      </c>
+      <c r="R35" s="10">
+        <f t="shared" ref="R35:W35" si="154">R22/R20</f>
+        <v>0.7765688671556642</v>
+      </c>
+      <c r="S35" s="10">
+        <f t="shared" si="154"/>
+        <v>0.74175436118369942</v>
+      </c>
+      <c r="T35" s="10">
+        <f t="shared" si="154"/>
+        <v>0.76770260327248518</v>
+      </c>
+      <c r="U35" s="10">
+        <f t="shared" si="154"/>
+        <v>0.79247129703974162</v>
+      </c>
+      <c r="V35" s="10">
+        <f t="shared" si="154"/>
+        <v>0.8131098407059999</v>
+      </c>
+      <c r="W35" s="10">
+        <f t="shared" si="154"/>
+        <v>0.83761138434582749</v>
+      </c>
+      <c r="X35" s="10">
+        <f t="shared" ref="X35:AB35" si="155">X22/X20</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="Y35" s="10">
+        <f t="shared" si="155"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="Z35" s="10">
+        <f t="shared" si="155"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="AA35" s="10">
+        <f t="shared" si="155"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="AB35" s="10">
+        <f t="shared" si="155"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="AC35" s="10">
+        <f t="shared" ref="AC35:AF35" si="156">AC22/AC20</f>
+        <v>0.84</v>
+      </c>
+      <c r="AD35" s="10">
+        <f t="shared" si="156"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="AE35" s="10">
+        <f t="shared" si="156"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="AF35" s="10">
+        <f t="shared" si="156"/>
+        <v>0.84</v>
+      </c>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI35" s="2">
+        <f>NPV(AI34,W30:XFD30)+Main!K6-Main!K7</f>
+        <v>815642.43678764242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-    </row>
-    <row r="17" spans="1:120" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>8768</v>
-      </c>
-      <c r="G17" s="7">
-        <v>12728</v>
-      </c>
-      <c r="H17" s="7">
-        <f>G17*1.1</f>
-        <v>14000.800000000001</v>
-      </c>
-      <c r="I17" s="7">
-        <f t="shared" ref="I17:J17" si="1">H17*1.1</f>
-        <v>15400.880000000003</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="1"/>
-        <v>16940.968000000004</v>
-      </c>
-      <c r="Q17" s="7">
-        <f>SUM(G17:J17)</f>
-        <v>59070.648000000016</v>
-      </c>
-      <c r="R17" s="7">
-        <f>Q17*1.09</f>
-        <v>64387.006320000022</v>
-      </c>
-      <c r="S17" s="7">
-        <f t="shared" ref="S17:AA17" si="2">R17*1.09</f>
-        <v>70181.836888800026</v>
-      </c>
-      <c r="T17" s="7">
-        <f t="shared" si="2"/>
-        <v>76498.202208792034</v>
-      </c>
-      <c r="U17" s="7">
-        <f t="shared" si="2"/>
-        <v>83383.040407583321</v>
-      </c>
-      <c r="V17" s="7">
-        <f t="shared" si="2"/>
-        <v>90887.51404426583</v>
-      </c>
-      <c r="W17" s="7">
-        <f t="shared" si="2"/>
-        <v>99067.390308249756</v>
-      </c>
-      <c r="X17" s="7">
-        <f t="shared" si="2"/>
-        <v>107983.45543599225</v>
-      </c>
-      <c r="Y17" s="7">
-        <f t="shared" si="2"/>
-        <v>117701.96642523156</v>
-      </c>
-      <c r="Z17" s="7">
-        <f t="shared" si="2"/>
-        <v>128295.1434035024</v>
-      </c>
-      <c r="AA17" s="7">
-        <f t="shared" si="2"/>
-        <v>139841.70630981761</v>
-      </c>
-    </row>
-    <row r="18" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1674</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2224</v>
-      </c>
-      <c r="H18" s="2">
-        <f>H17*0.17</f>
-        <v>2380.1360000000004</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" ref="I18:J18" si="3">I17*0.17</f>
-        <v>2618.1496000000006</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="3"/>
-        <v>2879.9645600000008</v>
-      </c>
-      <c r="Q18" s="2">
-        <f>SUM(G18:J18)</f>
-        <v>10102.250160000001</v>
-      </c>
-      <c r="R18" s="2">
-        <f t="shared" ref="R18" si="4">R17*0.17</f>
-        <v>10945.791074400004</v>
-      </c>
-      <c r="S18" s="2">
-        <f t="shared" ref="S18" si="5">S17*0.17</f>
-        <v>11930.912271096005</v>
-      </c>
-      <c r="T18" s="2">
-        <f t="shared" ref="T18" si="6">T17*0.17</f>
-        <v>13004.694375494646</v>
-      </c>
-      <c r="U18" s="2">
-        <f t="shared" ref="U18:V18" si="7">U17*0.17</f>
-        <v>14175.116869289166</v>
-      </c>
-      <c r="V18" s="2">
-        <f t="shared" si="7"/>
-        <v>15450.877387525192</v>
-      </c>
-      <c r="W18" s="2">
-        <f t="shared" ref="W18" si="8">W17*0.17</f>
-        <v>16841.45635240246</v>
-      </c>
-      <c r="X18" s="2">
-        <f t="shared" ref="X18" si="9">X17*0.17</f>
-        <v>18357.187424118685</v>
-      </c>
-      <c r="Y18" s="2">
-        <f t="shared" ref="Y18" si="10">Y17*0.17</f>
-        <v>20009.334292289364</v>
-      </c>
-      <c r="Z18" s="2">
-        <f t="shared" ref="Z18" si="11">Z17*0.17</f>
-        <v>21810.17437859541</v>
-      </c>
-      <c r="AA18" s="2">
-        <f t="shared" ref="AA18" si="12">AA17*0.17</f>
-        <v>23773.090072668998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" ref="C19:H19" si="13">C17-C18</f>
-        <v>7094</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="13"/>
+      <c r="G36" s="10"/>
+      <c r="K36" s="10">
+        <f>K24/G24-1</f>
+        <v>0.26485655737704916</v>
+      </c>
+      <c r="L36" s="10">
+        <f t="shared" ref="L36:N36" si="157">L24/H24-1</f>
+        <v>0.30042512990080295</v>
+      </c>
+      <c r="M36" s="10">
+        <f t="shared" si="157"/>
+        <v>0.31095238095238087</v>
+      </c>
+      <c r="N36" s="10">
+        <f t="shared" si="157"/>
+        <v>0.13549185399051344</v>
+      </c>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10">
+        <f t="shared" ref="Q36:X36" si="158">Q24/P24-1</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="R36" s="10">
+        <f t="shared" si="158"/>
+        <v>-1.4966205342774375E-2</v>
+      </c>
+      <c r="S36" s="10">
+        <f t="shared" si="158"/>
+        <v>5.0808691390295646E-2</v>
+      </c>
+      <c r="T36" s="10">
+        <f t="shared" si="158"/>
+        <v>1.2437810945273853E-3</v>
+      </c>
+      <c r="U36" s="10">
+        <f t="shared" si="158"/>
+        <v>0.14953416149068333</v>
+      </c>
+      <c r="V36" s="10">
+        <f t="shared" si="158"/>
+        <v>0.16088072403079834</v>
+      </c>
+      <c r="W36" s="10">
+        <f t="shared" si="158"/>
+        <v>0.24831277635559701</v>
+      </c>
+      <c r="X36" s="10">
+        <f t="shared" si="158"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Y36" s="10">
+        <f t="shared" ref="Y36:AB36" si="159">Y24/X24-1</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="Z36" s="10">
+        <f t="shared" si="159"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AA36" s="10">
+        <f t="shared" si="159"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AB36" s="10">
+        <f t="shared" si="159"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AC36" s="10">
+        <f t="shared" ref="AC36:AF36" si="160">AC24/AB24-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AD36" s="10">
+        <f t="shared" si="160"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AE36" s="10">
+        <f t="shared" si="160"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AF36" s="10">
+        <f t="shared" si="160"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI36" s="1">
+        <f>AI35/Main!K4</f>
+        <v>908.28779152298716</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AI37" s="10">
+        <f>AI36/Main!K3-1</f>
+        <v>0.32596757886567462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" ref="C38:J38" si="161">C39-SUM(C60:C62)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="2">
-        <f t="shared" si="13"/>
+      <c r="D38" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="13"/>
+      <c r="E38" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
-      <c r="G19" s="2">
-        <f t="shared" si="13"/>
-        <v>10504</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="13"/>
-        <v>11620.664000000001</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" ref="I19:L19" si="14">I17-I18</f>
-        <v>12782.730400000002</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="14"/>
-        <v>14061.003440000004</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" si="14"/>
+      <c r="F38" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
-      <c r="M19" s="2">
-        <f t="shared" ref="M19" si="15">M17-M18</f>
+      <c r="G38" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
-      <c r="N19" s="2">
-        <f t="shared" ref="N19" si="16">N17-N18</f>
+      <c r="H38" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
-      <c r="O19" s="2">
-        <f t="shared" ref="O19" si="17">O17-O18</f>
+      <c r="I38" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
-      <c r="P19" s="2">
-        <f t="shared" ref="P19" si="18">P17-P18</f>
+      <c r="J38" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="2">
-        <f t="shared" ref="Q19" si="19">Q17-Q18</f>
-        <v>48968.397840000012</v>
-      </c>
-      <c r="R19" s="2">
-        <f t="shared" ref="R19" si="20">R17-R18</f>
-        <v>53441.215245600019</v>
-      </c>
-      <c r="S19" s="2">
-        <f t="shared" ref="S19" si="21">S17-S18</f>
-        <v>58250.924617704019</v>
-      </c>
-      <c r="T19" s="2">
-        <f t="shared" ref="T19" si="22">T17-T18</f>
-        <v>63493.507833297386</v>
-      </c>
-      <c r="U19" s="2">
-        <f t="shared" ref="U19:V19" si="23">U17-U18</f>
-        <v>69207.923538294155</v>
-      </c>
-      <c r="V19" s="2">
-        <f t="shared" si="23"/>
-        <v>75436.636656740637</v>
-      </c>
-      <c r="W19" s="2">
-        <f t="shared" ref="W19" si="24">W17-W18</f>
-        <v>82225.9339558473</v>
-      </c>
-      <c r="X19" s="2">
-        <f t="shared" ref="X19" si="25">X17-X18</f>
-        <v>89626.268011873559</v>
-      </c>
-      <c r="Y19" s="2">
-        <f t="shared" ref="Y19" si="26">Y17-Y18</f>
-        <v>97692.632132942192</v>
-      </c>
-      <c r="Z19" s="2">
-        <f t="shared" ref="Z19" si="27">Z17-Z18</f>
-        <v>106484.96902490698</v>
-      </c>
-      <c r="AA19" s="2">
-        <f t="shared" ref="AA19" si="28">AA17-AA18</f>
-        <v>116068.61623714861</v>
-      </c>
-    </row>
-    <row r="20" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2523</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2734</v>
-      </c>
-      <c r="H20" s="2">
-        <f>G20</f>
-        <v>2734</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" ref="I20:J20" si="29">H20</f>
-        <v>2734</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="29"/>
-        <v>2734</v>
-      </c>
-      <c r="Q20" s="2">
-        <f>SUM(G20:J20)</f>
-        <v>10936</v>
-      </c>
-    </row>
-    <row r="21" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1952</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2469</v>
-      </c>
-      <c r="H21" s="2">
-        <f>G21</f>
-        <v>2469</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" ref="I21:J21" si="30">H21</f>
-        <v>2469</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="30"/>
-        <v>2469</v>
-      </c>
-      <c r="Q21" s="2">
-        <f>SUM(G21:J21)</f>
-        <v>9876</v>
-      </c>
-      <c r="R21" s="2">
-        <f>Q21*1.04</f>
-        <v>10271.040000000001</v>
-      </c>
-      <c r="S21" s="2">
-        <f t="shared" ref="S21:V21" si="31">R21*1.04</f>
-        <v>10681.881600000001</v>
-      </c>
-      <c r="T21" s="2">
-        <f t="shared" si="31"/>
-        <v>11109.156864</v>
-      </c>
-      <c r="U21" s="2">
-        <f t="shared" si="31"/>
-        <v>11553.52313856</v>
-      </c>
-      <c r="V21" s="2">
-        <f t="shared" si="31"/>
-        <v>12015.664064102401</v>
-      </c>
-      <c r="W21" s="2">
-        <f t="shared" ref="W21:AA21" si="32">V21*1.04</f>
-        <v>12496.290626666498</v>
-      </c>
-      <c r="X21" s="2">
-        <f t="shared" si="32"/>
-        <v>12996.142251733158</v>
-      </c>
-      <c r="Y21" s="2">
-        <f t="shared" si="32"/>
-        <v>13515.987941802485</v>
-      </c>
-      <c r="Z21" s="2">
-        <f t="shared" si="32"/>
-        <v>14056.627459474585</v>
-      </c>
-      <c r="AA21" s="2">
-        <f t="shared" si="32"/>
-        <v>14618.892557853569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" ref="C22:H22" si="33">SUM(C20:C21)</f>
-        <v>4475</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="33"/>
+      <c r="K38" s="2">
+        <f>K39-SUM(K60:K61)</f>
+        <v>-3466</v>
+      </c>
+      <c r="L38" s="2">
+        <f>L39-SUM(L60:L61)</f>
+        <v>-3483</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" ref="M38:N38" si="162">L38+M30</f>
+        <v>2579.1859619999996</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="162"/>
+        <v>9106.2590616261004</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" ref="P38:V38" si="163">P39-SUM(P60:P62)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="2">
-        <f t="shared" si="33"/>
+      <c r="Q38" s="2">
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="33"/>
+      <c r="R38" s="2">
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="G22" s="2">
-        <f t="shared" si="33"/>
-        <v>5203</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="33"/>
-        <v>5203</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" ref="I22:L22" si="34">SUM(I20:I21)</f>
-        <v>5203</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="34"/>
-        <v>5203</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="34"/>
+      <c r="S38" s="2">
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="M22" s="2">
-        <f t="shared" ref="M22" si="35">SUM(M20:M21)</f>
+      <c r="T38" s="2">
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="N22" s="2">
-        <f t="shared" ref="N22" si="36">SUM(N20:N21)</f>
+      <c r="U38" s="2">
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="O22" s="2">
-        <f t="shared" ref="O22" si="37">SUM(O20:O21)</f>
+      <c r="V38" s="2">
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="P22" s="2">
-        <f t="shared" ref="P22" si="38">SUM(P20:P21)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2">
-        <f t="shared" ref="Q22" si="39">SUM(Q20:Q21)</f>
-        <v>20812</v>
-      </c>
-      <c r="R22" s="2">
-        <f t="shared" ref="R22" si="40">SUM(R20:R21)</f>
-        <v>10271.040000000001</v>
-      </c>
-      <c r="S22" s="2">
-        <f t="shared" ref="S22" si="41">SUM(S20:S21)</f>
-        <v>10681.881600000001</v>
-      </c>
-      <c r="T22" s="2">
-        <f t="shared" ref="T22" si="42">SUM(T20:T21)</f>
-        <v>11109.156864</v>
-      </c>
-      <c r="U22" s="2">
-        <f t="shared" ref="U22:V22" si="43">SUM(U20:U21)</f>
-        <v>11553.52313856</v>
-      </c>
-      <c r="V22" s="2">
-        <f t="shared" si="43"/>
-        <v>12015.664064102401</v>
-      </c>
-      <c r="W22" s="2">
-        <f t="shared" ref="W22" si="44">SUM(W20:W21)</f>
-        <v>12496.290626666498</v>
-      </c>
-      <c r="X22" s="2">
-        <f t="shared" ref="X22" si="45">SUM(X20:X21)</f>
-        <v>12996.142251733158</v>
-      </c>
-      <c r="Y22" s="2">
-        <f t="shared" ref="Y22" si="46">SUM(Y20:Y21)</f>
-        <v>13515.987941802485</v>
-      </c>
-      <c r="Z22" s="2">
-        <f t="shared" ref="Z22" si="47">SUM(Z20:Z21)</f>
-        <v>14056.627459474585</v>
-      </c>
-      <c r="AA22" s="2">
-        <f t="shared" ref="AA22" si="48">SUM(AA20:AA21)</f>
-        <v>14618.892557853569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" ref="C23:H23" si="49">C19-C22</f>
-        <v>2619</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="49"/>
-        <v>5301</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="49"/>
-        <v>6417.6640000000007</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" ref="I23:L23" si="50">I19-I22</f>
-        <v>7579.7304000000022</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="50"/>
-        <v>8858.003440000004</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <f t="shared" ref="M23" si="51">M19-M22</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" ref="N23" si="52">N19-N22</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <f t="shared" ref="O23" si="53">O19-O22</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <f t="shared" ref="P23" si="54">P19-P22</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <f t="shared" ref="Q23" si="55">Q19-Q22</f>
-        <v>28156.397840000012</v>
-      </c>
-      <c r="R23" s="2">
-        <f t="shared" ref="R23" si="56">R19-R22</f>
-        <v>43170.175245600018</v>
-      </c>
-      <c r="S23" s="2">
-        <f t="shared" ref="S23" si="57">S19-S22</f>
-        <v>47569.043017704018</v>
-      </c>
-      <c r="T23" s="2">
-        <f t="shared" ref="T23" si="58">T19-T22</f>
-        <v>52384.350969297389</v>
-      </c>
-      <c r="U23" s="2">
-        <f t="shared" ref="U23:V23" si="59">U19-U22</f>
-        <v>57654.400399734157</v>
-      </c>
-      <c r="V23" s="2">
-        <f t="shared" si="59"/>
-        <v>63420.972592638238</v>
-      </c>
-      <c r="W23" s="2">
-        <f t="shared" ref="W23" si="60">W19-W22</f>
-        <v>69729.643329180806</v>
-      </c>
-      <c r="X23" s="2">
-        <f t="shared" ref="X23" si="61">X19-X22</f>
-        <v>76630.125760140407</v>
-      </c>
-      <c r="Y23" s="2">
-        <f t="shared" ref="Y23" si="62">Y19-Y22</f>
-        <v>84176.644191139712</v>
-      </c>
-      <c r="Z23" s="2">
-        <f t="shared" ref="Z23" si="63">Z19-Z22</f>
-        <v>92428.341565432405</v>
-      </c>
-      <c r="AA23" s="2">
-        <f t="shared" ref="AA23" si="64">AA19-AA22</f>
-        <v>101449.72367929504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2">
-        <v>27</v>
-      </c>
-      <c r="G24" s="2">
-        <v>-239</v>
-      </c>
-      <c r="H24" s="2">
-        <f>G35*$AD$29</f>
-        <v>-69.320000000000007</v>
-      </c>
-      <c r="I24" s="2">
-        <f>H35*$AD$29</f>
-        <v>33.523172800000012</v>
-      </c>
-      <c r="J24" s="2">
-        <f>I35*$AD$29</f>
-        <v>156.85788067936005</v>
-      </c>
-      <c r="Q24" s="2">
-        <f>SUM(G24:J24)</f>
-        <v>-117.93894652063994</v>
-      </c>
-      <c r="R24" s="2">
-        <f t="shared" ref="R24:AA24" si="65">Q35*$AD$29</f>
-        <v>302.89863407436576</v>
-      </c>
-      <c r="S24" s="2">
-        <f t="shared" si="65"/>
-        <v>1007.1624309250908</v>
-      </c>
-      <c r="T24" s="2">
-        <f t="shared" si="65"/>
-        <v>1794.0969591928824</v>
-      </c>
-      <c r="U24" s="2">
-        <f t="shared" si="65"/>
-        <v>2671.787815634425</v>
-      </c>
-      <c r="V24" s="2">
-        <f t="shared" si="65"/>
-        <v>3649.0720647233957</v>
-      </c>
-      <c r="W24" s="2">
-        <f t="shared" si="65"/>
-        <v>4735.6067881726549</v>
-      </c>
-      <c r="X24" s="2">
-        <f t="shared" si="65"/>
-        <v>5941.9438400737799</v>
-      </c>
-      <c r="Y24" s="2">
-        <f t="shared" si="65"/>
-        <v>7279.6113675972492</v>
-      </c>
-      <c r="Z24" s="2">
-        <f t="shared" si="65"/>
-        <v>8761.2027076487884</v>
-      </c>
-      <c r="AA24" s="2">
-        <f t="shared" si="65"/>
-        <v>10400.473324872704</v>
-      </c>
-    </row>
-    <row r="25" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" ref="C25:H25" si="66">C23+C24</f>
-        <v>2646</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="66"/>
-        <v>5062</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="66"/>
-        <v>6348.344000000001</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" ref="I25:L25" si="67">I23+I24</f>
-        <v>7613.2535728000021</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="67"/>
-        <v>9014.8613206793634</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <f t="shared" ref="M25" si="68">M23+M24</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" ref="N25" si="69">N23+N24</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
-        <f t="shared" ref="O25" si="70">O23+O24</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="2">
-        <f t="shared" ref="P25" si="71">P23+P24</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2">
-        <f t="shared" ref="Q25" si="72">Q23+Q24</f>
-        <v>28038.458893479372</v>
-      </c>
-      <c r="R25" s="2">
-        <f t="shared" ref="R25" si="73">R23+R24</f>
-        <v>43473.073879674383</v>
-      </c>
-      <c r="S25" s="2">
-        <f t="shared" ref="S25" si="74">S23+S24</f>
-        <v>48576.205448629109</v>
-      </c>
-      <c r="T25" s="2">
-        <f t="shared" ref="T25" si="75">T23+T24</f>
-        <v>54178.44792849027</v>
-      </c>
-      <c r="U25" s="2">
-        <f t="shared" ref="U25:V25" si="76">U23+U24</f>
-        <v>60326.18821536858</v>
-      </c>
-      <c r="V25" s="2">
-        <f t="shared" si="76"/>
-        <v>67070.044657361635</v>
-      </c>
-      <c r="W25" s="2">
-        <f t="shared" ref="W25" si="77">W23+W24</f>
-        <v>74465.250117353455</v>
-      </c>
-      <c r="X25" s="2">
-        <f t="shared" ref="X25" si="78">X23+X24</f>
-        <v>82572.069600214192</v>
-      </c>
-      <c r="Y25" s="2">
-        <f t="shared" ref="Y25" si="79">Y23+Y24</f>
-        <v>91456.255558736957</v>
-      </c>
-      <c r="Z25" s="2">
-        <f t="shared" ref="Z25" si="80">Z23+Z24</f>
-        <v>101189.54427308119</v>
-      </c>
-      <c r="AA25" s="2">
-        <f t="shared" ref="AA25" si="81">AA23+AA24</f>
-        <v>111850.19700416774</v>
-      </c>
-    </row>
-    <row r="26" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="2">
-        <v>293</v>
-      </c>
-      <c r="G26" s="2">
-        <v>697</v>
-      </c>
-      <c r="H26" s="2">
-        <f>H25*0.19</f>
-        <v>1206.1853600000002</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" ref="I26:J26" si="82">I25*0.19</f>
-        <v>1446.5181788320003</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="82"/>
-        <v>1712.8236509290791</v>
-      </c>
-      <c r="Q26" s="2">
-        <f>SUM(G26:J26)</f>
-        <v>5062.5271897610801</v>
-      </c>
-      <c r="R26" s="2">
-        <f>R25*0.19</f>
-        <v>8259.884037138132</v>
-      </c>
-      <c r="S26" s="2">
-        <f t="shared" ref="S26:V26" si="83">S25*0.19</f>
-        <v>9229.4790352395303</v>
-      </c>
-      <c r="T26" s="2">
-        <f t="shared" si="83"/>
-        <v>10293.905106413151</v>
-      </c>
-      <c r="U26" s="2">
-        <f t="shared" si="83"/>
-        <v>11461.97576092003</v>
-      </c>
-      <c r="V26" s="2">
-        <f t="shared" si="83"/>
-        <v>12743.308484898711</v>
-      </c>
-      <c r="W26" s="2">
-        <f t="shared" ref="W26" si="84">W25*0.19</f>
-        <v>14148.397522297157</v>
-      </c>
-      <c r="X26" s="2">
-        <f t="shared" ref="X26" si="85">X25*0.19</f>
-        <v>15688.693224040697</v>
-      </c>
-      <c r="Y26" s="2">
-        <f t="shared" ref="Y26" si="86">Y25*0.19</f>
-        <v>17376.688556160021</v>
-      </c>
-      <c r="Z26" s="2">
-        <f t="shared" ref="Z26" si="87">Z25*0.19</f>
-        <v>19226.013411885426</v>
-      </c>
-      <c r="AA26" s="2">
-        <f t="shared" ref="AA26" si="88">AA25*0.19</f>
-        <v>21251.537430791872</v>
-      </c>
-    </row>
-    <row r="27" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" ref="C27:H27" si="89">C25-C26</f>
-        <v>2353</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="89"/>
-        <v>4365</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="89"/>
-        <v>5142.1586400000006</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" ref="I27:L27" si="90">I25-I26</f>
-        <v>6166.7353939680015</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="90"/>
-        <v>7302.0376697502843</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" ref="M27" si="91">M25-M26</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" ref="N27" si="92">N25-N26</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="2">
-        <f t="shared" ref="O27" si="93">O25-O26</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="2">
-        <f t="shared" ref="P27" si="94">P25-P26</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="2">
-        <f t="shared" ref="Q27" si="95">Q25-Q26</f>
-        <v>22975.931703718292</v>
-      </c>
-      <c r="R27" s="2">
-        <f t="shared" ref="R27" si="96">R25-R26</f>
-        <v>35213.189842536252</v>
-      </c>
-      <c r="S27" s="2">
-        <f t="shared" ref="S27" si="97">S25-S26</f>
-        <v>39346.726413389581</v>
-      </c>
-      <c r="T27" s="2">
-        <f t="shared" ref="T27" si="98">T25-T26</f>
-        <v>43884.542822077121</v>
-      </c>
-      <c r="U27" s="2">
-        <f t="shared" ref="U27:V27" si="99">U25-U26</f>
-        <v>48864.212454448549</v>
-      </c>
-      <c r="V27" s="2">
-        <f t="shared" si="99"/>
-        <v>54326.736172462923</v>
-      </c>
-      <c r="W27" s="2">
-        <f t="shared" ref="W27" si="100">W25-W26</f>
-        <v>60316.852595056298</v>
-      </c>
-      <c r="X27" s="2">
-        <f t="shared" ref="X27" si="101">X25-X26</f>
-        <v>66883.376376173488</v>
-      </c>
-      <c r="Y27" s="2">
-        <f t="shared" ref="Y27" si="102">Y25-Y26</f>
-        <v>74079.567002576936</v>
-      </c>
-      <c r="Z27" s="2">
-        <f t="shared" ref="Z27" si="103">Z25-Z26</f>
-        <v>81963.530861195759</v>
-      </c>
-      <c r="AA27" s="2">
-        <f t="shared" ref="AA27" si="104">AA25-AA26</f>
-        <v>90598.659573375873</v>
-      </c>
-      <c r="AB27" s="2">
-        <f t="shared" ref="AB27:BG27" si="105">AA27*(1+$AD$30)</f>
-        <v>89692.672977642113</v>
-      </c>
-      <c r="AC27" s="2">
-        <f t="shared" si="105"/>
-        <v>88795.746247865696</v>
-      </c>
-      <c r="AD27" s="2">
-        <f t="shared" si="105"/>
-        <v>87907.788785387034</v>
-      </c>
-      <c r="AE27" s="2">
-        <f t="shared" si="105"/>
-        <v>87028.710897533165</v>
-      </c>
-      <c r="AF27" s="2">
-        <f t="shared" si="105"/>
-        <v>86158.423788557833</v>
-      </c>
-      <c r="AG27" s="2">
-        <f t="shared" si="105"/>
-        <v>85296.839550672259</v>
-      </c>
-      <c r="AH27" s="2">
-        <f t="shared" si="105"/>
-        <v>84443.871155165529</v>
-      </c>
-      <c r="AI27" s="2">
-        <f t="shared" si="105"/>
-        <v>83599.43244361387</v>
-      </c>
-      <c r="AJ27" s="2">
-        <f t="shared" si="105"/>
-        <v>82763.438119177736</v>
-      </c>
-      <c r="AK27" s="2">
-        <f t="shared" si="105"/>
-        <v>81935.80373798596</v>
-      </c>
-      <c r="AL27" s="2">
-        <f t="shared" si="105"/>
-        <v>81116.445700606098</v>
-      </c>
-      <c r="AM27" s="2">
-        <f t="shared" si="105"/>
-        <v>80305.281243600039</v>
-      </c>
-      <c r="AN27" s="2">
-        <f t="shared" si="105"/>
-        <v>79502.22843116404</v>
-      </c>
-      <c r="AO27" s="2">
-        <f t="shared" si="105"/>
-        <v>78707.206146852404</v>
-      </c>
-      <c r="AP27" s="2">
-        <f t="shared" si="105"/>
-        <v>77920.134085383877</v>
-      </c>
-      <c r="AQ27" s="2">
-        <f t="shared" si="105"/>
-        <v>77140.932744530044</v>
-      </c>
-      <c r="AR27" s="2">
-        <f t="shared" si="105"/>
-        <v>76369.52341708474</v>
-      </c>
-      <c r="AS27" s="2">
-        <f t="shared" si="105"/>
-        <v>75605.828182913887</v>
-      </c>
-      <c r="AT27" s="2">
-        <f t="shared" si="105"/>
-        <v>74849.769901084743</v>
-      </c>
-      <c r="AU27" s="2">
-        <f t="shared" si="105"/>
-        <v>74101.272202073887</v>
-      </c>
-      <c r="AV27" s="2">
-        <f t="shared" si="105"/>
-        <v>73360.259480053151</v>
-      </c>
-      <c r="AW27" s="2">
-        <f t="shared" si="105"/>
-        <v>72626.656885252625</v>
-      </c>
-      <c r="AX27" s="2">
-        <f t="shared" si="105"/>
-        <v>71900.390316400095</v>
-      </c>
-      <c r="AY27" s="2">
-        <f t="shared" si="105"/>
-        <v>71181.38641323609</v>
-      </c>
-      <c r="AZ27" s="2">
-        <f t="shared" si="105"/>
-        <v>70469.57254910373</v>
-      </c>
-      <c r="BA27" s="2">
-        <f t="shared" si="105"/>
-        <v>69764.876823612693</v>
-      </c>
-      <c r="BB27" s="2">
-        <f t="shared" si="105"/>
-        <v>69067.228055376559</v>
-      </c>
-      <c r="BC27" s="2">
-        <f t="shared" si="105"/>
-        <v>68376.555774822787</v>
-      </c>
-      <c r="BD27" s="2">
-        <f t="shared" si="105"/>
-        <v>67692.790217074566</v>
-      </c>
-      <c r="BE27" s="2">
-        <f t="shared" si="105"/>
-        <v>67015.862314903818</v>
-      </c>
-      <c r="BF27" s="2">
-        <f t="shared" si="105"/>
-        <v>66345.703691754781</v>
-      </c>
-      <c r="BG27" s="2">
-        <f t="shared" si="105"/>
-        <v>65682.246654837232</v>
-      </c>
-      <c r="BH27" s="2">
-        <f t="shared" ref="BH27:CM27" si="106">BG27*(1+$AD$30)</f>
-        <v>65025.42418828886</v>
-      </c>
-      <c r="BI27" s="2">
-        <f t="shared" si="106"/>
-        <v>64375.169946405971</v>
-      </c>
-      <c r="BJ27" s="2">
-        <f t="shared" si="106"/>
-        <v>63731.41824694191</v>
-      </c>
-      <c r="BK27" s="2">
-        <f t="shared" si="106"/>
-        <v>63094.104064472493</v>
-      </c>
-      <c r="BL27" s="2">
-        <f t="shared" si="106"/>
-        <v>62463.163023827765</v>
-      </c>
-      <c r="BM27" s="2">
-        <f t="shared" si="106"/>
-        <v>61838.531393589488</v>
-      </c>
-      <c r="BN27" s="2">
-        <f t="shared" si="106"/>
-        <v>61220.14607965359</v>
-      </c>
-      <c r="BO27" s="2">
-        <f t="shared" si="106"/>
-        <v>60607.944618857051</v>
-      </c>
-      <c r="BP27" s="2">
-        <f t="shared" si="106"/>
-        <v>60001.865172668477</v>
-      </c>
-      <c r="BQ27" s="2">
-        <f t="shared" si="106"/>
-        <v>59401.846520941792</v>
-      </c>
-      <c r="BR27" s="2">
-        <f t="shared" si="106"/>
-        <v>58807.828055732374</v>
-      </c>
-      <c r="BS27" s="2">
-        <f t="shared" si="106"/>
-        <v>58219.749775175049</v>
-      </c>
-      <c r="BT27" s="2">
-        <f t="shared" si="106"/>
-        <v>57637.552277423296</v>
-      </c>
-      <c r="BU27" s="2">
-        <f t="shared" si="106"/>
-        <v>57061.176754649059</v>
-      </c>
-      <c r="BV27" s="2">
-        <f t="shared" si="106"/>
-        <v>56490.564987102567</v>
-      </c>
-      <c r="BW27" s="2">
-        <f t="shared" si="106"/>
-        <v>55925.65933723154</v>
-      </c>
-      <c r="BX27" s="2">
-        <f t="shared" si="106"/>
-        <v>55366.402743859224</v>
-      </c>
-      <c r="BY27" s="2">
-        <f t="shared" si="106"/>
-        <v>54812.73871642063</v>
-      </c>
-      <c r="BZ27" s="2">
-        <f t="shared" si="106"/>
-        <v>54264.611329256426</v>
-      </c>
-      <c r="CA27" s="2">
-        <f t="shared" si="106"/>
-        <v>53721.965215963864</v>
-      </c>
-      <c r="CB27" s="2">
-        <f t="shared" si="106"/>
-        <v>53184.745563804223</v>
-      </c>
-      <c r="CC27" s="2">
-        <f t="shared" si="106"/>
-        <v>52652.898108166177</v>
-      </c>
-      <c r="CD27" s="2">
-        <f t="shared" si="106"/>
-        <v>52126.369127084516</v>
-      </c>
-      <c r="CE27" s="2">
-        <f t="shared" si="106"/>
-        <v>51605.105435813668</v>
-      </c>
-      <c r="CF27" s="2">
-        <f t="shared" si="106"/>
-        <v>51089.054381455528</v>
-      </c>
-      <c r="CG27" s="2">
-        <f t="shared" si="106"/>
-        <v>50578.163837640968</v>
-      </c>
-      <c r="CH27" s="2">
-        <f t="shared" si="106"/>
-        <v>50072.382199264561</v>
-      </c>
-      <c r="CI27" s="2">
-        <f t="shared" si="106"/>
-        <v>49571.658377271917</v>
-      </c>
-      <c r="CJ27" s="2">
-        <f t="shared" si="106"/>
-        <v>49075.941793499194</v>
-      </c>
-      <c r="CK27" s="2">
-        <f t="shared" si="106"/>
-        <v>48585.182375564204</v>
-      </c>
-      <c r="CL27" s="2">
-        <f t="shared" si="106"/>
-        <v>48099.330551808562</v>
-      </c>
-      <c r="CM27" s="2">
-        <f t="shared" si="106"/>
-        <v>47618.337246290474</v>
-      </c>
-      <c r="CN27" s="2">
-        <f t="shared" ref="CN27:DP27" si="107">CM27*(1+$AD$30)</f>
-        <v>47142.15387382757</v>
-      </c>
-      <c r="CO27" s="2">
-        <f t="shared" si="107"/>
-        <v>46670.732335089291</v>
-      </c>
-      <c r="CP27" s="2">
-        <f t="shared" si="107"/>
-        <v>46204.025011738398</v>
-      </c>
-      <c r="CQ27" s="2">
-        <f t="shared" si="107"/>
-        <v>45741.984761621017</v>
-      </c>
-      <c r="CR27" s="2">
-        <f t="shared" si="107"/>
-        <v>45284.564914004804</v>
-      </c>
-      <c r="CS27" s="2">
-        <f t="shared" si="107"/>
-        <v>44831.719264864754</v>
-      </c>
-      <c r="CT27" s="2">
-        <f t="shared" si="107"/>
-        <v>44383.402072216108</v>
-      </c>
-      <c r="CU27" s="2">
-        <f t="shared" si="107"/>
-        <v>43939.568051493945</v>
-      </c>
-      <c r="CV27" s="2">
-        <f t="shared" si="107"/>
-        <v>43500.172370979002</v>
-      </c>
-      <c r="CW27" s="2">
-        <f t="shared" si="107"/>
-        <v>43065.170647269209</v>
-      </c>
-      <c r="CX27" s="2">
-        <f t="shared" si="107"/>
-        <v>42634.518940796515</v>
-      </c>
-      <c r="CY27" s="2">
-        <f t="shared" si="107"/>
-        <v>42208.173751388553</v>
-      </c>
-      <c r="CZ27" s="2">
-        <f t="shared" si="107"/>
-        <v>41786.092013874666</v>
-      </c>
-      <c r="DA27" s="2">
-        <f t="shared" si="107"/>
-        <v>41368.231093735922</v>
-      </c>
-      <c r="DB27" s="2">
-        <f t="shared" si="107"/>
-        <v>40954.548782798563</v>
-      </c>
-      <c r="DC27" s="2">
-        <f t="shared" si="107"/>
-        <v>40545.003294970578</v>
-      </c>
-      <c r="DD27" s="2">
-        <f t="shared" si="107"/>
-        <v>40139.553262020869</v>
-      </c>
-      <c r="DE27" s="2">
-        <f t="shared" si="107"/>
-        <v>39738.157729400657</v>
-      </c>
-      <c r="DF27" s="2">
-        <f t="shared" si="107"/>
-        <v>39340.77615210665</v>
-      </c>
-      <c r="DG27" s="2">
-        <f t="shared" si="107"/>
-        <v>38947.36839058558</v>
-      </c>
-      <c r="DH27" s="2">
-        <f t="shared" si="107"/>
-        <v>38557.894706679726</v>
-      </c>
-      <c r="DI27" s="2">
-        <f t="shared" si="107"/>
-        <v>38172.315759612931</v>
-      </c>
-      <c r="DJ27" s="2">
-        <f t="shared" si="107"/>
-        <v>37790.592602016804</v>
-      </c>
-      <c r="DK27" s="2">
-        <f t="shared" si="107"/>
-        <v>37412.686675996636</v>
-      </c>
-      <c r="DL27" s="2">
-        <f t="shared" si="107"/>
-        <v>37038.559809236671</v>
-      </c>
-      <c r="DM27" s="2">
-        <f t="shared" si="107"/>
-        <v>36668.174211144302</v>
-      </c>
-      <c r="DN27" s="2">
-        <f t="shared" si="107"/>
-        <v>36301.492469032855</v>
-      </c>
-      <c r="DO27" s="2">
-        <f t="shared" si="107"/>
-        <v>35938.477544342524</v>
-      </c>
-      <c r="DP27" s="2">
-        <f t="shared" si="107"/>
-        <v>35579.0927688991</v>
-      </c>
-    </row>
-    <row r="28" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>901</v>
-      </c>
-      <c r="G28" s="2">
-        <v>899</v>
-      </c>
-      <c r="H28" s="2">
-        <f>G28</f>
-        <v>899</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" ref="I28:J28" si="108">H28</f>
-        <v>899</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="108"/>
-        <v>899</v>
-      </c>
-      <c r="Q28" s="2">
-        <f>J28</f>
-        <v>899</v>
-      </c>
-      <c r="R28" s="2">
-        <f>Q28</f>
-        <v>899</v>
-      </c>
-      <c r="S28" s="2">
-        <f t="shared" ref="S28:V28" si="109">R28</f>
-        <v>899</v>
-      </c>
-      <c r="T28" s="2">
-        <f t="shared" si="109"/>
-        <v>899</v>
-      </c>
-      <c r="U28" s="2">
-        <f t="shared" si="109"/>
-        <v>899</v>
-      </c>
-      <c r="V28" s="2">
-        <f t="shared" si="109"/>
-        <v>899</v>
-      </c>
-      <c r="W28" s="2">
-        <f t="shared" ref="W28:AA28" si="110">V28</f>
-        <v>899</v>
-      </c>
-      <c r="X28" s="2">
-        <f t="shared" si="110"/>
-        <v>899</v>
-      </c>
-      <c r="Y28" s="2">
-        <f t="shared" si="110"/>
-        <v>899</v>
-      </c>
-      <c r="Z28" s="2">
-        <f t="shared" si="110"/>
-        <v>899</v>
-      </c>
-      <c r="AA28" s="2">
-        <f t="shared" si="110"/>
-        <v>899</v>
-      </c>
-    </row>
-    <row r="29" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" ref="C29:H29" si="111">C27/C28</f>
-        <v>2.611542730299667</v>
-      </c>
-      <c r="D29" s="1" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="1" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="1" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="111"/>
-        <v>4.8553948832035596</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="111"/>
-        <v>5.7198650055617355</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" ref="I29:L29" si="112">I27/I28</f>
-        <v>6.8595499376729716</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="112"/>
-        <v>8.1224000775865228</v>
-      </c>
-      <c r="L29" s="1" t="e">
-        <f t="shared" si="112"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="1" t="e">
-        <f t="shared" ref="M29" si="113">M27/M28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="1" t="e">
-        <f t="shared" ref="N29" si="114">N27/N28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" s="1" t="e">
-        <f t="shared" ref="O29" si="115">O27/O28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P29" s="1" t="e">
-        <f t="shared" ref="P29" si="116">P27/P28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="1">
-        <f t="shared" ref="Q29" si="117">Q27/Q28</f>
-        <v>25.557209904024795</v>
-      </c>
-      <c r="R29" s="1">
-        <f t="shared" ref="R29" si="118">R27/R28</f>
-        <v>39.169287922732202</v>
-      </c>
-      <c r="S29" s="1">
-        <f t="shared" ref="S29" si="119">S27/S28</f>
-        <v>43.767215142813768</v>
-      </c>
-      <c r="T29" s="1">
-        <f t="shared" ref="T29" si="120">T27/T28</f>
-        <v>48.814841848806587</v>
-      </c>
-      <c r="U29" s="1">
-        <f t="shared" ref="U29:V29" si="121">U27/U28</f>
-        <v>54.353962685704722</v>
-      </c>
-      <c r="V29" s="1">
-        <f t="shared" si="121"/>
-        <v>60.430184841449304</v>
-      </c>
-      <c r="W29" s="1">
-        <f t="shared" ref="W29" si="122">W27/W28</f>
-        <v>67.093273186936926</v>
-      </c>
-      <c r="X29" s="1">
-        <f t="shared" ref="X29" si="123">X27/X28</f>
-        <v>74.397526558591196</v>
-      </c>
-      <c r="Y29" s="1">
-        <f t="shared" ref="Y29" si="124">Y27/Y28</f>
-        <v>82.402187989518282</v>
-      </c>
-      <c r="Z29" s="1">
-        <f t="shared" ref="Z29" si="125">Z27/Z28</f>
-        <v>91.171891947937439</v>
-      </c>
-      <c r="AA29" s="1">
-        <f t="shared" ref="AA29" si="126">AA27/AA28</f>
-        <v>100.77715191699207</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD29" s="10">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="30" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="AC30" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD30" s="10">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="31" spans="1:120" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="9">
-        <f>G17/C17-1</f>
-        <v>0.45164233576642343</v>
-      </c>
-      <c r="H31" s="9" t="e">
-        <f t="shared" ref="H31:J31" si="127">H17/D17-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="9" t="e">
-        <f t="shared" si="127"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="9" t="e">
-        <f t="shared" si="127"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="9" t="e">
-        <f t="shared" ref="M31:V31" si="128">M17/L17-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" s="9" t="e">
-        <f t="shared" si="128"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" s="9" t="e">
-        <f t="shared" si="128"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P31" s="9" t="e">
-        <f t="shared" si="128"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" s="9" t="e">
-        <f t="shared" si="128"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" s="9">
-        <f t="shared" si="128"/>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="S31" s="9">
-        <f t="shared" si="128"/>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="T31" s="9">
-        <f t="shared" si="128"/>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="U31" s="9">
-        <f t="shared" si="128"/>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="V31" s="9">
-        <f t="shared" si="128"/>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="W31" s="9">
-        <f t="shared" ref="W31:AA31" si="129">W17/V17-1</f>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="X31" s="9">
-        <f t="shared" si="129"/>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="Y31" s="9">
-        <f t="shared" si="129"/>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="Z31" s="9">
-        <f t="shared" si="129"/>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="AA31" s="9">
-        <f t="shared" si="129"/>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="AC31" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD31" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="10">
-        <f>C19/C17</f>
-        <v>0.80907846715328469</v>
-      </c>
-      <c r="D32" s="10" t="e">
-        <f t="shared" ref="D32:J32" si="130">D19/D17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="10" t="e">
-        <f t="shared" si="130"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="10" t="e">
-        <f t="shared" si="130"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="10">
-        <f t="shared" si="130"/>
-        <v>0.82526712759270904</v>
-      </c>
-      <c r="H32" s="10">
-        <f t="shared" si="130"/>
-        <v>0.83</v>
-      </c>
-      <c r="I32" s="10">
-        <f t="shared" si="130"/>
-        <v>0.83</v>
-      </c>
-      <c r="J32" s="10">
-        <f t="shared" si="130"/>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="L32" s="10" t="e">
-        <f t="shared" ref="L32:Q32" si="131">L19/L17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="10" t="e">
-        <f t="shared" si="131"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" s="10" t="e">
-        <f t="shared" si="131"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O32" s="10" t="e">
-        <f t="shared" si="131"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P32" s="10" t="e">
-        <f t="shared" si="131"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q32" s="10">
-        <f t="shared" si="131"/>
-        <v>0.82898020417856255</v>
-      </c>
-      <c r="R32" s="10">
-        <f t="shared" ref="R32:V32" si="132">R19/R17</f>
-        <v>0.83</v>
-      </c>
-      <c r="S32" s="10">
-        <f t="shared" si="132"/>
-        <v>0.83</v>
-      </c>
-      <c r="T32" s="10">
-        <f t="shared" si="132"/>
-        <v>0.83</v>
-      </c>
-      <c r="U32" s="10">
-        <f t="shared" si="132"/>
-        <v>0.83</v>
-      </c>
-      <c r="V32" s="10">
-        <f t="shared" si="132"/>
-        <v>0.83</v>
-      </c>
-      <c r="W32" s="10">
-        <f t="shared" ref="W32:AA32" si="133">W19/W17</f>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="X32" s="10">
-        <f t="shared" si="133"/>
-        <v>0.83</v>
-      </c>
-      <c r="Y32" s="10">
-        <f t="shared" si="133"/>
-        <v>0.83</v>
-      </c>
-      <c r="Z32" s="10">
-        <f t="shared" si="133"/>
-        <v>0.83</v>
-      </c>
-      <c r="AA32" s="10">
-        <f t="shared" si="133"/>
-        <v>0.83</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD32" s="2">
-        <f>NPV(AD31,Q27:XFD27)+Main!K6-Main!K7</f>
-        <v>887331.52989786386</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="G33" s="10">
-        <f>G21/C21-1</f>
-        <v>0.26485655737704916</v>
-      </c>
-      <c r="H33" s="10" t="e">
-        <f t="shared" ref="H33:J33" si="134">H21/D21-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="10" t="e">
-        <f t="shared" si="134"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="10" t="e">
-        <f t="shared" si="134"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10">
-        <f>R21/Q21-1</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="S33" s="10">
-        <f t="shared" ref="S33:V33" si="135">S21/R21-1</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="T33" s="10">
-        <f t="shared" si="135"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="U33" s="10">
-        <f t="shared" si="135"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="V33" s="10">
-        <f t="shared" si="135"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="W33" s="10">
-        <f t="shared" ref="W33:AA33" si="136">W21/V21-1</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="X33" s="10">
-        <f t="shared" si="136"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="Y33" s="10">
-        <f t="shared" si="136"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="Z33" s="10">
-        <f t="shared" si="136"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="AA33" s="10">
-        <f t="shared" si="136"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="AC33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD33" s="1">
-        <f>AD32/Main!K4</f>
-        <v>936.26544329149374</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="AD34" s="10">
-        <f>AD33/Main!K3-1</f>
-        <v>0.36681086611896907</v>
-      </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="2">
-        <f>C36-SUM(C57:C59)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <f>D36-SUM(D57:D59)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <f>E36-SUM(E57:E59)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <f>F36-SUM(F57:F59)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <f>G36-SUM(G57:G58)</f>
-        <v>-3466</v>
-      </c>
-      <c r="H35" s="2">
-        <f>G35+H27</f>
-        <v>1676.1586400000006</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" ref="I35:J35" si="137">H35+I27</f>
-        <v>7842.8940339680021</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="137"/>
-        <v>15144.931703718286</v>
-      </c>
-      <c r="L35" s="2">
-        <f>L36-SUM(L57:L59)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
-        <f>M36-SUM(M57:M59)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="2">
-        <f>N36-SUM(N57:N59)</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="2">
-        <f>O36-SUM(O57:O59)</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
-        <f>P36-SUM(P57:P59)</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2">
-        <f>J35</f>
-        <v>15144.931703718286</v>
-      </c>
-      <c r="R35" s="2">
-        <f>Q35+R27</f>
-        <v>50358.121546254537</v>
-      </c>
-      <c r="S35" s="2">
-        <f t="shared" ref="S35:V35" si="138">R35+S27</f>
-        <v>89704.847959644118</v>
-      </c>
-      <c r="T35" s="2">
-        <f t="shared" si="138"/>
-        <v>133589.39078172125</v>
-      </c>
-      <c r="U35" s="2">
-        <f t="shared" si="138"/>
-        <v>182453.60323616979</v>
-      </c>
-      <c r="V35" s="2">
-        <f t="shared" si="138"/>
-        <v>236780.33940863272</v>
-      </c>
-      <c r="W35" s="2">
-        <f t="shared" ref="W35:AA35" si="139">V35+W27</f>
-        <v>297097.19200368901</v>
-      </c>
-      <c r="X35" s="2">
-        <f t="shared" si="139"/>
-        <v>363980.56837986247</v>
-      </c>
-      <c r="Y35" s="2">
-        <f t="shared" si="139"/>
-        <v>438060.13538243942</v>
-      </c>
-      <c r="Z35" s="2">
-        <f t="shared" si="139"/>
-        <v>520023.66624363518</v>
-      </c>
-      <c r="AA35" s="2">
-        <f t="shared" si="139"/>
-        <v>610622.32581701106</v>
-      </c>
-    </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+      <c r="W38" s="2">
+        <f>N38</f>
+        <v>9106.2590616261004</v>
+      </c>
+      <c r="X38" s="2">
+        <f>W38+X30</f>
+        <v>49737.788668600442</v>
+      </c>
+      <c r="Y38" s="2">
+        <f t="shared" ref="Y38:AB38" si="164">X38+Y30</f>
+        <v>95649.468756225368</v>
+      </c>
+      <c r="Z38" s="2">
+        <f t="shared" si="164"/>
+        <v>147411.97048758919</v>
+      </c>
+      <c r="AA38" s="2">
+        <f t="shared" si="164"/>
+        <v>205654.64080136039</v>
+      </c>
+      <c r="AB38" s="2">
+        <f t="shared" si="164"/>
+        <v>267290.06981036701</v>
+      </c>
+      <c r="AC38" s="2">
+        <f t="shared" ref="AC38:AF38" si="165">AB38+AC30</f>
+        <v>332475.49017452751</v>
+      </c>
+      <c r="AD38" s="2">
+        <f t="shared" si="165"/>
+        <v>401374.85853904544</v>
+      </c>
+      <c r="AE38" s="2">
+        <f t="shared" si="165"/>
+        <v>474159.13325596752</v>
+      </c>
+      <c r="AF38" s="2">
+        <f t="shared" si="165"/>
+        <v>551006.56339095766</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="2">
+      <c r="K39" s="2">
         <f>3093+128</f>
         <v>3221</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
+      <c r="L39" s="2">
+        <f>3376+170</f>
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K40" s="2">
+        <v>12037</v>
+      </c>
+      <c r="L40" s="2">
+        <v>14170</v>
+      </c>
+      <c r="AD40" s="10"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1966.6</v>
+      </c>
+      <c r="L41" s="2">
+        <v>3035</v>
+      </c>
+      <c r="AH41" s="31"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="2">
-        <v>12037</v>
-      </c>
-      <c r="X37" s="10"/>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
+      <c r="K42" s="2">
+        <v>9311</v>
+      </c>
+      <c r="L42" s="2">
+        <v>11014</v>
+      </c>
+      <c r="AH42" s="31"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="2">
+        <v>14654</v>
+      </c>
+      <c r="L43" s="2">
+        <v>18020</v>
+      </c>
+      <c r="AH43" s="10"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="2">
+        <v>72</v>
+      </c>
+      <c r="L44" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="2">
+        <v>3223</v>
+      </c>
+      <c r="L45" s="2">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" s="2">
+        <v>5771</v>
+      </c>
+      <c r="L46" s="2">
+        <v>5771</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="2">
-        <v>1966.6</v>
-      </c>
-      <c r="AB38" s="31">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="2">
-        <v>9311</v>
-      </c>
-      <c r="AB39" s="31">
-        <f>AB40-AB38</f>
-        <v>2.6000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="2">
-        <v>14654</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB40" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" s="2">
-        <v>3223</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" s="2">
-        <v>5771</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
+      <c r="K47" s="2">
+        <v>6012</v>
+      </c>
+      <c r="L47" s="2">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K48" s="2">
+        <v>8573</v>
+      </c>
+      <c r="L48" s="2">
+        <v>9427</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G44" s="2">
-        <v>6012</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="2">
-        <v>8573</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
+      <c r="K49" s="2">
+        <v>18474</v>
+      </c>
+      <c r="L49" s="2">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="2">
-        <v>18474</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
+      <c r="K50" s="2">
+        <v>6075</v>
+      </c>
+      <c r="L50" s="2">
+        <v>6225</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="2">
-        <v>6075</v>
-      </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" s="2">
-        <f>SUM(G36:G47)</f>
+      <c r="K51" s="2">
+        <f>SUM(K39:K50)</f>
         <v>89389.6</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
+      <c r="L51" s="2">
+        <f>SUM(L39:L50)</f>
+        <v>100922</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="2">
+      <c r="K53" s="2">
         <f>4016+34449</f>
         <v>38465</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
+      <c r="L53" s="2">
+        <f>5724+6958+34180</f>
+        <v>46862</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" s="2">
+        <v>3442</v>
+      </c>
+      <c r="L54" s="2">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G51" s="2">
-        <v>3442</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
+      <c r="K55" s="2">
+        <v>1114</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K56" s="2">
+        <v>11550</v>
+      </c>
+      <c r="L56" s="2">
+        <v>14537</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K58" s="2">
+        <v>6176</v>
+      </c>
+      <c r="L58" s="2">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G52" s="2">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G53" s="2">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
+      <c r="K59" s="2">
+        <v>3770</v>
+      </c>
+      <c r="L59" s="2">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1316</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K61" s="2">
+        <v>5371</v>
+      </c>
+      <c r="L61" s="2">
+        <v>5684</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K62" s="2">
+        <v>2288</v>
+      </c>
+      <c r="L62" s="2">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K63" s="2">
+        <f>SUM(K53:K62)</f>
+        <v>73492</v>
+      </c>
+      <c r="L63" s="2">
+        <f>SUM(L53:L62)</f>
+        <v>89532</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K64" s="2">
+        <f>K51-K63</f>
+        <v>15897.600000000006</v>
+      </c>
+      <c r="L64" s="2">
+        <f>L51-L63</f>
+        <v>11390</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K65" s="2">
+        <f>K64+K63</f>
+        <v>89389.6</v>
+      </c>
+      <c r="L65" s="2">
+        <f>L64+L63</f>
+        <v>100922</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" ref="G67:L67" si="166">G30</f>
+        <v>2353</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="166"/>
+        <v>3955</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" si="166"/>
+        <v>3754</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" si="166"/>
+        <v>4942.6000000000004</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" si="166"/>
+        <v>4365</v>
+      </c>
+      <c r="L67" s="2">
+        <f t="shared" si="166"/>
+        <v>5995</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" s="2">
+        <v>2243</v>
+      </c>
+      <c r="K68" s="2">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K69" s="2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K70" s="2">
+        <v>-392</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G55" s="2">
-        <v>6176</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" s="2">
-        <v>3770</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" s="2">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G58" s="2">
-        <v>5371</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" s="2">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G60" s="2">
-        <f>SUM(G50:G59)</f>
-        <v>73492</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" s="2">
-        <f>G48-G60</f>
-        <v>15897.600000000006</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G62" s="2">
-        <f>G61+G60</f>
-        <v>89389.6</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="2">
-        <f>C27</f>
-        <v>2353</v>
-      </c>
-      <c r="D64" s="2">
-        <f>D27</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="2">
-        <f>E27</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="2">
-        <f>F27</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="2">
-        <f>G27</f>
-        <v>4365</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="2">
-        <v>2243</v>
-      </c>
-      <c r="G65" s="2">
-        <v>2759</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" s="2">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" s="2">
-        <v>-392</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
+      <c r="K71" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K72" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G68" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G69" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
+      <c r="K73" s="2">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G70" s="2">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" s="2">
+      <c r="K74" s="2">
         <f>-3364+325</f>
         <v>-3039</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K75" s="2">
+        <f>SUM(K39:K44)-SUM(K45:K50)</f>
+        <v>-6866.4000000000015</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G72" s="2">
-        <f>SUM(G36:G41)-SUM(G42:G47)</f>
-        <v>-6866.4000000000015</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
+      <c r="K76" s="2">
+        <f>SUM(K68:K74)</f>
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G73" s="2">
-        <f>SUM(G65:G71)</f>
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" s="2">
+      <c r="K78" s="2">
         <v>-1510</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G76" s="2">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K79" s="2">
         <f>72-197</f>
         <v>-125</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="2" t="s">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K80" s="2">
+        <v>-1757</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K81" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G77" s="2">
-        <v>-1757</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G78" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B79" s="2" t="s">
+      <c r="K82" s="2">
+        <f>SUM(K78:K81)</f>
+        <v>-3353</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K84" s="2">
+        <v>-1346</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G79" s="2">
-        <f>SUM(G75:G78)</f>
-        <v>-3353</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G81" s="2">
-        <v>-1346</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G82" s="2">
+      <c r="K85" s="2">
         <f>-1849+6461</f>
         <v>4612</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K86" s="2">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K87" s="2">
+        <v>-686</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G83" s="2">
-        <v>-1200</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G84" s="2">
-        <v>-686</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
+      <c r="K88" s="2">
+        <f>SUM(K84:K87)</f>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G85" s="2">
-        <f>SUM(G81:G84)</f>
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="2" t="s">
+      <c r="G89" s="2">
+        <v>-36</v>
+      </c>
+      <c r="K89" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="2">
-        <v>-36</v>
-      </c>
-      <c r="G86" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G87" s="2">
-        <f>G73+G79+G85+G86</f>
+      <c r="K90" s="2">
+        <f>K76+K82+K88+K89</f>
         <v>-175</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B89" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G89" s="2">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K92" s="2">
         <v>8489</v>
       </c>
-      <c r="H89" s="10">
-        <f>G89/$G$94</f>
-        <v>0.6669547454431175</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G90" s="2">
+      <c r="L92" s="2">
+        <v>10814</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K93" s="2">
         <v>2389</v>
       </c>
-      <c r="H90" s="10">
-        <f t="shared" ref="H90:H93" si="140">G90/$G$94</f>
-        <v>0.18769641734758014</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G91" s="2">
+      <c r="L93" s="2">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K94" s="2">
         <v>451</v>
       </c>
-      <c r="H91" s="10">
-        <f t="shared" si="140"/>
-        <v>3.5433689503456947E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G92" s="2">
+      <c r="L94" s="2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="K95" s="2">
         <v>402</v>
       </c>
-      <c r="H92" s="10">
-        <f t="shared" si="140"/>
-        <v>3.1583909490886235E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G93" s="2">
+      <c r="L95" s="2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K96" s="2">
         <v>997</v>
       </c>
-      <c r="H93" s="10">
-        <f t="shared" si="140"/>
-        <v>7.8331238214959145E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G94" s="2">
-        <f>SUM(G89:G93)</f>
-        <v>12728</v>
-      </c>
+      <c r="L96" s="2">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="10"/>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="10"/>
+    </row>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="10"/>
+    </row>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="10"/>
+    </row>
+    <row r="102" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L102" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{87DF8049-26DF-4905-BACD-85C49EBD7562}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D92F221-2168-4E03-8F61-52C2DF201221}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{4E39AA09-BE41-43ED-BE61-D2715B2CAA27}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6687,90 +7500,90 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E5" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E6" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E8" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C9" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E9" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C10" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E10" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C11" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E11" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C12" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E12" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -6785,8 +7598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A23FC46-79AB-4D31-998B-F6F3117F2304}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6825,17 +7638,17 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -6845,7 +7658,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
@@ -6918,7 +7731,7 @@
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C23" s="2">
         <v>136000000</v>
@@ -6986,7 +7799,7 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C24" s="2">
         <f>C23*0.03</f>
@@ -7177,7 +7990,7 @@
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D28" s="10">
         <v>7.0000000000000007E-2</v>
@@ -7185,19 +7998,19 @@
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D29" s="2">
         <f>NPV(D28,D26:R26)</f>
         <v>753525.64885395556</v>
       </c>
       <c r="E29" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
@@ -7236,7 +8049,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -7244,7 +8057,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -7252,7 +8065,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -7262,17 +8075,17 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -7282,22 +8095,22 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="25" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -7312,7 +8125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55209CA0-1E65-4F76-BF8E-7B463599745A}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -7334,7 +8147,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -7342,7 +8155,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -7350,7 +8163,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -7358,25 +8171,25 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -7386,32 +8199,32 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="25" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="25" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
@@ -7424,12 +8237,12 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C20" s="25" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
@@ -7442,12 +8255,12 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C24" s="25" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
@@ -7526,7 +8339,7 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C32" s="2">
         <v>4150000</v>
@@ -7598,7 +8411,7 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C33" s="2">
         <f>C32*0.2</f>
@@ -7800,7 +8613,7 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D37" s="10">
         <v>0.08</v>
@@ -7808,7 +8621,7 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D38" s="26">
         <f>NPV(D37,C35:S35)</f>

--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BF6A43-0D93-4968-8275-762C1149FBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEEA7E0-9C12-478B-A54E-00C146588BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="465" windowWidth="21750" windowHeight="15015" activeTab="2" xr2:uid="{0B35871E-4663-488C-B05C-A1B5B9C863D7}"/>
+    <workbookView xWindow="5565" yWindow="960" windowWidth="20805" windowHeight="14520" activeTab="1" xr2:uid="{0B35871E-4663-488C-B05C-A1B5B9C863D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1860,7 +1860,7 @@
   <dimension ref="B2:L96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>685</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="K5" s="2">
         <f>K4*K3</f>
-        <v>615130</v>
+        <v>628600</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="K8" s="2">
         <f>K5+K7-K6</f>
-        <v>658446</v>
+        <v>671916</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -3877,11 +3877,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EBA39-FD53-497C-AEEB-0F0FD94197E7}">
   <dimension ref="A1:DV102"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AE24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ22" sqref="AJ22"/>
+      <selection pane="bottomRight" activeCell="AI45" sqref="AI45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6580,7 +6580,7 @@
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AI37" s="10">
         <f>AI36/Main!K3-1</f>
-        <v>0.32596757886567462</v>
+        <v>0.29755398788998155</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
@@ -7100,8 +7100,12 @@
         <v>83</v>
       </c>
       <c r="K75" s="2">
-        <f>SUM(K39:K44)-SUM(K45:K50)</f>
-        <v>-6866.4000000000015</v>
+        <f>SUM(K39:K44)-SUM(K54:K59)</f>
+        <v>15209.599999999999</v>
+      </c>
+      <c r="L75" s="2">
+        <f>SUM(L39:L44)-SUM(L54:L59)</f>
+        <v>16558</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
@@ -7302,9 +7306,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D92F221-2168-4E03-8F61-52C2DF201221}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7599,7 +7603,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7802,68 +7806,68 @@
         <v>337</v>
       </c>
       <c r="C24" s="2">
-        <f>C23*0.03</f>
-        <v>4080000</v>
-      </c>
-      <c r="D24">
-        <f>D23*0.04</f>
-        <v>5467200</v>
-      </c>
-      <c r="E24">
-        <f>E23*0.05</f>
-        <v>6868170</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ref="F24:R24" si="2">F23*0.05</f>
-        <v>6902510.8500000006</v>
-      </c>
-      <c r="G24">
+        <f>C23*0.02</f>
+        <v>2720000</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:E24" si="2">D23*0.02</f>
+        <v>2733600</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="2"/>
-        <v>6937023.4042499997</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="2"/>
-        <v>6971708.5212712483</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="2"/>
-        <v>7006567.063877604</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="2"/>
-        <v>7041599.8991969917</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
-        <v>7076807.8986929767</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="2"/>
-        <v>7112191.9381864406</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="2"/>
-        <v>7147752.8978773719</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="2"/>
-        <v>7183491.6623667572</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="2"/>
-        <v>7219409.1206785906</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="2"/>
-        <v>7255506.1662819823</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="2"/>
-        <v>7291783.697113391</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="2"/>
-        <v>7328242.6155989561</v>
+        <v>2747268</v>
+      </c>
+      <c r="F24" s="2">
+        <f>F23*0.03</f>
+        <v>4141506.51</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" ref="G24:N24" si="3">G23*0.03</f>
+        <v>4162214.0425499994</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="3"/>
+        <v>4183025.1127627487</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="3"/>
+        <v>4203940.2383265616</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="3"/>
+        <v>4224959.9395181946</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="3"/>
+        <v>4246084.7392157856</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="3"/>
+        <v>4267315.162911864</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="3"/>
+        <v>4288651.7387264222</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="3"/>
+        <v>4310094.9974200539</v>
+      </c>
+      <c r="O24" s="2">
+        <f>O23*0.04</f>
+        <v>5775527.2965428727</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" ref="P24:R24" si="4">P23*0.04</f>
+        <v>5804404.9330255855</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="4"/>
+        <v>5833426.9576907121</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="4"/>
+        <v>5862594.0924791647</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
@@ -7925,67 +7929,67 @@
       </c>
       <c r="C26" s="2">
         <f>C25*C24/1000000</f>
-        <v>48960</v>
+        <v>32640</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" ref="D26:R26" si="3">D25*D24/1000000</f>
-        <v>65606.399999999994</v>
+        <f t="shared" ref="D26:R26" si="5">D25*D24/1000000</f>
+        <v>32803.199999999997</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="3"/>
-        <v>82418.039999999994</v>
+        <f t="shared" si="5"/>
+        <v>32967.216</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="3"/>
-        <v>82830.1302</v>
+        <f t="shared" si="5"/>
+        <v>49698.078119999998</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="3"/>
-        <v>83244.280851000003</v>
+        <f t="shared" si="5"/>
+        <v>49946.568510599987</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="3"/>
-        <v>83660.502255254978</v>
+        <f t="shared" si="5"/>
+        <v>50196.301353152987</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="3"/>
-        <v>84078.804766531248</v>
+        <f t="shared" si="5"/>
+        <v>50447.282859918741</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="3"/>
-        <v>84499.198790363909</v>
+        <f t="shared" si="5"/>
+        <v>50699.519274218335</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="3"/>
-        <v>84921.694784315725</v>
+        <f t="shared" si="5"/>
+        <v>50953.016870589425</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="3"/>
-        <v>85346.303258237283</v>
+        <f t="shared" si="5"/>
+        <v>51207.781954942366</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="3"/>
-        <v>85773.034774528453</v>
+        <f t="shared" si="5"/>
+        <v>51463.820864717061</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="3"/>
-        <v>86201.899948401086</v>
+        <f t="shared" si="5"/>
+        <v>51721.139969040647</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="3"/>
-        <v>86632.90944814308</v>
+        <f t="shared" si="5"/>
+        <v>69306.327558514458</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" si="3"/>
-        <v>87066.073995383791</v>
+        <f t="shared" si="5"/>
+        <v>69652.859196307021</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="3"/>
-        <v>87501.404365360693</v>
+        <f t="shared" si="5"/>
+        <v>70001.123492288549</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="3"/>
-        <v>87938.911387187472</v>
+        <f t="shared" si="5"/>
+        <v>70351.129109749963</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
@@ -8002,7 +8006,7 @@
       </c>
       <c r="D29" s="2">
         <f>NPV(D28,D26:R26)</f>
-        <v>753525.64885395556</v>
+        <v>459667.13541400188</v>
       </c>
       <c r="E29" t="s">
         <v>339</v>
@@ -8016,7 +8020,7 @@
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D31" s="2">
         <f>D29+200000</f>
-        <v>953525.64885395556</v>
+        <v>659667.13541400188</v>
       </c>
     </row>
   </sheetData>

--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEEA7E0-9C12-478B-A54E-00C146588BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95388F0C-B6BC-49AF-89C5-98BD79421AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="960" windowWidth="20805" windowHeight="14520" activeTab="1" xr2:uid="{0B35871E-4663-488C-B05C-A1B5B9C863D7}"/>
+    <workbookView xWindow="1170" yWindow="480" windowWidth="22200" windowHeight="14805" xr2:uid="{0B35871E-4663-488C-B05C-A1B5B9C863D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="366">
   <si>
     <t>Price</t>
   </si>
@@ -1161,6 +1161,12 @@
   </si>
   <si>
     <t>Topic</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>IV</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1322,19 +1328,14 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1354,6 +1355,12 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1857,1147 +1864,1447 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D0B04E-7193-4895-997B-E4F4972CD4A5}">
-  <dimension ref="B2:L96"/>
+  <dimension ref="B2:M96"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="22">
         <v>44694</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <v>2036</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="23" t="s">
+      <c r="G3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>898</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="27">
+      <c r="C4" s="3"/>
+      <c r="D4" s="22">
         <v>45238</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <v>2036</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="J4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>898</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G4" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <f>L3*L2</f>
+        <v>628600</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="27">
+      <c r="C5" s="3"/>
+      <c r="D5" s="22">
         <v>43370</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="2">
-        <f>K4*K3</f>
-        <v>628600</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="27"/>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3546</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="22">
         <v>44953</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="2">
-        <v>3546</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="27"/>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>46862</v>
+      </c>
+      <c r="M6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="22">
         <v>43959</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="2">
-        <v>46862</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="27"/>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2">
+        <f>L4+L6-L5</f>
+        <v>671916</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="27">
+      <c r="C8" s="3"/>
+      <c r="D8" s="22">
         <v>43251</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="J8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2">
-        <f>K5+K7-K6</f>
-        <v>671916</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="23" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="27"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="22">
         <v>45225</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <v>2037</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G9" s="3"/>
+      <c r="H9" s="27"/>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="27">
+      <c r="C10" s="3"/>
+      <c r="D10" s="22">
         <v>43749</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="J10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="27"/>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="27">
+      <c r="C11" s="3"/>
+      <c r="D11" s="22">
         <v>43997</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="J11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="22">
         <v>45475</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
         <v>2036</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G12" s="3"/>
+      <c r="H12" s="27"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="27">
+      <c r="C13" s="3"/>
+      <c r="D13" s="22">
         <v>45548</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="J13" s="5" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="27"/>
+      <c r="K13" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="27">
+      <c r="C14" s="3"/>
+      <c r="D14" s="22">
         <v>39955</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="J14" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="27"/>
+      <c r="K14" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="27">
+      <c r="C15" s="3"/>
+      <c r="D15" s="22">
         <v>38021</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="J15" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="27"/>
+      <c r="K15" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="27">
+      <c r="C16" s="3"/>
+      <c r="D16" s="22">
         <v>41005</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="J16" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="27"/>
+      <c r="K16" t="s">
         <v>287</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="27">
+      <c r="C17" s="3"/>
+      <c r="D17" s="22">
         <v>43670</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="J17" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="27"/>
+      <c r="K17" t="s">
         <v>335</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="27">
+      <c r="C18" s="3"/>
+      <c r="D18" s="22">
         <v>42354</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="27"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D19" s="27">
+      <c r="C19" s="3"/>
+      <c r="D19" s="22">
         <v>41750</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="J19" s="25" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="27"/>
+      <c r="K19" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="27">
+      <c r="C20" s="3"/>
+      <c r="D20" s="22">
         <v>38029</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="J20" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="27"/>
+      <c r="K20" t="s">
         <v>210</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="27">
+      <c r="C21" s="3"/>
+      <c r="D21" s="22">
         <v>37586</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="27"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D22" s="27">
+      <c r="C22" s="3"/>
+      <c r="D22" s="22">
         <v>42034</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="27"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="27">
+      <c r="C23" s="3"/>
+      <c r="D23" s="22">
         <v>35230</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="J23" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="27"/>
+      <c r="K23" t="s">
         <v>224</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="27">
+      <c r="C24" s="3"/>
+      <c r="D24" s="22">
         <v>31701</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="27"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="27">
+      <c r="C25" s="3"/>
+      <c r="D25" s="22">
         <v>32623</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="27"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="27">
+      <c r="C26" s="3"/>
+      <c r="D26" s="22">
         <v>41852</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="J26" s="25" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="27"/>
+      <c r="K26" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="27">
+      <c r="C27" s="3"/>
+      <c r="D27" s="22">
         <v>40938</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="J27" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="27"/>
+      <c r="K27" t="s">
         <v>328</v>
       </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D28" s="27">
+      <c r="C28" s="3"/>
+      <c r="D28" s="22">
         <v>42242</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="J28" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="27"/>
+      <c r="K28" t="s">
         <v>331</v>
       </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="22">
         <v>42451</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="27"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="27">
+      <c r="C30" s="3"/>
+      <c r="D30" s="22">
         <v>43979</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="J30" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="27"/>
+      <c r="K30" t="s">
         <v>332</v>
       </c>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="27">
+      <c r="C31" s="3"/>
+      <c r="D31" s="22">
         <v>40665</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="23" t="s">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="27"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D32" s="27">
+      <c r="C32" s="3"/>
+      <c r="D32" s="22">
         <v>45553</v>
       </c>
-      <c r="F32">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3">
         <v>2027</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="J32" t="s">
+      <c r="G32" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H32" s="27"/>
+      <c r="K32" t="s">
         <v>333</v>
       </c>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="22">
         <v>43006</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="J33" t="s">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="27"/>
+      <c r="K33" t="s">
         <v>334</v>
       </c>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="13" t="s">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="28">
+      <c r="C34" s="13"/>
+      <c r="D34" s="23">
         <v>35338</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="16"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19" t="s">
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="28"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>114</v>
       </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="23" t="s">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>234</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>230</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="23" t="s">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="18" t="s">
         <v>117</v>
       </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="23" t="s">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>231</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="23" t="s">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>233</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="23" t="s">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H42" s="27"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="23" t="s">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>290</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="27"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
         <v>121</v>
       </c>
+      <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="27"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>293</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="27"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>295</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="27"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>299</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="27"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>295</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="27"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>301</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="27"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>315</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="27"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>305</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="27"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>295</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="3" t="s">
         <v>306</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="27"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="3" t="s">
         <v>300</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="27"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="3" t="s">
         <v>297</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="27"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>316</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="27"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G58" s="12"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>302</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="27"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>231</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="27"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>303</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="27"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>307</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="27"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="11" t="s">
         <v>138</v>
       </c>
+      <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G63" s="12"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="27"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="3" t="s">
         <v>300</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="27"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="11" t="s">
         <v>140</v>
       </c>
+      <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="27"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>309</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="27"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>304</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="27"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="11" t="s">
         <v>144</v>
       </c>
+      <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="27"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>310</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="27"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>311</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="27"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="11" t="s">
         <v>147</v>
       </c>
+      <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="27"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>295</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G72" s="12"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="27"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="11" t="s">
         <v>149</v>
       </c>
+      <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G73" s="12"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="27"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="3" t="s">
         <v>295</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G74" s="12"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="27"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="11" t="s">
         <v>151</v>
       </c>
+      <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G75" s="12"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="27"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="11" t="s">
         <v>152</v>
       </c>
+      <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G76" s="12"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="27"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="3" t="s">
         <v>312</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G77" s="12"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="27"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="3" t="s">
         <v>296</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G78" s="12"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="27"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="3" t="s">
         <v>295</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G79" s="12"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="27"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G80" s="12"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="27"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="3" t="s">
         <v>313</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G81" s="12"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="27"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="11" t="s">
         <v>158</v>
       </c>
+      <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G82" s="12"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="27"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="3" t="s">
         <v>230</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G83" s="12"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="27"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="3" t="s">
         <v>312</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G84" s="12"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="27"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="3" t="s">
         <v>314</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G85" s="12"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="27"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="3" t="s">
         <v>298</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G86" s="12"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="27"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="11" t="s">
         <v>163</v>
       </c>
+      <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G87" s="12"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="27"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" s="11" t="s">
         <v>164</v>
       </c>
+      <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G88" s="12"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="27"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="3" t="s">
         <v>313</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G89" s="12"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B90" s="13" t="s">
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="27"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="16"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="28"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D96" s="3"/>
     </row>
   </sheetData>
@@ -3094,7 +3401,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="20" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3104,7 +3411,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="20" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3191,7 +3498,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="20" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3279,7 +3586,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="20" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3289,12 +3596,12 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="29">
+      <c r="C13" s="24">
         <v>46600</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="20" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3304,7 +3611,7 @@
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="29">
+      <c r="C17" s="24">
         <v>48274</v>
       </c>
     </row>
@@ -3388,7 +3695,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="20" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3398,12 +3705,12 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="29">
+      <c r="C13" s="24">
         <v>45689</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="20" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3413,12 +3720,12 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="29">
+      <c r="C16" s="24">
         <v>45748</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="20" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3428,12 +3735,12 @@
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="29">
+      <c r="C19" s="24">
         <v>46419</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="20" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3443,12 +3750,12 @@
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="29">
+      <c r="C22" s="24">
         <v>46174</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="20" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3458,12 +3765,12 @@
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="29">
+      <c r="C25" s="24">
         <v>46327</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="20" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3473,12 +3780,12 @@
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="29">
+      <c r="C28" s="24">
         <v>46419</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="20" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3488,12 +3795,12 @@
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="29">
+      <c r="C31" s="24">
         <v>46266</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="20" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3503,7 +3810,7 @@
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="29">
+      <c r="C34" s="24">
         <v>46419</v>
       </c>
     </row>
@@ -3586,7 +3893,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="20" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3596,7 +3903,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="29">
+      <c r="C13" s="24">
         <v>47178</v>
       </c>
     </row>
@@ -3681,7 +3988,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="20" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3691,12 +3998,12 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="29">
+      <c r="C13" s="24">
         <v>46357</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="20" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3706,12 +4013,12 @@
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="29">
+      <c r="C17" s="24">
         <v>46874</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="20" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3721,12 +4028,12 @@
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="29">
+      <c r="C21" s="24">
         <v>46722</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="20" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3736,7 +4043,7 @@
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="29">
+      <c r="C25" s="24">
         <v>46844</v>
       </c>
     </row>
@@ -3821,7 +4128,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="20" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3831,12 +4138,12 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="29">
+      <c r="C13" s="24">
         <v>47392</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="20" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3846,12 +4153,12 @@
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="29">
+      <c r="C17" s="24">
         <v>48245</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="20" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3861,7 +4168,7 @@
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="29">
+      <c r="C21" s="24">
         <v>46478</v>
       </c>
     </row>
@@ -3877,7 +4184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EBA39-FD53-497C-AEEB-0F0FD94197E7}">
   <dimension ref="A1:DV102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AE24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3898,10 +4205,10 @@
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="24">
+      <c r="L1" s="19">
         <v>45876</v>
       </c>
-      <c r="M1" s="24">
+      <c r="M1" s="19">
         <v>45960</v>
       </c>
     </row>
@@ -6477,7 +6784,7 @@
         <v>111</v>
       </c>
       <c r="AI35" s="2">
-        <f>NPV(AI34,W30:XFD30)+Main!K6-Main!K7</f>
+        <f>NPV(AI34,W30:XFD30)+Main!L5-Main!L6</f>
         <v>815642.43678764242</v>
       </c>
     </row>
@@ -6573,13 +6880,13 @@
         <v>112</v>
       </c>
       <c r="AI36" s="1">
-        <f>AI35/Main!K4</f>
+        <f>AI35/Main!L3</f>
         <v>908.28779152298716</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AI37" s="10">
-        <f>AI36/Main!K3-1</f>
+        <f>AI36/Main!L2-1</f>
         <v>0.29755398788998155</v>
       </c>
     </row>
@@ -6739,7 +7046,7 @@
       <c r="L41" s="2">
         <v>3035</v>
       </c>
-      <c r="AH41" s="31"/>
+      <c r="AH41" s="26"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
@@ -6751,7 +7058,7 @@
       <c r="L42" s="2">
         <v>11014</v>
       </c>
-      <c r="AH42" s="31"/>
+      <c r="AH42" s="26"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
@@ -8103,7 +8410,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="20" t="s">
         <v>221</v>
       </c>
     </row>
@@ -8207,7 +8514,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="20" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8222,7 +8529,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="20" t="s">
         <v>238</v>
       </c>
     </row>
@@ -8232,15 +8539,15 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C18" s="29">
+      <c r="C18" s="24">
         <v>45870</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C19" s="29"/>
+      <c r="C19" s="24"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="20" t="s">
         <v>237</v>
       </c>
     </row>
@@ -8250,15 +8557,15 @@
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C22" s="29">
+      <c r="C22" s="24">
         <v>46478</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C23" s="29"/>
+      <c r="C23" s="24"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="20" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8268,7 +8575,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C26" s="29">
+      <c r="C26" s="24">
         <v>46692</v>
       </c>
     </row>
@@ -8627,7 +8934,7 @@
       <c r="C38" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="21">
         <f>NPV(D37,C35:S35)</f>
         <v>110214.69142256565</v>
       </c>

--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -8,27 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95388F0C-B6BC-49AF-89C5-98BD79421AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EEFB12-873B-45BC-8051-D51A16C77823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="480" windowWidth="22200" windowHeight="14805" xr2:uid="{0B35871E-4663-488C-B05C-A1B5B9C863D7}"/>
+    <workbookView xWindow="2520" yWindow="795" windowWidth="22200" windowHeight="14685" activeTab="3" xr2:uid="{0B35871E-4663-488C-B05C-A1B5B9C863D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Literature" sheetId="17" r:id="rId3"/>
-    <sheet name="IP" sheetId="5" r:id="rId4"/>
-    <sheet name="Trials" sheetId="4" r:id="rId5"/>
-    <sheet name="GLP-1s" sheetId="3" r:id="rId6"/>
-    <sheet name="Mounjaro-Zepbound" sheetId="6" r:id="rId7"/>
-    <sheet name="Trulicity" sheetId="7" r:id="rId8"/>
-    <sheet name="Kisunla" sheetId="8" r:id="rId9"/>
-    <sheet name="orforglipron" sheetId="10" r:id="rId10"/>
-    <sheet name="retratrutide" sheetId="11" r:id="rId11"/>
-    <sheet name="imlunestrant" sheetId="12" r:id="rId12"/>
-    <sheet name="lebrikizumab" sheetId="13" r:id="rId13"/>
-    <sheet name="lepodisiran" sheetId="14" r:id="rId14"/>
-    <sheet name="mirikizumab" sheetId="15" r:id="rId15"/>
-    <sheet name="olomorasib" sheetId="16" r:id="rId16"/>
+    <sheet name="Master" sheetId="18" r:id="rId1"/>
+    <sheet name="IP" sheetId="5" r:id="rId2"/>
+    <sheet name="Trials" sheetId="4" r:id="rId3"/>
+    <sheet name="Main" sheetId="1" r:id="rId4"/>
+    <sheet name="Model" sheetId="2" r:id="rId5"/>
+    <sheet name="Literature" sheetId="17" r:id="rId6"/>
+    <sheet name="GLP-1s" sheetId="3" r:id="rId7"/>
+    <sheet name="Obesity" sheetId="19" r:id="rId8"/>
+    <sheet name="Mounjaro-Zepbound" sheetId="6" r:id="rId9"/>
+    <sheet name="Trulicity" sheetId="7" r:id="rId10"/>
+    <sheet name="Kisunla" sheetId="8" r:id="rId11"/>
+    <sheet name="orforglipron" sheetId="10" r:id="rId12"/>
+    <sheet name="retratrutide" sheetId="11" r:id="rId13"/>
+    <sheet name="imlunestrant" sheetId="12" r:id="rId14"/>
+    <sheet name="lebrikizumab" sheetId="13" r:id="rId15"/>
+    <sheet name="lepodisiran" sheetId="14" r:id="rId16"/>
+    <sheet name="mirikizumab" sheetId="15" r:id="rId17"/>
+    <sheet name="olomorasib" sheetId="16" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="366">
   <si>
     <t>Price</t>
   </si>
@@ -767,9 +769,6 @@
     <t>ASCVD</t>
   </si>
   <si>
-    <t>III?</t>
-  </si>
-  <si>
     <t>resected adjuvant NSCLC</t>
   </si>
   <si>
@@ -1167,6 +1166,9 @@
   </si>
   <si>
     <t>IV</t>
+  </si>
+  <si>
+    <t>Disposition</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1202,6 +1204,11 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1313,7 +1320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1361,6 +1368,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1863,10 +1872,1623 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67830F6-DCCC-47C3-BB21-4BD91FD34B53}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{8B09C592-C260-406C-ACB4-BBE3804E3D3E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6177376-F086-44CA-9B21-31B260C7B0CC}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{8E2C417C-8312-4EDA-894E-5C8387569F74}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55209CA0-1E65-4F76-BF8E-7B463599745A}">
+  <dimension ref="A1:S38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C18" s="24">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C20" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C22" s="24">
+        <v>46478</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C23" s="24"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C24" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C26" s="24">
+        <v>46692</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>2025</v>
+      </c>
+      <c r="D31">
+        <f>C31+1</f>
+        <v>2026</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:S31" si="0">D31+1</f>
+        <v>2027</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4150000</v>
+      </c>
+      <c r="D32" s="2">
+        <f>C32*1.03</f>
+        <v>4274500</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" ref="E32:S32" si="1">D32*1.03</f>
+        <v>4402735</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="1"/>
+        <v>4534817.05</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="1"/>
+        <v>4670861.5614999998</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
+        <v>4810987.4083449999</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="1"/>
+        <v>4955317.0305953501</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="1"/>
+        <v>5103976.5415132111</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="1"/>
+        <v>5257095.8377586072</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="1"/>
+        <v>5414808.7128913654</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="1"/>
+        <v>5577252.9742781064</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="1"/>
+        <v>5744570.5635064496</v>
+      </c>
+      <c r="O32" s="2">
+        <f t="shared" si="1"/>
+        <v>5916907.6804116433</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="1"/>
+        <v>6094414.9108239925</v>
+      </c>
+      <c r="Q32" s="2">
+        <f t="shared" si="1"/>
+        <v>6277247.3581487127</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="1"/>
+        <v>6465564.7788931746</v>
+      </c>
+      <c r="S32" s="2">
+        <f t="shared" si="1"/>
+        <v>6659531.7222599704</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="2">
+        <f>C32*0.2</f>
+        <v>830000</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" ref="D33:S33" si="2">D32*0.2</f>
+        <v>854900</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="2"/>
+        <v>880547</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="2"/>
+        <v>906963.41</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="2"/>
+        <v>934172.31229999999</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="2"/>
+        <v>962197.481669</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="2"/>
+        <v>991063.40611907002</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="2"/>
+        <v>1020795.3083026423</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="2"/>
+        <v>1051419.1675517214</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="2"/>
+        <v>1082961.7425782732</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>1115450.5948556212</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="2"/>
+        <v>1148914.1127012901</v>
+      </c>
+      <c r="O33" s="2">
+        <f t="shared" si="2"/>
+        <v>1183381.5360823288</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="2"/>
+        <v>1218882.9821647985</v>
+      </c>
+      <c r="Q33" s="2">
+        <f t="shared" si="2"/>
+        <v>1255449.4716297425</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="2"/>
+        <v>1293112.9557786351</v>
+      </c>
+      <c r="S33" s="2">
+        <f t="shared" si="2"/>
+        <v>1331906.3444519942</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="D34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="F34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="I34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="J34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="K34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="L34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="M34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="N34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="R34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="S34" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="2">
+        <f>C34*C33/1000000*0.8</f>
+        <v>9960</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" ref="D35:S35" si="3">D34*D33/1000000*0.8</f>
+        <v>10258.800000000001</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="3"/>
+        <v>10566.564</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="3"/>
+        <v>10883.560920000002</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="3"/>
+        <v>11210.0677476</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="3"/>
+        <v>11546.369780028001</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="3"/>
+        <v>11892.760873428842</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="3"/>
+        <v>12249.543699631708</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="3"/>
+        <v>12617.030010620658</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="3"/>
+        <v>12995.540910939279</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="3"/>
+        <v>13385.407138267454</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="3"/>
+        <v>13786.969352415481</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="3"/>
+        <v>14200.578432987946</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="3"/>
+        <v>14626.595785977581</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="3"/>
+        <v>15065.39365955691</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="3"/>
+        <v>15517.355469343624</v>
+      </c>
+      <c r="S35" s="2">
+        <f t="shared" si="3"/>
+        <v>15982.876133423932</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="21">
+        <f>NPV(D37,C35:S35)</f>
+        <v>110214.69142256565</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{1A1CC4C2-166E-44CB-AADB-0BF1F520636A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2179A6F6-DBF9-4590-B13F-B22EDCA5BB90}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CE51DBE6-8B44-4E87-A0EB-867BDF7E290B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298463FF-A569-428F-A3AC-698CB3C8F0D4}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A1418863-84F2-49C7-AA37-7BC877A9125B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBFC883-F550-49DC-8A22-C9EDC397F408}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="24">
+        <v>46600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="24">
+        <v>48274</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{4931E407-EDE6-48D9-916D-A8EE4E1011C2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78456EB6-E7FB-48AF-BF3C-2B541E9E55CA}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="24">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="24">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="24">
+        <v>46419</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="24">
+        <v>46174</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="24">
+        <v>46327</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="24">
+        <v>46419</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="24">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="24">
+        <v>46419</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{740889EA-F2D8-43F6-A503-19990B2EF81B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB93556F-E243-45F0-BA15-3375F9F3D65A}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="24">
+        <v>47178</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{60FF9F2F-01C8-4C40-94DF-DBAE612AE1D5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD6FE77-10D0-4452-A008-CC8E0FEAB7B3}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="24">
+        <v>46357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="24">
+        <v>46874</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="24">
+        <v>46722</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="24">
+        <v>46844</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{7BCB8BDA-EA88-4EFD-8583-5F7454373935}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E83A2C5-07C5-40B2-9372-AC6E7F29EFB7}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="24">
+        <v>47392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="24">
+        <v>48245</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="24">
+        <v>46478</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{81F6F906-A93D-4409-8C04-AF26116D6CD1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14288813-3D1E-4A9E-A516-334ACAC114C1}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{68702C78-0E79-41C3-8141-0ECEA5C53235}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15C051B-1DA4-4878-A4F2-4493F7143AF8}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{9C0804F9-70CE-4485-9C8A-22A1D2ECD7AE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D0B04E-7193-4895-997B-E4F4972CD4A5}">
   <dimension ref="B2:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1900,7 +3522,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>12</v>
@@ -1927,7 +3549,7 @@
         <v>2036</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H3" s="27"/>
       <c r="K3" t="s">
@@ -1953,7 +3575,7 @@
         <v>2036</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H4" s="27"/>
       <c r="K4" t="s">
@@ -1991,7 +3613,7 @@
         <v>171</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D6" s="22">
         <v>44953</v>
@@ -2015,7 +3637,7 @@
         <v>172</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D7" s="22">
         <v>43959</v>
@@ -2051,7 +3673,7 @@
         <v>174</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" s="22">
         <v>45225</v>
@@ -2179,7 +3801,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="27"/>
       <c r="K16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L16" s="2"/>
     </row>
@@ -2196,7 +3818,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="27"/>
       <c r="K17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L17" s="2"/>
     </row>
@@ -2334,7 +3956,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="27"/>
       <c r="K26" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L26" s="2"/>
     </row>
@@ -2351,7 +3973,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="27"/>
       <c r="K27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L27" s="2"/>
     </row>
@@ -2368,7 +3990,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="27"/>
       <c r="K28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L28" s="2"/>
     </row>
@@ -2377,7 +3999,7 @@
         <v>191</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D29" s="22">
         <v>42451</v>
@@ -2401,7 +4023,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="27"/>
       <c r="K30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L30" s="2"/>
     </row>
@@ -2432,11 +4054,11 @@
         <v>2027</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H32" s="27"/>
       <c r="K32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L32" s="2"/>
     </row>
@@ -2445,7 +4067,7 @@
         <v>195</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D33" s="22">
         <v>43006</v>
@@ -2455,7 +4077,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="27"/>
       <c r="K33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L33" s="2"/>
     </row>
@@ -2502,7 +4124,7 @@
         <v>115</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>105</v>
@@ -2560,7 +4182,7 @@
         <v>101</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>105</v>
@@ -2575,13 +4197,13 @@
         <v>103</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
@@ -2609,7 +4231,7 @@
         <v>120</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>105</v>
@@ -2637,7 +4259,7 @@
         <v>102</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>105</v>
@@ -2652,7 +4274,7 @@
         <v>122</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>141</v>
@@ -2669,7 +4291,7 @@
         <v>123</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>141</v>
@@ -2684,7 +4306,7 @@
         <v>124</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>141</v>
@@ -2699,7 +4321,7 @@
         <v>125</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>141</v>
@@ -2714,7 +4336,7 @@
         <v>126</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>141</v>
@@ -2729,7 +4351,7 @@
         <v>127</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>141</v>
@@ -2744,7 +4366,7 @@
         <v>128</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>141</v>
@@ -2759,7 +4381,7 @@
         <v>129</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>141</v>
@@ -2774,7 +4396,7 @@
         <v>130</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>141</v>
@@ -2789,7 +4411,7 @@
         <v>131</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>141</v>
@@ -2804,7 +4426,7 @@
         <v>132</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>141</v>
@@ -2834,7 +4456,7 @@
         <v>134</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>141</v>
@@ -2852,7 +4474,7 @@
         <v>231</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -2864,7 +4486,7 @@
         <v>136</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>141</v>
@@ -2879,7 +4501,7 @@
         <v>137</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>141</v>
@@ -2907,7 +4529,7 @@
         <v>139</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>141</v>
@@ -2935,7 +4557,7 @@
         <v>142</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>167</v>
@@ -2950,7 +4572,7 @@
         <v>143</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>167</v>
@@ -2978,7 +4600,7 @@
         <v>145</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>167</v>
@@ -2993,7 +4615,7 @@
         <v>146</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>167</v>
@@ -3021,7 +4643,7 @@
         <v>148</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>167</v>
@@ -3049,7 +4671,7 @@
         <v>150</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>167</v>
@@ -3090,7 +4712,7 @@
         <v>153</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>167</v>
@@ -3105,7 +4727,7 @@
         <v>154</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>167</v>
@@ -3120,7 +4742,7 @@
         <v>155</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>167</v>
@@ -3150,7 +4772,7 @@
         <v>157</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>167</v>
@@ -3193,7 +4815,7 @@
         <v>160</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>167</v>
@@ -3208,7 +4830,7 @@
         <v>161</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>167</v>
@@ -3223,7 +4845,7 @@
         <v>162</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>167</v>
@@ -3264,7 +4886,7 @@
         <v>165</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>167</v>
@@ -3279,7 +4901,7 @@
         <v>166</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D90" s="13" t="s">
         <v>167</v>
@@ -3326,861 +4948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2179A6F6-DBF9-4590-B13F-B22EDCA5BB90}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CE51DBE6-8B44-4E87-A0EB-867BDF7E290B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298463FF-A569-428F-A3AC-698CB3C8F0D4}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A1418863-84F2-49C7-AA37-7BC877A9125B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBFC883-F550-49DC-8A22-C9EDC397F408}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="24">
-        <v>46600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="24">
-        <v>48274</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{4931E407-EDE6-48D9-916D-A8EE4E1011C2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78456EB6-E7FB-48AF-BF3C-2B541E9E55CA}">
-  <dimension ref="A1:C34"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="24">
-        <v>45689</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="24">
-        <v>45748</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="24">
-        <v>46419</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="24">
-        <v>46174</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="24">
-        <v>46327</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="24">
-        <v>46419</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="20" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="24">
-        <v>46266</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="24">
-        <v>46419</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{740889EA-F2D8-43F6-A503-19990B2EF81B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB93556F-E243-45F0-BA15-3375F9F3D65A}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="24">
-        <v>47178</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{60FF9F2F-01C8-4C40-94DF-DBAE612AE1D5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD6FE77-10D0-4452-A008-CC8E0FEAB7B3}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="24">
-        <v>46357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="24">
-        <v>46874</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="24">
-        <v>46722</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="24">
-        <v>46844</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{7BCB8BDA-EA88-4EFD-8583-5F7454373935}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E83A2C5-07C5-40B2-9372-AC6E7F29EFB7}">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="24">
-        <v>47392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="24">
-        <v>48245</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="24">
-        <v>46478</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{81F6F906-A93D-4409-8C04-AF26116D6CD1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EBA39-FD53-497C-AEEB-0F0FD94197E7}">
   <dimension ref="A1:DV102"/>
   <sheetViews>
@@ -4214,16 +4982,16 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -4564,7 +5332,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C9" s="2">
         <v>461</v>
@@ -4605,7 +5373,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S10" s="2">
         <v>1033</v>
@@ -4622,7 +5390,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S11" s="2">
         <v>1115</v>
@@ -4639,7 +5407,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S12" s="2">
         <v>1223</v>
@@ -4656,7 +5424,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S13" s="2">
         <v>577</v>
@@ -4673,7 +5441,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S14" s="2">
         <v>893</v>
@@ -4690,7 +5458,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U15" s="2">
         <v>597</v>
@@ -4701,7 +5469,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S16" s="2">
         <v>418</v>
@@ -4718,7 +5486,7 @@
     </row>
     <row r="17" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U17" s="2">
         <v>1695</v>
@@ -4729,7 +5497,7 @@
     </row>
     <row r="18" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U18" s="2">
         <v>678</v>
@@ -4740,7 +5508,7 @@
     </row>
     <row r="19" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U19" s="2">
         <v>3103</v>
@@ -7026,7 +7794,7 @@
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K40" s="2">
         <v>12037</v>
@@ -7530,7 +8298,7 @@
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K92" s="2">
         <v>8489</v>
@@ -7541,7 +8309,7 @@
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K93" s="2">
         <v>2389</v>
@@ -7552,7 +8320,7 @@
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K94" s="2">
         <v>451</v>
@@ -7563,7 +8331,7 @@
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K95" s="2">
         <v>402</v>
@@ -7574,7 +8342,7 @@
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K96" s="2">
         <v>997</v>
@@ -7609,7 +8377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D92F221-2168-4E03-8F61-52C2DF201221}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -7631,13 +8399,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" t="s">
         <v>361</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>362</v>
-      </c>
-      <c r="D2" t="s">
-        <v>363</v>
       </c>
       <c r="E2" t="s">
         <v>34</v>
@@ -7651,102 +8419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14288813-3D1E-4A9E-A516-334ACAC114C1}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{68702C78-0E79-41C3-8141-0ECEA5C53235}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15C051B-1DA4-4878-A4F2-4493F7143AF8}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{9C0804F9-70CE-4485-9C8A-22A1D2ECD7AE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5744FCAD-61D7-4A2F-914E-2906B0E5F55A}">
   <dimension ref="A1:N12"/>
   <sheetViews>
@@ -7754,7 +8427,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7814,10 +8487,10 @@
         <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -7825,10 +8498,10 @@
         <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -7836,65 +8509,65 @@
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" t="s">
         <v>317</v>
-      </c>
-      <c r="C8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" t="s">
         <v>323</v>
       </c>
-      <c r="C12" t="s">
-        <v>324</v>
-      </c>
       <c r="E12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -7905,7 +8578,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA431D66-37F5-4992-BB42-B1C1DD3FEE8F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A30592F4-48BE-426D-A534-D04E7C64AF07}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A23FC46-79AB-4D31-998B-F6F3117F2304}">
   <dimension ref="A1:R31"/>
   <sheetViews>
@@ -8110,7 +8809,7 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C24" s="2">
         <f>C23*0.02</f>
@@ -8316,12 +9015,12 @@
         <v>459667.13541400188</v>
       </c>
       <c r="E29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
@@ -8336,613 +9035,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6177376-F086-44CA-9B21-31B260C7B0CC}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{8E2C417C-8312-4EDA-894E-5C8387569F74}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55209CA0-1E65-4F76-BF8E-7B463599745A}">
-  <dimension ref="A1:S38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="20" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C18" s="24">
-        <v>45870</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C19" s="24"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C20" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C22" s="24">
-        <v>46478</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C23" s="24"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C24" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C26" s="24">
-        <v>46692</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C31">
-        <v>2025</v>
-      </c>
-      <c r="D31">
-        <f>C31+1</f>
-        <v>2026</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ref="E31:S31" si="0">D31+1</f>
-        <v>2027</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>2031</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>2032</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>2034</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="0"/>
-        <v>2035</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="0"/>
-        <v>2036</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="0"/>
-        <v>2037</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="0"/>
-        <v>2038</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="0"/>
-        <v>2039</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="0"/>
-        <v>2040</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="0"/>
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>202</v>
-      </c>
-      <c r="C32" s="2">
-        <v>4150000</v>
-      </c>
-      <c r="D32" s="2">
-        <f>C32*1.03</f>
-        <v>4274500</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" ref="E32:S32" si="1">D32*1.03</f>
-        <v>4402735</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" si="1"/>
-        <v>4534817.05</v>
-      </c>
-      <c r="G32" s="2">
-        <f t="shared" si="1"/>
-        <v>4670861.5614999998</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="1"/>
-        <v>4810987.4083449999</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="1"/>
-        <v>4955317.0305953501</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="1"/>
-        <v>5103976.5415132111</v>
-      </c>
-      <c r="K32" s="2">
-        <f t="shared" si="1"/>
-        <v>5257095.8377586072</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" si="1"/>
-        <v>5414808.7128913654</v>
-      </c>
-      <c r="M32" s="2">
-        <f t="shared" si="1"/>
-        <v>5577252.9742781064</v>
-      </c>
-      <c r="N32" s="2">
-        <f t="shared" si="1"/>
-        <v>5744570.5635064496</v>
-      </c>
-      <c r="O32" s="2">
-        <f t="shared" si="1"/>
-        <v>5916907.6804116433</v>
-      </c>
-      <c r="P32" s="2">
-        <f t="shared" si="1"/>
-        <v>6094414.9108239925</v>
-      </c>
-      <c r="Q32" s="2">
-        <f t="shared" si="1"/>
-        <v>6277247.3581487127</v>
-      </c>
-      <c r="R32" s="2">
-        <f t="shared" si="1"/>
-        <v>6465564.7788931746</v>
-      </c>
-      <c r="S32" s="2">
-        <f t="shared" si="1"/>
-        <v>6659531.7222599704</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33" s="2">
-        <f>C32*0.2</f>
-        <v>830000</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" ref="D33:S33" si="2">D32*0.2</f>
-        <v>854900</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="2"/>
-        <v>880547</v>
-      </c>
-      <c r="F33" s="2">
-        <f t="shared" si="2"/>
-        <v>906963.41</v>
-      </c>
-      <c r="G33" s="2">
-        <f t="shared" si="2"/>
-        <v>934172.31229999999</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="2"/>
-        <v>962197.481669</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" si="2"/>
-        <v>991063.40611907002</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="2"/>
-        <v>1020795.3083026423</v>
-      </c>
-      <c r="K33" s="2">
-        <f t="shared" si="2"/>
-        <v>1051419.1675517214</v>
-      </c>
-      <c r="L33" s="2">
-        <f t="shared" si="2"/>
-        <v>1082961.7425782732</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" si="2"/>
-        <v>1115450.5948556212</v>
-      </c>
-      <c r="N33" s="2">
-        <f t="shared" si="2"/>
-        <v>1148914.1127012901</v>
-      </c>
-      <c r="O33" s="2">
-        <f t="shared" si="2"/>
-        <v>1183381.5360823288</v>
-      </c>
-      <c r="P33" s="2">
-        <f t="shared" si="2"/>
-        <v>1218882.9821647985</v>
-      </c>
-      <c r="Q33" s="2">
-        <f t="shared" si="2"/>
-        <v>1255449.4716297425</v>
-      </c>
-      <c r="R33" s="2">
-        <f t="shared" si="2"/>
-        <v>1293112.9557786351</v>
-      </c>
-      <c r="S33" s="2">
-        <f t="shared" si="2"/>
-        <v>1331906.3444519942</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="D34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="E34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="F34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="G34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="H34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="I34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="J34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="K34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="N34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="O34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="P34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="R34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="S34" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="2">
-        <f>C34*C33/1000000*0.8</f>
-        <v>9960</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" ref="D35:S35" si="3">D34*D33/1000000*0.8</f>
-        <v>10258.800000000001</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="3"/>
-        <v>10566.564</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" si="3"/>
-        <v>10883.560920000002</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" si="3"/>
-        <v>11210.0677476</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="3"/>
-        <v>11546.369780028001</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="3"/>
-        <v>11892.760873428842</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="3"/>
-        <v>12249.543699631708</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="3"/>
-        <v>12617.030010620658</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="3"/>
-        <v>12995.540910939279</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="3"/>
-        <v>13385.407138267454</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" si="3"/>
-        <v>13786.969352415481</v>
-      </c>
-      <c r="O35" s="2">
-        <f t="shared" si="3"/>
-        <v>14200.578432987946</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" si="3"/>
-        <v>14626.595785977581</v>
-      </c>
-      <c r="Q35" s="2">
-        <f t="shared" si="3"/>
-        <v>15065.39365955691</v>
-      </c>
-      <c r="R35" s="2">
-        <f t="shared" si="3"/>
-        <v>15517.355469343624</v>
-      </c>
-      <c r="S35" s="2">
-        <f t="shared" si="3"/>
-        <v>15982.876133423932</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="21">
-        <f>NPV(D37,C35:S35)</f>
-        <v>110214.69142256565</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{1A1CC4C2-166E-44CB-AADB-0BF1F520636A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>